--- a/DataValidation/data validation for 105_FMILEAGE.xlsx
+++ b/DataValidation/data validation for 105_FMILEAGE.xlsx
@@ -29,10 +29,10 @@
     <t>train_operating_company_key</t>
   </si>
   <si>
-    <t>train_operating_company_name</t>
+    <t>provisional</t>
   </si>
   <si>
-    <t>provisional</t>
+    <t>train_operating_company_key_toc_name</t>
   </si>
   <si>
     <t>trains_planned</t>
@@ -578,10 +578,10 @@
       <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
       <c r="G2" t="s"/>
@@ -610,10 +610,10 @@
       <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="s"/>
@@ -642,10 +642,10 @@
       <c r="B4" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
       <c r="G4" t="s"/>
@@ -674,10 +674,10 @@
       <c r="B5" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="s"/>
@@ -706,10 +706,10 @@
       <c r="B6" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s"/>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
@@ -738,10 +738,10 @@
       <c r="B7" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
@@ -770,10 +770,10 @@
       <c r="B8" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1" t="s"/>
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
@@ -804,10 +804,10 @@
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
@@ -836,10 +836,10 @@
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
       <c r="G10" t="s"/>
@@ -868,10 +868,10 @@
       <c r="B11" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="s"/>
       <c r="G11" t="s"/>
@@ -900,10 +900,10 @@
       <c r="B12" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
@@ -932,10 +932,10 @@
       <c r="B13" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s"/>
       <c r="E13" t="s"/>
       <c r="F13" t="s"/>
       <c r="G13" t="s"/>
@@ -964,10 +964,10 @@
       <c r="B14" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1" t="s"/>
       <c r="E14" t="s"/>
       <c r="F14" t="s"/>
       <c r="G14" t="s"/>
@@ -996,10 +996,10 @@
       <c r="B15" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s"/>
       <c r="E15" t="s"/>
       <c r="F15" t="s"/>
       <c r="G15" t="s"/>
@@ -1030,10 +1030,10 @@
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s"/>
       <c r="E16" t="s"/>
       <c r="F16" t="s"/>
       <c r="G16" t="s"/>
@@ -1062,10 +1062,10 @@
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="1" t="s"/>
       <c r="E17" t="s"/>
       <c r="F17" t="s"/>
       <c r="G17" t="s"/>
@@ -1094,10 +1094,10 @@
       <c r="B18" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="s"/>
       <c r="E18" t="s"/>
       <c r="F18" t="s"/>
       <c r="G18" t="s"/>
@@ -1126,10 +1126,10 @@
       <c r="B19" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s"/>
       <c r="E19" t="s"/>
       <c r="F19" t="s"/>
       <c r="G19" t="s"/>
@@ -1158,10 +1158,10 @@
       <c r="B20" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="1" t="s"/>
       <c r="E20" t="s"/>
       <c r="F20" t="s"/>
       <c r="G20" t="s"/>
@@ -1190,10 +1190,10 @@
       <c r="B21" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s"/>
       <c r="E21" t="s"/>
       <c r="F21" t="s"/>
       <c r="G21" t="s"/>
@@ -1222,10 +1222,10 @@
       <c r="B22" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s"/>
       <c r="E22" t="s"/>
       <c r="F22" t="s"/>
       <c r="G22" t="s"/>
@@ -1256,10 +1256,10 @@
       <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1" t="s"/>
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s"/>
       <c r="E23" t="s"/>
       <c r="F23" t="s"/>
       <c r="G23" t="s"/>
@@ -1288,10 +1288,10 @@
       <c r="B24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1" t="s"/>
+      <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1" t="s"/>
       <c r="E24" t="s"/>
       <c r="F24" t="s"/>
       <c r="G24" t="s"/>
@@ -1320,10 +1320,10 @@
       <c r="B25" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1" t="s"/>
+      <c r="D25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1" t="s"/>
       <c r="E25" t="s"/>
       <c r="F25" t="s"/>
       <c r="G25" t="s"/>
@@ -1352,10 +1352,10 @@
       <c r="B26" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="1" t="s"/>
       <c r="E26" t="s"/>
       <c r="F26" t="s"/>
       <c r="G26" t="s"/>
@@ -1384,10 +1384,10 @@
       <c r="B27" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="1" t="s"/>
       <c r="E27" t="s"/>
       <c r="F27" t="s"/>
       <c r="G27" t="s"/>
@@ -1416,10 +1416,10 @@
       <c r="B28" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="1" t="s"/>
       <c r="E28" t="s"/>
       <c r="F28" t="s"/>
       <c r="G28" t="s"/>
@@ -1448,10 +1448,10 @@
       <c r="B29" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="s"/>
@@ -1482,10 +1482,10 @@
       <c r="B30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1" t="s"/>
       <c r="E30" t="s"/>
       <c r="F30" t="s"/>
       <c r="G30" t="s"/>
@@ -1514,10 +1514,10 @@
       <c r="B31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1" t="s"/>
       <c r="E31" t="s"/>
       <c r="F31" t="s"/>
       <c r="G31" t="s"/>
@@ -1546,10 +1546,10 @@
       <c r="B32" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="1" t="s"/>
       <c r="E32" t="s"/>
       <c r="F32" t="s"/>
       <c r="G32" t="s"/>
@@ -1578,10 +1578,10 @@
       <c r="B33" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="1" t="s"/>
       <c r="E33" t="s"/>
       <c r="F33" t="s"/>
       <c r="G33" t="s"/>
@@ -1610,10 +1610,10 @@
       <c r="B34" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="1" t="s"/>
       <c r="E34" t="s"/>
       <c r="F34" t="s"/>
       <c r="G34" t="s"/>
@@ -1642,10 +1642,10 @@
       <c r="B35" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="1" t="s"/>
       <c r="E35" t="s"/>
       <c r="F35" t="s"/>
       <c r="G35" t="s"/>
@@ -1674,10 +1674,10 @@
       <c r="B36" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="1" t="s"/>
+      <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="1" t="s"/>
       <c r="E36" t="s"/>
       <c r="F36" t="s"/>
       <c r="G36" t="s"/>
@@ -1708,10 +1708,10 @@
       <c r="B37" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="1" t="s"/>
       <c r="E37" t="s"/>
       <c r="F37" t="s"/>
       <c r="G37" t="s"/>
@@ -1740,10 +1740,10 @@
       <c r="B38" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="1" t="s"/>
+      <c r="D38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="1" t="s"/>
       <c r="E38" t="s"/>
       <c r="F38" t="s"/>
       <c r="G38" t="s"/>
@@ -1772,10 +1772,10 @@
       <c r="B39" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="1" t="s"/>
+      <c r="D39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="1" t="s"/>
       <c r="E39" t="s"/>
       <c r="F39" t="s"/>
       <c r="G39" t="s"/>
@@ -1804,10 +1804,10 @@
       <c r="B40" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="1" t="s"/>
+      <c r="D40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="1" t="s"/>
       <c r="E40" t="s"/>
       <c r="F40" t="s"/>
       <c r="G40" t="s"/>
@@ -1836,10 +1836,10 @@
       <c r="B41" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="1" t="s"/>
+      <c r="D41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="1" t="s"/>
       <c r="E41" t="s"/>
       <c r="F41" t="s"/>
       <c r="G41" t="s"/>
@@ -1868,10 +1868,10 @@
       <c r="B42" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="1" t="s"/>
+      <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="1" t="s"/>
       <c r="E42" t="s"/>
       <c r="F42" t="s"/>
       <c r="G42" t="s"/>
@@ -1900,10 +1900,10 @@
       <c r="B43" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="1" t="s"/>
+      <c r="D43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="1" t="s"/>
       <c r="E43" t="s"/>
       <c r="F43" t="s"/>
       <c r="G43" t="s"/>
@@ -1934,10 +1934,10 @@
       <c r="B44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="1" t="s"/>
+      <c r="D44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="1" t="s"/>
       <c r="E44" t="s"/>
       <c r="F44" t="s"/>
       <c r="G44" t="s"/>
@@ -1966,10 +1966,10 @@
       <c r="B45" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="1" t="s"/>
+      <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="1" t="s"/>
       <c r="E45" t="s"/>
       <c r="F45" t="s"/>
       <c r="G45" t="s"/>
@@ -1998,10 +1998,10 @@
       <c r="B46" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="1" t="s"/>
+      <c r="D46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="1" t="s"/>
       <c r="E46" t="s"/>
       <c r="F46" t="s"/>
       <c r="G46" t="s"/>
@@ -2030,10 +2030,10 @@
       <c r="B47" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="1" t="s"/>
+      <c r="D47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="1" t="s"/>
       <c r="E47" t="s"/>
       <c r="F47" t="s"/>
       <c r="G47" t="s"/>
@@ -2062,10 +2062,10 @@
       <c r="B48" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="1" t="s"/>
+      <c r="D48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="1" t="s"/>
       <c r="E48" t="s"/>
       <c r="F48" t="s"/>
       <c r="G48" t="s"/>
@@ -2094,10 +2094,10 @@
       <c r="B49" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="1" t="s"/>
+      <c r="D49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="1" t="s"/>
       <c r="E49" t="s"/>
       <c r="F49" t="s"/>
       <c r="G49" t="s"/>
@@ -2126,10 +2126,10 @@
       <c r="B50" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="1" t="s"/>
+      <c r="D50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="1" t="s"/>
       <c r="E50" t="s"/>
       <c r="F50" t="s"/>
       <c r="G50" t="s"/>
@@ -2160,10 +2160,10 @@
       <c r="B51" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="1" t="s"/>
+      <c r="D51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="1" t="s"/>
       <c r="E51" t="s"/>
       <c r="F51" t="s"/>
       <c r="G51" t="s"/>
@@ -2192,10 +2192,10 @@
       <c r="B52" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="1" t="s"/>
+      <c r="D52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="1" t="s"/>
       <c r="E52" t="s"/>
       <c r="F52" t="s"/>
       <c r="G52" t="s"/>
@@ -2224,10 +2224,10 @@
       <c r="B53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="1" t="s"/>
+      <c r="D53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="1" t="s"/>
       <c r="E53" t="s"/>
       <c r="F53" t="s"/>
       <c r="G53" t="s"/>
@@ -2256,10 +2256,10 @@
       <c r="B54" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="1" t="s"/>
+      <c r="D54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="1" t="s"/>
       <c r="E54" t="s"/>
       <c r="F54" t="s"/>
       <c r="G54" t="s"/>
@@ -2288,10 +2288,10 @@
       <c r="B55" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="1" t="s"/>
+      <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="1" t="s"/>
       <c r="E55" t="s"/>
       <c r="F55" t="s"/>
       <c r="G55" t="s"/>
@@ -2320,10 +2320,10 @@
       <c r="B56" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="1" t="s"/>
+      <c r="D56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="1" t="s"/>
       <c r="E56" t="s"/>
       <c r="F56" t="s"/>
       <c r="G56" t="s"/>
@@ -2352,10 +2352,10 @@
       <c r="B57" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="1" t="s"/>
+      <c r="D57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="1" t="s"/>
       <c r="E57" t="s"/>
       <c r="F57" t="s"/>
       <c r="G57" t="s"/>
@@ -2386,10 +2386,10 @@
       <c r="B58" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="1" t="s"/>
+      <c r="D58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="1" t="s"/>
       <c r="E58" t="s"/>
       <c r="F58" t="s"/>
       <c r="G58" t="s"/>
@@ -2418,10 +2418,10 @@
       <c r="B59" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="1" t="s"/>
+      <c r="D59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="1" t="s"/>
       <c r="E59" t="s"/>
       <c r="F59" t="s"/>
       <c r="G59" t="s"/>
@@ -2450,10 +2450,10 @@
       <c r="B60" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="1" t="s"/>
+      <c r="D60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="1" t="s"/>
       <c r="E60" t="s"/>
       <c r="F60" t="s"/>
       <c r="G60" t="s"/>
@@ -2482,10 +2482,10 @@
       <c r="B61" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="1" t="s"/>
+      <c r="D61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="1" t="s"/>
       <c r="E61" t="s"/>
       <c r="F61" t="s"/>
       <c r="G61" t="s"/>
@@ -2514,10 +2514,10 @@
       <c r="B62" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="1" t="s"/>
+      <c r="D62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="1" t="s"/>
       <c r="E62" t="s"/>
       <c r="F62" t="s"/>
       <c r="G62" t="s"/>
@@ -2546,10 +2546,10 @@
       <c r="B63" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="1" t="s"/>
+      <c r="D63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="1" t="s"/>
       <c r="E63" t="s"/>
       <c r="F63" t="s"/>
       <c r="G63" t="s"/>
@@ -2578,10 +2578,10 @@
       <c r="B64" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="1" t="s"/>
+      <c r="D64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="1" t="s"/>
       <c r="E64" t="s"/>
       <c r="F64" t="s"/>
       <c r="G64" t="s"/>
@@ -2612,10 +2612,10 @@
       <c r="B65" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="1" t="s"/>
+      <c r="D65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="1" t="s"/>
       <c r="E65" t="s"/>
       <c r="F65" t="s"/>
       <c r="G65" t="s"/>
@@ -2644,10 +2644,10 @@
       <c r="B66" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="1" t="s"/>
+      <c r="D66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="1" t="s"/>
       <c r="E66" t="s"/>
       <c r="F66" t="s"/>
       <c r="G66" t="s"/>
@@ -2676,10 +2676,10 @@
       <c r="B67" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="1" t="s"/>
+      <c r="D67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="1" t="s"/>
       <c r="E67" t="s"/>
       <c r="F67" t="s"/>
       <c r="G67" t="s"/>
@@ -2708,10 +2708,10 @@
       <c r="B68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="1" t="s"/>
+      <c r="D68" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="1" t="s"/>
       <c r="E68" t="s"/>
       <c r="F68" t="s"/>
       <c r="G68" t="s"/>
@@ -2740,10 +2740,10 @@
       <c r="B69" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="1" t="s"/>
+      <c r="D69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="1" t="s"/>
       <c r="E69" t="s"/>
       <c r="F69" t="s"/>
       <c r="G69" t="s"/>
@@ -2772,10 +2772,10 @@
       <c r="B70" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="1" t="s"/>
+      <c r="D70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="1" t="s"/>
       <c r="E70" t="s"/>
       <c r="F70" t="s"/>
       <c r="G70" t="s"/>
@@ -2804,10 +2804,10 @@
       <c r="B71" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="1" t="s"/>
+      <c r="D71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="1" t="s"/>
       <c r="E71" t="s"/>
       <c r="F71" t="s"/>
       <c r="G71" t="s"/>
@@ -2838,10 +2838,10 @@
       <c r="B72" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="1" t="s"/>
+      <c r="D72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="1" t="s"/>
       <c r="E72" t="s"/>
       <c r="F72" t="s"/>
       <c r="G72" t="s"/>
@@ -2870,10 +2870,10 @@
       <c r="B73" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="1" t="s"/>
+      <c r="D73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="1" t="s"/>
       <c r="E73" t="s"/>
       <c r="F73" t="s"/>
       <c r="G73" t="s"/>
@@ -2902,10 +2902,10 @@
       <c r="B74" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="1" t="s"/>
+      <c r="D74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="1" t="s"/>
       <c r="E74" t="s"/>
       <c r="F74" t="s"/>
       <c r="G74" t="s"/>
@@ -2934,10 +2934,10 @@
       <c r="B75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="1" t="s"/>
+      <c r="D75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="1" t="s"/>
       <c r="E75" t="s"/>
       <c r="F75" t="s"/>
       <c r="G75" t="s"/>
@@ -2966,10 +2966,10 @@
       <c r="B76" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="1" t="s"/>
+      <c r="D76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="1" t="s"/>
       <c r="E76" t="s"/>
       <c r="F76" t="s"/>
       <c r="G76" t="s"/>
@@ -2998,10 +2998,10 @@
       <c r="B77" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="1" t="s"/>
+      <c r="D77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="1" t="s"/>
       <c r="E77" t="s"/>
       <c r="F77" t="s"/>
       <c r="G77" t="s"/>
@@ -3030,10 +3030,10 @@
       <c r="B78" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="1" t="s"/>
+      <c r="D78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="1" t="s"/>
       <c r="E78" t="s"/>
       <c r="F78" t="s"/>
       <c r="G78" t="s"/>
@@ -3064,10 +3064,10 @@
       <c r="B79" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="1" t="s"/>
+      <c r="D79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="1" t="s"/>
       <c r="E79" t="s"/>
       <c r="F79" t="s"/>
       <c r="G79" t="s"/>
@@ -3096,10 +3096,10 @@
       <c r="B80" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="1" t="s"/>
+      <c r="D80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="1" t="s"/>
       <c r="E80" t="s"/>
       <c r="F80" t="s"/>
       <c r="G80" t="s"/>
@@ -3128,10 +3128,10 @@
       <c r="B81" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="1" t="s"/>
+      <c r="D81" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="1" t="s"/>
       <c r="E81" t="s"/>
       <c r="F81" t="s"/>
       <c r="G81" t="s"/>
@@ -3160,10 +3160,10 @@
       <c r="B82" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="1" t="s"/>
+      <c r="D82" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="1" t="s"/>
       <c r="E82" t="s"/>
       <c r="F82" t="s"/>
       <c r="G82" t="s"/>
@@ -3192,10 +3192,10 @@
       <c r="B83" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="1" t="s"/>
+      <c r="D83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="1" t="s"/>
       <c r="E83" t="s"/>
       <c r="F83" t="s"/>
       <c r="G83" t="s"/>
@@ -3224,10 +3224,10 @@
       <c r="B84" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="1" t="s"/>
+      <c r="D84" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="1" t="s"/>
       <c r="E84" t="s"/>
       <c r="F84" t="s"/>
       <c r="G84" t="s"/>
@@ -3256,10 +3256,10 @@
       <c r="B85" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="1" t="s"/>
+      <c r="D85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="1" t="s"/>
       <c r="E85" t="s"/>
       <c r="F85" t="s"/>
       <c r="G85" t="s"/>
@@ -3290,10 +3290,10 @@
       <c r="B86" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="1" t="s"/>
+      <c r="D86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="1" t="s"/>
       <c r="E86" t="s"/>
       <c r="F86" t="s"/>
       <c r="G86" t="s"/>
@@ -3322,10 +3322,10 @@
       <c r="B87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="1" t="s"/>
+      <c r="D87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="1" t="s"/>
       <c r="E87" t="s"/>
       <c r="F87" t="s"/>
       <c r="G87" t="s"/>
@@ -3354,10 +3354,10 @@
       <c r="B88" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="1" t="s"/>
+      <c r="D88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="1" t="s"/>
       <c r="E88" t="s"/>
       <c r="F88" t="s"/>
       <c r="G88" t="s"/>
@@ -3386,10 +3386,10 @@
       <c r="B89" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="1" t="s"/>
+      <c r="D89" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="1" t="s"/>
       <c r="E89" t="s"/>
       <c r="F89" t="s"/>
       <c r="G89" t="s"/>
@@ -3418,10 +3418,10 @@
       <c r="B90" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="1" t="s"/>
+      <c r="D90" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="1" t="s"/>
       <c r="E90" t="s"/>
       <c r="F90" t="s"/>
       <c r="G90" t="s"/>
@@ -3450,10 +3450,10 @@
       <c r="B91" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="1" t="s"/>
+      <c r="D91" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="1" t="s"/>
       <c r="E91" t="s"/>
       <c r="F91" t="s"/>
       <c r="G91" t="s"/>
@@ -3482,10 +3482,10 @@
       <c r="B92" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="1" t="s"/>
+      <c r="D92" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="1" t="s"/>
       <c r="E92" t="s"/>
       <c r="F92" t="s"/>
       <c r="G92" t="s"/>
@@ -3516,10 +3516,10 @@
       <c r="B93" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="1" t="s"/>
+      <c r="D93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="1" t="s"/>
       <c r="E93" t="s"/>
       <c r="F93" t="s"/>
       <c r="G93" t="s"/>
@@ -3548,10 +3548,10 @@
       <c r="B94" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="1" t="s"/>
+      <c r="D94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="1" t="s"/>
       <c r="E94" t="s"/>
       <c r="F94" t="s"/>
       <c r="G94" t="s"/>
@@ -3580,10 +3580,10 @@
       <c r="B95" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="1" t="s"/>
+      <c r="D95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="1" t="s"/>
       <c r="E95" t="s"/>
       <c r="F95" t="s"/>
       <c r="G95" t="s"/>
@@ -3612,10 +3612,10 @@
       <c r="B96" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="1" t="s"/>
+      <c r="D96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="1" t="s"/>
       <c r="E96" t="s"/>
       <c r="F96" t="s"/>
       <c r="G96" t="s"/>
@@ -3644,10 +3644,10 @@
       <c r="B97" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="1" t="s"/>
+      <c r="D97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="1" t="s"/>
       <c r="E97" t="s"/>
       <c r="F97" t="s"/>
       <c r="G97" t="s"/>
@@ -3676,10 +3676,10 @@
       <c r="B98" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="1" t="s"/>
+      <c r="D98" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="1" t="s"/>
       <c r="E98" t="s"/>
       <c r="F98" t="s"/>
       <c r="G98" t="s"/>
@@ -3708,10 +3708,10 @@
       <c r="B99" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="1" t="s"/>
+      <c r="D99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="1" t="s"/>
       <c r="E99" t="s"/>
       <c r="F99" t="s"/>
       <c r="G99" t="s"/>
@@ -3742,10 +3742,10 @@
       <c r="B100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="1" t="s"/>
+      <c r="D100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="1" t="s"/>
       <c r="E100" t="s"/>
       <c r="F100" t="s"/>
       <c r="G100" t="s"/>
@@ -3774,10 +3774,10 @@
       <c r="B101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="1" t="s"/>
+      <c r="D101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="1" t="s"/>
       <c r="E101" t="s"/>
       <c r="F101" t="s"/>
       <c r="G101" t="s"/>
@@ -3806,10 +3806,10 @@
       <c r="B102" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="1" t="s"/>
+      <c r="D102" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D102" s="1" t="s"/>
       <c r="E102" t="s"/>
       <c r="F102" t="s"/>
       <c r="G102" t="s"/>
@@ -3838,10 +3838,10 @@
       <c r="B103" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="1" t="s"/>
+      <c r="D103" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="1" t="s"/>
       <c r="E103" t="s"/>
       <c r="F103" t="s"/>
       <c r="G103" t="s"/>
@@ -3870,10 +3870,10 @@
       <c r="B104" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="1" t="s"/>
+      <c r="D104" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="1" t="s"/>
       <c r="E104" t="s"/>
       <c r="F104" t="s"/>
       <c r="G104" t="s"/>
@@ -3902,10 +3902,10 @@
       <c r="B105" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="1" t="s"/>
+      <c r="D105" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="1" t="s"/>
       <c r="E105" t="s"/>
       <c r="F105" t="s"/>
       <c r="G105" t="s"/>
@@ -3934,10 +3934,10 @@
       <c r="B106" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="1" t="s"/>
+      <c r="D106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D106" s="1" t="s"/>
       <c r="E106" t="s"/>
       <c r="F106" t="s"/>
       <c r="G106" t="s"/>
@@ -3968,10 +3968,10 @@
       <c r="B107" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="1" t="s"/>
+      <c r="D107" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="1" t="s"/>
       <c r="E107" t="s"/>
       <c r="F107" t="s"/>
       <c r="G107" t="s"/>
@@ -4000,10 +4000,10 @@
       <c r="B108" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="1" t="s"/>
+      <c r="D108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="1" t="s"/>
       <c r="E108" t="s"/>
       <c r="F108" t="s"/>
       <c r="G108" t="s"/>
@@ -4032,10 +4032,10 @@
       <c r="B109" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="1" t="s"/>
+      <c r="D109" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="1" t="s"/>
       <c r="E109" t="s"/>
       <c r="F109" t="s"/>
       <c r="G109" t="s"/>
@@ -4064,10 +4064,10 @@
       <c r="B110" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="1" t="s"/>
+      <c r="D110" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="1" t="s"/>
       <c r="E110" t="s"/>
       <c r="F110" t="s"/>
       <c r="G110" t="s"/>
@@ -4096,10 +4096,10 @@
       <c r="B111" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="1" t="s"/>
+      <c r="D111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D111" s="1" t="s"/>
       <c r="E111" t="s"/>
       <c r="F111" t="s"/>
       <c r="G111" t="s"/>
@@ -4128,10 +4128,10 @@
       <c r="B112" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="1" t="s"/>
+      <c r="D112" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D112" s="1" t="s"/>
       <c r="E112" t="s"/>
       <c r="F112" t="s"/>
       <c r="G112" t="s"/>
@@ -4160,10 +4160,10 @@
       <c r="B113" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="1" t="s"/>
+      <c r="D113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D113" s="1" t="s"/>
       <c r="E113" t="s"/>
       <c r="F113" t="s"/>
       <c r="G113" t="s"/>
@@ -4194,10 +4194,10 @@
       <c r="B114" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="1" t="s"/>
+      <c r="D114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="1" t="s"/>
       <c r="E114" t="s"/>
       <c r="F114" t="s"/>
       <c r="G114" t="s"/>
@@ -4226,10 +4226,10 @@
       <c r="B115" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="1" t="s"/>
+      <c r="D115" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="1" t="s"/>
       <c r="E115" t="s"/>
       <c r="F115" t="s"/>
       <c r="G115" t="s"/>
@@ -4258,10 +4258,10 @@
       <c r="B116" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="1" t="s"/>
+      <c r="D116" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="1" t="s"/>
       <c r="E116" t="s"/>
       <c r="F116" t="s"/>
       <c r="G116" t="s"/>
@@ -4290,10 +4290,10 @@
       <c r="B117" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="1" t="s"/>
+      <c r="D117" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="1" t="s"/>
       <c r="E117" t="s"/>
       <c r="F117" t="s"/>
       <c r="G117" t="s"/>
@@ -4322,10 +4322,10 @@
       <c r="B118" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="1" t="s"/>
+      <c r="D118" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D118" s="1" t="s"/>
       <c r="E118" t="s"/>
       <c r="F118" t="s"/>
       <c r="G118" t="s"/>
@@ -4354,10 +4354,10 @@
       <c r="B119" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="1" t="s"/>
+      <c r="D119" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D119" s="1" t="s"/>
       <c r="E119" t="s"/>
       <c r="F119" t="s"/>
       <c r="G119" t="s"/>
@@ -4386,10 +4386,10 @@
       <c r="B120" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="1" t="s"/>
+      <c r="D120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D120" s="1" t="s"/>
       <c r="E120" t="s"/>
       <c r="F120" t="s"/>
       <c r="G120" t="s"/>
@@ -4420,10 +4420,10 @@
       <c r="B121" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="1" t="s"/>
+      <c r="D121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D121" s="1" t="s"/>
       <c r="E121" t="s"/>
       <c r="F121" t="s"/>
       <c r="G121" t="s"/>
@@ -4452,10 +4452,10 @@
       <c r="B122" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="1" t="s"/>
+      <c r="D122" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D122" s="1" t="s"/>
       <c r="E122" t="s"/>
       <c r="F122" t="s"/>
       <c r="G122" t="s"/>
@@ -4484,10 +4484,10 @@
       <c r="B123" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="1" t="s"/>
+      <c r="D123" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D123" s="1" t="s"/>
       <c r="E123" t="s"/>
       <c r="F123" t="s"/>
       <c r="G123" t="s"/>
@@ -4516,10 +4516,10 @@
       <c r="B124" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="1" t="s"/>
+      <c r="D124" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="1" t="s"/>
       <c r="E124" t="s"/>
       <c r="F124" t="s"/>
       <c r="G124" t="s"/>
@@ -4548,10 +4548,10 @@
       <c r="B125" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="1" t="s"/>
+      <c r="D125" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="1" t="s"/>
       <c r="E125" t="s"/>
       <c r="F125" t="s"/>
       <c r="G125" t="s"/>
@@ -4580,10 +4580,10 @@
       <c r="B126" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="1" t="s"/>
+      <c r="D126" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D126" s="1" t="s"/>
       <c r="E126" t="s"/>
       <c r="F126" t="s"/>
       <c r="G126" t="s"/>
@@ -4612,10 +4612,10 @@
       <c r="B127" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="1" t="s"/>
+      <c r="D127" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="1" t="s"/>
       <c r="E127" t="s"/>
       <c r="F127" t="s"/>
       <c r="G127" t="s"/>
@@ -4753,10 +4753,10 @@
       <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
       <c r="G2" t="s"/>
@@ -4785,10 +4785,10 @@
       <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="s"/>
@@ -4817,10 +4817,10 @@
       <c r="B4" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
       <c r="G4" t="s"/>
@@ -4849,10 +4849,10 @@
       <c r="B5" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="s"/>
@@ -4881,10 +4881,10 @@
       <c r="B6" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s"/>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
@@ -4913,10 +4913,10 @@
       <c r="B7" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
@@ -4945,10 +4945,10 @@
       <c r="B8" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1" t="s"/>
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
@@ -4979,10 +4979,10 @@
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
@@ -5011,10 +5011,10 @@
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
       <c r="G10" t="s"/>
@@ -5043,10 +5043,10 @@
       <c r="B11" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="s"/>
       <c r="G11" t="s"/>
@@ -5075,10 +5075,10 @@
       <c r="B12" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
@@ -5107,10 +5107,10 @@
       <c r="B13" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s"/>
       <c r="E13" t="s"/>
       <c r="F13" t="s"/>
       <c r="G13" t="s"/>
@@ -5139,10 +5139,10 @@
       <c r="B14" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1" t="s"/>
       <c r="E14" t="s"/>
       <c r="F14" t="s"/>
       <c r="G14" t="s"/>
@@ -5171,10 +5171,10 @@
       <c r="B15" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s"/>
       <c r="E15" t="s"/>
       <c r="F15" t="s"/>
       <c r="G15" t="s"/>
@@ -5205,10 +5205,10 @@
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s"/>
       <c r="E16" t="s"/>
       <c r="F16" t="s"/>
       <c r="G16" t="s"/>
@@ -5237,10 +5237,10 @@
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="1" t="s"/>
       <c r="E17" t="s"/>
       <c r="F17" t="s"/>
       <c r="G17" t="s"/>
@@ -5269,10 +5269,10 @@
       <c r="B18" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="s"/>
       <c r="E18" t="s"/>
       <c r="F18" t="s"/>
       <c r="G18" t="s"/>
@@ -5301,10 +5301,10 @@
       <c r="B19" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s"/>
       <c r="E19" t="s"/>
       <c r="F19" t="s"/>
       <c r="G19" t="s"/>
@@ -5333,10 +5333,10 @@
       <c r="B20" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="1" t="s"/>
       <c r="E20" t="s"/>
       <c r="F20" t="s"/>
       <c r="G20" t="s"/>
@@ -5365,10 +5365,10 @@
       <c r="B21" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s"/>
       <c r="E21" t="s"/>
       <c r="F21" t="s"/>
       <c r="G21" t="s"/>
@@ -5397,10 +5397,10 @@
       <c r="B22" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s"/>
       <c r="E22" t="s"/>
       <c r="F22" t="s"/>
       <c r="G22" t="s"/>
@@ -5431,10 +5431,10 @@
       <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1" t="s"/>
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s"/>
       <c r="E23" t="s"/>
       <c r="F23" t="s"/>
       <c r="G23" t="s"/>
@@ -5463,10 +5463,10 @@
       <c r="B24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1" t="s"/>
+      <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1" t="s"/>
       <c r="E24" t="s"/>
       <c r="F24" t="s"/>
       <c r="G24" t="s"/>
@@ -5495,10 +5495,10 @@
       <c r="B25" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1" t="s"/>
+      <c r="D25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1" t="s"/>
       <c r="E25" t="s"/>
       <c r="F25" t="s"/>
       <c r="G25" t="s"/>
@@ -5527,10 +5527,10 @@
       <c r="B26" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="1" t="s"/>
       <c r="E26" t="s"/>
       <c r="F26" t="s"/>
       <c r="G26" t="s"/>
@@ -5559,10 +5559,10 @@
       <c r="B27" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="1" t="s"/>
       <c r="E27" t="s"/>
       <c r="F27" t="s"/>
       <c r="G27" t="s"/>
@@ -5591,10 +5591,10 @@
       <c r="B28" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="1" t="s"/>
       <c r="E28" t="s"/>
       <c r="F28" t="s"/>
       <c r="G28" t="s"/>
@@ -5623,10 +5623,10 @@
       <c r="B29" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="s"/>
@@ -5657,10 +5657,10 @@
       <c r="B30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1" t="s"/>
       <c r="E30" t="s"/>
       <c r="F30" t="s"/>
       <c r="G30" t="s"/>
@@ -5689,10 +5689,10 @@
       <c r="B31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1" t="s"/>
       <c r="E31" t="s"/>
       <c r="F31" t="s"/>
       <c r="G31" t="s"/>
@@ -5721,10 +5721,10 @@
       <c r="B32" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="1" t="s"/>
       <c r="E32" t="s"/>
       <c r="F32" t="s"/>
       <c r="G32" t="s"/>
@@ -5753,10 +5753,10 @@
       <c r="B33" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="1" t="s"/>
       <c r="E33" t="s"/>
       <c r="F33" t="s"/>
       <c r="G33" t="s"/>
@@ -5785,10 +5785,10 @@
       <c r="B34" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="1" t="s"/>
       <c r="E34" t="s"/>
       <c r="F34" t="s"/>
       <c r="G34" t="s"/>
@@ -5817,10 +5817,10 @@
       <c r="B35" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="1" t="s"/>
       <c r="E35" t="s"/>
       <c r="F35" t="s"/>
       <c r="G35" t="s"/>
@@ -5849,10 +5849,10 @@
       <c r="B36" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="1" t="s"/>
+      <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="1" t="s"/>
       <c r="E36" t="s"/>
       <c r="F36" t="s"/>
       <c r="G36" t="s"/>
@@ -5883,10 +5883,10 @@
       <c r="B37" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="1" t="s"/>
       <c r="E37" t="s"/>
       <c r="F37" t="s"/>
       <c r="G37" t="s"/>
@@ -5915,10 +5915,10 @@
       <c r="B38" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="1" t="s"/>
+      <c r="D38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="1" t="s"/>
       <c r="E38" t="s"/>
       <c r="F38" t="s"/>
       <c r="G38" t="s"/>
@@ -5947,10 +5947,10 @@
       <c r="B39" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="1" t="s"/>
+      <c r="D39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="1" t="s"/>
       <c r="E39" t="s"/>
       <c r="F39" t="s"/>
       <c r="G39" t="s"/>
@@ -5979,10 +5979,10 @@
       <c r="B40" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="1" t="s"/>
+      <c r="D40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="1" t="s"/>
       <c r="E40" t="s"/>
       <c r="F40" t="s"/>
       <c r="G40" t="s"/>
@@ -6011,10 +6011,10 @@
       <c r="B41" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="1" t="s"/>
+      <c r="D41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="1" t="s"/>
       <c r="E41" t="s"/>
       <c r="F41" t="s"/>
       <c r="G41" t="s"/>
@@ -6043,10 +6043,10 @@
       <c r="B42" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="1" t="s"/>
+      <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="1" t="s"/>
       <c r="E42" t="s"/>
       <c r="F42" t="s"/>
       <c r="G42" t="s"/>
@@ -6075,10 +6075,10 @@
       <c r="B43" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="1" t="s"/>
+      <c r="D43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="1" t="s"/>
       <c r="E43" t="s"/>
       <c r="F43" t="s"/>
       <c r="G43" t="s"/>
@@ -6109,10 +6109,10 @@
       <c r="B44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="1" t="s"/>
+      <c r="D44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="1" t="s"/>
       <c r="E44" t="s"/>
       <c r="F44" t="s"/>
       <c r="G44" t="s"/>
@@ -6141,10 +6141,10 @@
       <c r="B45" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="1" t="s"/>
+      <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="1" t="s"/>
       <c r="E45" t="s"/>
       <c r="F45" t="s"/>
       <c r="G45" t="s"/>
@@ -6173,10 +6173,10 @@
       <c r="B46" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="1" t="s"/>
+      <c r="D46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="1" t="s"/>
       <c r="E46" t="s"/>
       <c r="F46" t="s"/>
       <c r="G46" t="s"/>
@@ -6205,10 +6205,10 @@
       <c r="B47" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="1" t="s"/>
+      <c r="D47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="1" t="s"/>
       <c r="E47" t="s"/>
       <c r="F47" t="s"/>
       <c r="G47" t="s"/>
@@ -6237,10 +6237,10 @@
       <c r="B48" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="1" t="s"/>
+      <c r="D48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="1" t="s"/>
       <c r="E48" t="s"/>
       <c r="F48" t="s"/>
       <c r="G48" t="s"/>
@@ -6269,10 +6269,10 @@
       <c r="B49" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="1" t="s"/>
+      <c r="D49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="1" t="s"/>
       <c r="E49" t="s"/>
       <c r="F49" t="s"/>
       <c r="G49" t="s"/>
@@ -6301,10 +6301,10 @@
       <c r="B50" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="1" t="s"/>
+      <c r="D50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="1" t="s"/>
       <c r="E50" t="s"/>
       <c r="F50" t="s"/>
       <c r="G50" t="s"/>
@@ -6335,10 +6335,10 @@
       <c r="B51" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="1" t="s"/>
+      <c r="D51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="1" t="s"/>
       <c r="E51" t="s"/>
       <c r="F51" t="s"/>
       <c r="G51" t="s"/>
@@ -6367,10 +6367,10 @@
       <c r="B52" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="1" t="s"/>
+      <c r="D52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="1" t="s"/>
       <c r="E52" t="s"/>
       <c r="F52" t="s"/>
       <c r="G52" t="s"/>
@@ -6399,10 +6399,10 @@
       <c r="B53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="1" t="s"/>
+      <c r="D53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="1" t="s"/>
       <c r="E53" t="s"/>
       <c r="F53" t="s"/>
       <c r="G53" t="s"/>
@@ -6431,10 +6431,10 @@
       <c r="B54" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="1" t="s"/>
+      <c r="D54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="1" t="s"/>
       <c r="E54" t="s"/>
       <c r="F54" t="s"/>
       <c r="G54" t="s"/>
@@ -6463,10 +6463,10 @@
       <c r="B55" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="1" t="s"/>
+      <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="1" t="s"/>
       <c r="E55" t="s"/>
       <c r="F55" t="s"/>
       <c r="G55" t="s"/>
@@ -6495,10 +6495,10 @@
       <c r="B56" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="1" t="s"/>
+      <c r="D56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="1" t="s"/>
       <c r="E56" t="s"/>
       <c r="F56" t="s"/>
       <c r="G56" t="s"/>
@@ -6527,10 +6527,10 @@
       <c r="B57" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="1" t="s"/>
+      <c r="D57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="1" t="s"/>
       <c r="E57" t="s"/>
       <c r="F57" t="s"/>
       <c r="G57" t="s"/>
@@ -6561,10 +6561,10 @@
       <c r="B58" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="1" t="s"/>
+      <c r="D58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="1" t="s"/>
       <c r="E58" t="s"/>
       <c r="F58" t="s"/>
       <c r="G58" t="s"/>
@@ -6593,10 +6593,10 @@
       <c r="B59" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="1" t="s"/>
+      <c r="D59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="1" t="s"/>
       <c r="E59" t="s"/>
       <c r="F59" t="s"/>
       <c r="G59" t="s"/>
@@ -6625,10 +6625,10 @@
       <c r="B60" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="1" t="s"/>
+      <c r="D60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="1" t="s"/>
       <c r="E60" t="s"/>
       <c r="F60" t="s"/>
       <c r="G60" t="s"/>
@@ -6657,10 +6657,10 @@
       <c r="B61" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="1" t="s"/>
+      <c r="D61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="1" t="s"/>
       <c r="E61" t="s"/>
       <c r="F61" t="s"/>
       <c r="G61" t="s"/>
@@ -6689,10 +6689,10 @@
       <c r="B62" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="1" t="s"/>
+      <c r="D62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="1" t="s"/>
       <c r="E62" t="s"/>
       <c r="F62" t="s"/>
       <c r="G62" t="s"/>
@@ -6721,10 +6721,10 @@
       <c r="B63" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="1" t="s"/>
+      <c r="D63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="1" t="s"/>
       <c r="E63" t="s"/>
       <c r="F63" t="s"/>
       <c r="G63" t="s"/>
@@ -6753,10 +6753,10 @@
       <c r="B64" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="1" t="s"/>
+      <c r="D64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="1" t="s"/>
       <c r="E64" t="s"/>
       <c r="F64" t="s"/>
       <c r="G64" t="s"/>
@@ -6787,10 +6787,10 @@
       <c r="B65" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="1" t="s"/>
+      <c r="D65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="1" t="s"/>
       <c r="E65" t="s"/>
       <c r="F65" t="s"/>
       <c r="G65" t="s"/>
@@ -6819,10 +6819,10 @@
       <c r="B66" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="1" t="s"/>
+      <c r="D66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="1" t="s"/>
       <c r="E66" t="s"/>
       <c r="F66" t="s"/>
       <c r="G66" t="s"/>
@@ -6851,10 +6851,10 @@
       <c r="B67" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="1" t="s"/>
+      <c r="D67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="1" t="s"/>
       <c r="E67" t="s"/>
       <c r="F67" t="s"/>
       <c r="G67" t="s"/>
@@ -6883,10 +6883,10 @@
       <c r="B68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="1" t="s"/>
+      <c r="D68" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="1" t="s"/>
       <c r="E68" t="s"/>
       <c r="F68" t="s"/>
       <c r="G68" t="s"/>
@@ -6915,10 +6915,10 @@
       <c r="B69" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="1" t="s"/>
+      <c r="D69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="1" t="s"/>
       <c r="E69" t="s"/>
       <c r="F69" t="s"/>
       <c r="G69" t="s"/>
@@ -6947,10 +6947,10 @@
       <c r="B70" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="1" t="s"/>
+      <c r="D70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="1" t="s"/>
       <c r="E70" t="s"/>
       <c r="F70" t="s"/>
       <c r="G70" t="s"/>
@@ -6979,10 +6979,10 @@
       <c r="B71" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="1" t="s"/>
+      <c r="D71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="1" t="s"/>
       <c r="E71" t="s"/>
       <c r="F71" t="s"/>
       <c r="G71" t="s"/>
@@ -7013,10 +7013,10 @@
       <c r="B72" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="1" t="s"/>
+      <c r="D72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="1" t="s"/>
       <c r="E72" t="s"/>
       <c r="F72" t="s"/>
       <c r="G72" t="s"/>
@@ -7045,10 +7045,10 @@
       <c r="B73" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="1" t="s"/>
+      <c r="D73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="1" t="s"/>
       <c r="E73" t="s"/>
       <c r="F73" t="s"/>
       <c r="G73" t="s"/>
@@ -7077,10 +7077,10 @@
       <c r="B74" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="1" t="s"/>
+      <c r="D74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="1" t="s"/>
       <c r="E74" t="s"/>
       <c r="F74" t="s"/>
       <c r="G74" t="s"/>
@@ -7109,10 +7109,10 @@
       <c r="B75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="1" t="s"/>
+      <c r="D75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="1" t="s"/>
       <c r="E75" t="s"/>
       <c r="F75" t="s"/>
       <c r="G75" t="s"/>
@@ -7141,10 +7141,10 @@
       <c r="B76" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="1" t="s"/>
+      <c r="D76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="1" t="s"/>
       <c r="E76" t="s"/>
       <c r="F76" t="s"/>
       <c r="G76" t="s"/>
@@ -7173,10 +7173,10 @@
       <c r="B77" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="1" t="s"/>
+      <c r="D77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="1" t="s"/>
       <c r="E77" t="s"/>
       <c r="F77" t="s"/>
       <c r="G77" t="s"/>
@@ -7205,10 +7205,10 @@
       <c r="B78" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="1" t="s"/>
+      <c r="D78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="1" t="s"/>
       <c r="E78" t="s"/>
       <c r="F78" t="s"/>
       <c r="G78" t="s"/>
@@ -7239,10 +7239,10 @@
       <c r="B79" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="1" t="s"/>
+      <c r="D79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="1" t="s"/>
       <c r="E79" t="s"/>
       <c r="F79" t="s"/>
       <c r="G79" t="s"/>
@@ -7271,10 +7271,10 @@
       <c r="B80" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="1" t="s"/>
+      <c r="D80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="1" t="s"/>
       <c r="E80" t="s"/>
       <c r="F80" t="s"/>
       <c r="G80" t="s"/>
@@ -7303,10 +7303,10 @@
       <c r="B81" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="1" t="s"/>
+      <c r="D81" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="1" t="s"/>
       <c r="E81" t="s"/>
       <c r="F81" t="s"/>
       <c r="G81" t="s"/>
@@ -7335,10 +7335,10 @@
       <c r="B82" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="1" t="s"/>
+      <c r="D82" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="1" t="s"/>
       <c r="E82" t="s"/>
       <c r="F82" t="s"/>
       <c r="G82" t="s"/>
@@ -7367,10 +7367,10 @@
       <c r="B83" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="1" t="s"/>
+      <c r="D83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="1" t="s"/>
       <c r="E83" t="s"/>
       <c r="F83" t="s"/>
       <c r="G83" t="s"/>
@@ -7399,10 +7399,10 @@
       <c r="B84" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="1" t="s"/>
+      <c r="D84" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="1" t="s"/>
       <c r="E84" t="s"/>
       <c r="F84" t="s"/>
       <c r="G84" t="s"/>
@@ -7431,10 +7431,10 @@
       <c r="B85" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="1" t="s"/>
+      <c r="D85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="1" t="s"/>
       <c r="E85" t="s"/>
       <c r="F85" t="s"/>
       <c r="G85" t="s"/>
@@ -7465,10 +7465,10 @@
       <c r="B86" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="1" t="s"/>
+      <c r="D86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="1" t="s"/>
       <c r="E86" t="s"/>
       <c r="F86" t="s"/>
       <c r="G86" t="s"/>
@@ -7497,10 +7497,10 @@
       <c r="B87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="1" t="s"/>
+      <c r="D87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="1" t="s"/>
       <c r="E87" t="s"/>
       <c r="F87" t="s"/>
       <c r="G87" t="s"/>
@@ -7529,10 +7529,10 @@
       <c r="B88" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="1" t="s"/>
+      <c r="D88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="1" t="s"/>
       <c r="E88" t="s"/>
       <c r="F88" t="s"/>
       <c r="G88" t="s"/>
@@ -7561,10 +7561,10 @@
       <c r="B89" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="1" t="s"/>
+      <c r="D89" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="1" t="s"/>
       <c r="E89" t="s"/>
       <c r="F89" t="s"/>
       <c r="G89" t="s"/>
@@ -7593,10 +7593,10 @@
       <c r="B90" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="1" t="s"/>
+      <c r="D90" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="1" t="s"/>
       <c r="E90" t="s"/>
       <c r="F90" t="s"/>
       <c r="G90" t="s"/>
@@ -7625,10 +7625,10 @@
       <c r="B91" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="1" t="s"/>
+      <c r="D91" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="1" t="s"/>
       <c r="E91" t="s"/>
       <c r="F91" t="s"/>
       <c r="G91" t="s"/>
@@ -7657,10 +7657,10 @@
       <c r="B92" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="1" t="s"/>
+      <c r="D92" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="1" t="s"/>
       <c r="E92" t="s"/>
       <c r="F92" t="s"/>
       <c r="G92" t="s"/>
@@ -7691,10 +7691,10 @@
       <c r="B93" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="1" t="s"/>
+      <c r="D93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="1" t="s"/>
       <c r="E93" t="s"/>
       <c r="F93" t="s"/>
       <c r="G93" t="s"/>
@@ -7723,10 +7723,10 @@
       <c r="B94" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="1" t="s"/>
+      <c r="D94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="1" t="s"/>
       <c r="E94" t="s"/>
       <c r="F94" t="s"/>
       <c r="G94" t="s"/>
@@ -7755,10 +7755,10 @@
       <c r="B95" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="1" t="s"/>
+      <c r="D95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="1" t="s"/>
       <c r="E95" t="s"/>
       <c r="F95" t="s"/>
       <c r="G95" t="s"/>
@@ -7787,10 +7787,10 @@
       <c r="B96" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="1" t="s"/>
+      <c r="D96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="1" t="s"/>
       <c r="E96" t="s"/>
       <c r="F96" t="s"/>
       <c r="G96" t="s"/>
@@ -7819,10 +7819,10 @@
       <c r="B97" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="1" t="s"/>
+      <c r="D97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="1" t="s"/>
       <c r="E97" t="s"/>
       <c r="F97" t="s"/>
       <c r="G97" t="s"/>
@@ -7851,10 +7851,10 @@
       <c r="B98" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="1" t="s"/>
+      <c r="D98" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="1" t="s"/>
       <c r="E98" t="s"/>
       <c r="F98" t="s"/>
       <c r="G98" t="s"/>
@@ -7883,10 +7883,10 @@
       <c r="B99" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="1" t="s"/>
+      <c r="D99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="1" t="s"/>
       <c r="E99" t="s"/>
       <c r="F99" t="s"/>
       <c r="G99" t="s"/>
@@ -7917,10 +7917,10 @@
       <c r="B100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="1" t="s"/>
+      <c r="D100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="1" t="s"/>
       <c r="E100" t="s"/>
       <c r="F100" t="s"/>
       <c r="G100" t="s"/>
@@ -7949,10 +7949,10 @@
       <c r="B101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="1" t="s"/>
+      <c r="D101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="1" t="s"/>
       <c r="E101" t="s"/>
       <c r="F101" t="s"/>
       <c r="G101" t="s"/>
@@ -7981,10 +7981,10 @@
       <c r="B102" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="1" t="s"/>
+      <c r="D102" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D102" s="1" t="s"/>
       <c r="E102" t="s"/>
       <c r="F102" t="s"/>
       <c r="G102" t="s"/>
@@ -8013,10 +8013,10 @@
       <c r="B103" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="1" t="s"/>
+      <c r="D103" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="1" t="s"/>
       <c r="E103" t="s"/>
       <c r="F103" t="s"/>
       <c r="G103" t="s"/>
@@ -8045,10 +8045,10 @@
       <c r="B104" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="1" t="s"/>
+      <c r="D104" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="1" t="s"/>
       <c r="E104" t="s"/>
       <c r="F104" t="s"/>
       <c r="G104" t="s"/>
@@ -8077,10 +8077,10 @@
       <c r="B105" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="1" t="s"/>
+      <c r="D105" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="1" t="s"/>
       <c r="E105" t="s"/>
       <c r="F105" t="s"/>
       <c r="G105" t="s"/>
@@ -8109,10 +8109,10 @@
       <c r="B106" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="1" t="s"/>
+      <c r="D106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D106" s="1" t="s"/>
       <c r="E106" t="s"/>
       <c r="F106" t="s"/>
       <c r="G106" t="s"/>
@@ -8143,10 +8143,10 @@
       <c r="B107" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="1" t="s"/>
+      <c r="D107" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="1" t="s"/>
       <c r="E107" t="s"/>
       <c r="F107" t="s"/>
       <c r="G107" t="s"/>
@@ -8175,10 +8175,10 @@
       <c r="B108" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="1" t="s"/>
+      <c r="D108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="1" t="s"/>
       <c r="E108" t="s"/>
       <c r="F108" t="s"/>
       <c r="G108" t="s"/>
@@ -8207,10 +8207,10 @@
       <c r="B109" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="1" t="s"/>
+      <c r="D109" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="1" t="s"/>
       <c r="E109" t="s"/>
       <c r="F109" t="s"/>
       <c r="G109" t="s"/>
@@ -8239,10 +8239,10 @@
       <c r="B110" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="1" t="s"/>
+      <c r="D110" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="1" t="s"/>
       <c r="E110" t="s"/>
       <c r="F110" t="s"/>
       <c r="G110" t="s"/>
@@ -8271,10 +8271,10 @@
       <c r="B111" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="1" t="s"/>
+      <c r="D111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D111" s="1" t="s"/>
       <c r="E111" t="s"/>
       <c r="F111" t="s"/>
       <c r="G111" t="s"/>
@@ -8303,10 +8303,10 @@
       <c r="B112" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="1" t="s"/>
+      <c r="D112" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D112" s="1" t="s"/>
       <c r="E112" t="s"/>
       <c r="F112" t="s"/>
       <c r="G112" t="s"/>
@@ -8335,10 +8335,10 @@
       <c r="B113" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="1" t="s"/>
+      <c r="D113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D113" s="1" t="s"/>
       <c r="E113" t="s"/>
       <c r="F113" t="s"/>
       <c r="G113" t="s"/>
@@ -8369,10 +8369,10 @@
       <c r="B114" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="1" t="s"/>
+      <c r="D114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="1" t="s"/>
       <c r="E114" t="s"/>
       <c r="F114" t="s"/>
       <c r="G114" t="s"/>
@@ -8401,10 +8401,10 @@
       <c r="B115" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="1" t="s"/>
+      <c r="D115" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="1" t="s"/>
       <c r="E115" t="s"/>
       <c r="F115" t="s"/>
       <c r="G115" t="s"/>
@@ -8433,10 +8433,10 @@
       <c r="B116" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="1" t="s"/>
+      <c r="D116" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="1" t="s"/>
       <c r="E116" t="s"/>
       <c r="F116" t="s"/>
       <c r="G116" t="s"/>
@@ -8465,10 +8465,10 @@
       <c r="B117" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="1" t="s"/>
+      <c r="D117" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="1" t="s"/>
       <c r="E117" t="s"/>
       <c r="F117" t="s"/>
       <c r="G117" t="s"/>
@@ -8497,10 +8497,10 @@
       <c r="B118" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="1" t="s"/>
+      <c r="D118" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D118" s="1" t="s"/>
       <c r="E118" t="s"/>
       <c r="F118" t="s"/>
       <c r="G118" t="s"/>
@@ -8529,10 +8529,10 @@
       <c r="B119" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="1" t="s"/>
+      <c r="D119" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D119" s="1" t="s"/>
       <c r="E119" t="s"/>
       <c r="F119" t="s"/>
       <c r="G119" t="s"/>
@@ -8561,10 +8561,10 @@
       <c r="B120" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="1" t="s"/>
+      <c r="D120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D120" s="1" t="s"/>
       <c r="E120" t="s"/>
       <c r="F120" t="s"/>
       <c r="G120" t="s"/>
@@ -8595,10 +8595,10 @@
       <c r="B121" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="1" t="s"/>
+      <c r="D121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D121" s="1" t="s"/>
       <c r="E121" t="s"/>
       <c r="F121" t="s"/>
       <c r="G121" t="s"/>
@@ -8627,10 +8627,10 @@
       <c r="B122" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="1" t="s"/>
+      <c r="D122" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D122" s="1" t="s"/>
       <c r="E122" t="s"/>
       <c r="F122" t="s"/>
       <c r="G122" t="s"/>
@@ -8659,10 +8659,10 @@
       <c r="B123" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="1" t="s"/>
+      <c r="D123" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D123" s="1" t="s"/>
       <c r="E123" t="s"/>
       <c r="F123" t="s"/>
       <c r="G123" t="s"/>
@@ -8691,10 +8691,10 @@
       <c r="B124" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="1" t="s"/>
+      <c r="D124" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="1" t="s"/>
       <c r="E124" t="s"/>
       <c r="F124" t="s"/>
       <c r="G124" t="s"/>
@@ -8723,10 +8723,10 @@
       <c r="B125" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="1" t="s"/>
+      <c r="D125" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="1" t="s"/>
       <c r="E125" t="s"/>
       <c r="F125" t="s"/>
       <c r="G125" t="s"/>
@@ -8755,10 +8755,10 @@
       <c r="B126" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="1" t="s"/>
+      <c r="D126" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D126" s="1" t="s"/>
       <c r="E126" t="s"/>
       <c r="F126" t="s"/>
       <c r="G126" t="s"/>
@@ -8787,10 +8787,10 @@
       <c r="B127" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="1" t="s"/>
+      <c r="D127" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="1" t="s"/>
       <c r="E127" t="s"/>
       <c r="F127" t="s"/>
       <c r="G127" t="s"/>
@@ -8880,10 +8880,10 @@
       <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s"/>
       <c r="E2" t="n">
         <v>12.40234375</v>
       </c>
@@ -8894,10 +8894,10 @@
       <c r="B3" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s"/>
       <c r="E3" t="n">
         <v>36.375</v>
       </c>
@@ -8908,10 +8908,10 @@
       <c r="B4" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s"/>
       <c r="E4" t="n">
         <v>48.7734375</v>
       </c>
@@ -8924,10 +8924,10 @@
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s"/>
       <c r="E5" t="n">
         <v>17.60009765625</v>
       </c>
@@ -8938,10 +8938,10 @@
       <c r="B6" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s"/>
       <c r="E6" t="n">
         <v>13.69140625</v>
       </c>
@@ -8952,10 +8952,10 @@
       <c r="B7" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s"/>
       <c r="E7" t="n">
         <v>13</v>
       </c>
@@ -8966,10 +8966,10 @@
       <c r="B8" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1" t="s"/>
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s"/>
       <c r="E8" t="n">
         <v>44.2890625</v>
       </c>
@@ -8982,10 +8982,10 @@
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s"/>
       <c r="E9" t="n">
         <v>-4.328125</v>
       </c>
@@ -8996,10 +8996,10 @@
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s"/>
       <c r="E10" t="n">
         <v>-3.671875</v>
       </c>
@@ -9010,10 +9010,10 @@
       <c r="B11" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s"/>
       <c r="E11" t="n">
         <v>-2.455078125</v>
       </c>
@@ -9024,10 +9024,10 @@
       <c r="B12" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="1" t="s"/>
       <c r="E12" t="n">
         <v>-5.41015625</v>
       </c>
@@ -9038,10 +9038,10 @@
       <c r="B13" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s"/>
       <c r="E13" t="n">
         <v>-15.859375</v>
       </c>
@@ -9054,10 +9054,10 @@
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s"/>
       <c r="E14" t="n">
         <v>-6.240234375</v>
       </c>
@@ -9068,10 +9068,10 @@
       <c r="B15" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s"/>
       <c r="E15" t="n">
         <v>-1.689453125</v>
       </c>
@@ -9082,10 +9082,10 @@
       <c r="B16" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1" t="s"/>
       <c r="E16" t="n">
         <v>1.640625</v>
       </c>
@@ -9096,10 +9096,10 @@
       <c r="B17" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s"/>
       <c r="E17" t="n">
         <v>-6.296875</v>
       </c>
@@ -9112,10 +9112,10 @@
       <c r="B18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="1" t="s"/>
       <c r="E18" t="n">
         <v>-2.48046875</v>
       </c>
@@ -9126,10 +9126,10 @@
       <c r="B19" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s"/>
       <c r="E19" t="n">
         <v>-7.01953125</v>
       </c>
@@ -9140,10 +9140,10 @@
       <c r="B20" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="1" t="s"/>
       <c r="E20" t="n">
         <v>-8.36328125</v>
       </c>
@@ -9154,10 +9154,10 @@
       <c r="B21" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1" t="s"/>
       <c r="E21" t="n">
         <v>-17.859375</v>
       </c>
@@ -9170,10 +9170,10 @@
       <c r="B22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1" t="s"/>
       <c r="E22" t="n">
         <v>1.375</v>
       </c>
@@ -9184,10 +9184,10 @@
       <c r="B23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1" t="s"/>
+      <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1" t="s"/>
       <c r="E23" t="n">
         <v>1.40234375</v>
       </c>
@@ -9198,10 +9198,10 @@
       <c r="B24" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1" t="s"/>
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="1" t="s"/>
       <c r="E24" t="n">
         <v>0.291015625</v>
       </c>
@@ -9212,10 +9212,10 @@
       <c r="B25" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1" t="s"/>
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="1" t="s"/>
       <c r="E25" t="n">
         <v>3.06640625</v>
       </c>
@@ -9228,10 +9228,10 @@
       <c r="B26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="1" t="s"/>
       <c r="E26" t="n">
         <v>-2.01171875</v>
       </c>
@@ -9242,10 +9242,10 @@
       <c r="B27" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="1" t="s"/>
       <c r="E27" t="n">
         <v>25.779296875</v>
       </c>
@@ -9256,10 +9256,10 @@
       <c r="B28" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="1" t="s"/>
       <c r="E28" t="n">
         <v>-18.92578125</v>
       </c>
@@ -9270,10 +9270,10 @@
       <c r="B29" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1" t="s"/>
       <c r="E29" t="n">
         <v>4.84375</v>
       </c>
@@ -9286,10 +9286,10 @@
       <c r="B30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1" t="s"/>
       <c r="E30" t="n">
         <v>-0.1904296875</v>
       </c>
@@ -9300,10 +9300,10 @@
       <c r="B31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1" t="s"/>
       <c r="E31" t="n">
         <v>-0.1875</v>
       </c>
@@ -9314,10 +9314,10 @@
       <c r="B32" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="1" t="s"/>
       <c r="E32" t="n">
         <v>-0.8515625</v>
       </c>
@@ -9328,10 +9328,10 @@
       <c r="B33" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="1" t="s"/>
       <c r="E33" t="n">
         <v>54.306640625</v>
       </c>
@@ -9342,10 +9342,10 @@
       <c r="B34" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="1" t="s"/>
       <c r="E34" t="n">
         <v>-1.257080078125</v>
       </c>
@@ -9356,10 +9356,10 @@
       <c r="B35" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="1" t="s"/>
       <c r="E35" t="n">
         <v>51.8203125</v>
       </c>
@@ -9372,10 +9372,10 @@
       <c r="B36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="1" t="s"/>
+      <c r="D36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="1" t="s"/>
       <c r="E36" t="n">
         <v>-0.09912109375</v>
       </c>
@@ -9386,10 +9386,10 @@
       <c r="B37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="1" t="s"/>
       <c r="E37" t="n">
         <v>-10.85546875</v>
       </c>
@@ -9400,10 +9400,10 @@
       <c r="B38" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="1" t="s"/>
+      <c r="D38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="1" t="s"/>
       <c r="E38" t="n">
         <v>-14.6015625</v>
       </c>
@@ -9416,10 +9416,10 @@
       <c r="B39" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="1" t="s"/>
+      <c r="D39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="1" t="s"/>
       <c r="E39" t="n">
         <v>62.322265625</v>
       </c>
@@ -9430,10 +9430,10 @@
       <c r="B40" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="1" t="s"/>
+      <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="1" t="s"/>
       <c r="E40" t="n">
         <v>36.765625</v>
       </c>
@@ -9448,10 +9448,10 @@
       <c r="B41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="1" t="s"/>
+      <c r="D41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="1" t="s"/>
       <c r="E41" t="n">
         <v>53</v>
       </c>
@@ -9462,10 +9462,10 @@
       <c r="B42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="1" t="s"/>
+      <c r="D42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="1" t="s"/>
       <c r="E42" t="n">
         <v>-72.87890625</v>
       </c>
@@ -9476,10 +9476,10 @@
       <c r="B43" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="1" t="s"/>
+      <c r="D43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="1" t="s"/>
       <c r="E43" t="n">
         <v>12.87890625</v>
       </c>
@@ -9492,10 +9492,10 @@
       <c r="B44" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="1" t="s"/>
+      <c r="D44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="1" t="s"/>
       <c r="E44" t="n">
         <v>45.37109375</v>
       </c>
@@ -9506,10 +9506,10 @@
       <c r="B45" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="1" t="s"/>
+      <c r="D45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="1" t="s"/>
       <c r="E45" t="n">
         <v>-1.159912109375</v>
       </c>
@@ -9520,10 +9520,10 @@
       <c r="B46" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="1" t="s"/>
+      <c r="D46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="1" t="s"/>
       <c r="E46" t="n">
         <v>37.2109375</v>
       </c>
@@ -9538,10 +9538,10 @@
       <c r="B47" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="1" t="s"/>
+      <c r="D47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="1" t="s"/>
       <c r="E47" t="n">
         <v>34.01611328125</v>
       </c>
@@ -9552,10 +9552,10 @@
       <c r="B48" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="1" t="s"/>
+      <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="1" t="s"/>
       <c r="E48" t="n">
         <v>18.380859375</v>
       </c>
@@ -9566,10 +9566,10 @@
       <c r="B49" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="1" t="s"/>
+      <c r="D49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="1" t="s"/>
       <c r="E49" t="n">
         <v>53.6650390625</v>
       </c>
@@ -9582,10 +9582,10 @@
       <c r="B50" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="1" t="s"/>
+      <c r="D50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="1" t="s"/>
       <c r="E50" t="n">
         <v>64.2265625</v>
       </c>
@@ -9596,10 +9596,10 @@
       <c r="B51" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="1" t="s"/>
+      <c r="D51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="1" t="s"/>
       <c r="E51" t="n">
         <v>19.375</v>
       </c>
@@ -9610,10 +9610,10 @@
       <c r="B52" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="1" t="s"/>
+      <c r="D52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="1" t="s"/>
       <c r="E52" t="n">
         <v>189.6640625</v>
       </c>
@@ -9628,10 +9628,10 @@
       <c r="B53" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="1" t="s"/>
+      <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="1" t="s"/>
       <c r="E53" t="n">
         <v>168.0380859375</v>
       </c>
@@ -9642,10 +9642,10 @@
       <c r="B54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="1" t="s"/>
+      <c r="D54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="1" t="s"/>
       <c r="E54" t="n">
         <v>4.138671875</v>
       </c>
@@ -9656,10 +9656,10 @@
       <c r="B55" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="1" t="s"/>
+      <c r="D55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="1" t="s"/>
       <c r="E55" t="n">
         <v>123.466796875</v>
       </c>
@@ -9672,10 +9672,10 @@
       <c r="B56" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="1" t="s"/>
+      <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="1" t="s"/>
       <c r="E56" t="n">
         <v>2.4530029296875</v>
       </c>
@@ -9686,10 +9686,10 @@
       <c r="B57" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="1" t="s"/>
+      <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="1" t="s"/>
       <c r="E57" t="n">
         <v>133.064453125</v>
       </c>
@@ -9700,10 +9700,10 @@
       <c r="B58" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="1" t="s"/>
+      <c r="D58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="1" t="s"/>
       <c r="E58" t="n">
         <v>11.50390625</v>
       </c>
@@ -9714,10 +9714,10 @@
       <c r="B59" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="1" t="s"/>
+      <c r="D59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="1" t="s"/>
       <c r="E59" t="n">
         <v>442.6640625</v>
       </c>
@@ -9732,10 +9732,10 @@
       <c r="B60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="1" t="s"/>
+      <c r="D60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="1" t="s"/>
       <c r="E60" t="n">
         <v>184.7626953125</v>
       </c>
@@ -9746,10 +9746,10 @@
       <c r="B61" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="1" t="s"/>
+      <c r="D61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="1" t="s"/>
       <c r="E61" t="n">
         <v>249.984375</v>
       </c>
@@ -9760,10 +9760,10 @@
       <c r="B62" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="1" t="s"/>
+      <c r="D62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="1" t="s"/>
       <c r="E62" t="n">
         <v>-5.326171875</v>
       </c>
@@ -9776,10 +9776,10 @@
       <c r="B63" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="1" t="s"/>
+      <c r="D63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="1" t="s"/>
       <c r="E63" t="n">
         <v>-13.109375</v>
       </c>
@@ -9790,10 +9790,10 @@
       <c r="B64" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="1" t="s"/>
+      <c r="D64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="1" t="s"/>
       <c r="E64" t="n">
         <v>80.60302734375</v>
       </c>
@@ -9804,10 +9804,10 @@
       <c r="B65" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="1" t="s"/>
+      <c r="D65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="1" t="s"/>
       <c r="E65" t="n">
         <v>493.3984375</v>
       </c>
@@ -9876,10 +9876,10 @@
       <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s"/>
       <c r="E2" t="n">
         <v>0.05766226114883929</v>
       </c>
@@ -9890,10 +9890,10 @@
       <c r="B3" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s"/>
       <c r="E3" t="n">
         <v>0.1066398906483046</v>
       </c>
@@ -9904,10 +9904,10 @@
       <c r="B4" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s"/>
       <c r="E4" t="n">
         <v>0.05791419292912511</v>
       </c>
@@ -9920,10 +9920,10 @@
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s"/>
       <c r="E5" t="n">
         <v>0.224577928073755</v>
       </c>
@@ -9934,10 +9934,10 @@
       <c r="B6" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s"/>
       <c r="E6" t="n">
         <v>0.06076691838560763</v>
       </c>
@@ -9948,10 +9948,10 @@
       <c r="B7" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s"/>
       <c r="E7" t="n">
         <v>0.03530781240517922</v>
       </c>
@@ -9962,10 +9962,10 @@
       <c r="B8" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1" t="s"/>
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s"/>
       <c r="E8" t="n">
         <v>0.04273402475663693</v>
       </c>
@@ -9978,10 +9978,10 @@
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s"/>
       <c r="E9" t="n">
         <v>-0.086777044378176</v>
       </c>
@@ -9992,10 +9992,10 @@
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s"/>
       <c r="E10" t="n">
         <v>-0.01827900272483538</v>
       </c>
@@ -10006,10 +10006,10 @@
       <c r="B11" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s"/>
       <c r="E11" t="n">
         <v>-0.01288196644601303</v>
       </c>
@@ -10020,10 +10020,10 @@
       <c r="B12" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="1" t="s"/>
       <c r="E12" t="n">
         <v>-0.02058909029445893</v>
       </c>
@@ -10034,10 +10034,10 @@
       <c r="B13" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s"/>
       <c r="E13" t="n">
         <v>-0.02120417573937289</v>
       </c>
@@ -10050,10 +10050,10 @@
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s"/>
       <c r="E14" t="n">
         <v>-0.02295474316121084</v>
       </c>
@@ -10064,10 +10064,10 @@
       <c r="B15" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s"/>
       <c r="E15" t="n">
         <v>-0.006359615135207624</v>
       </c>
@@ -10078,10 +10078,10 @@
       <c r="B16" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1" t="s"/>
       <c r="E16" t="n">
         <v>0.004970567141710869</v>
       </c>
@@ -10092,10 +10092,10 @@
       <c r="B17" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s"/>
       <c r="E17" t="n">
         <v>-0.006288303256623316</v>
       </c>
@@ -10108,10 +10108,10 @@
       <c r="B18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="1" t="s"/>
       <c r="E18" t="n">
         <v>-0.008372252220228997</v>
       </c>
@@ -10122,10 +10122,10 @@
       <c r="B19" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s"/>
       <c r="E19" t="n">
         <v>-0.02315123476472896</v>
       </c>
@@ -10136,10 +10136,10 @@
       <c r="B20" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="1" t="s"/>
       <c r="E20" t="n">
         <v>-0.02194128630662871</v>
       </c>
@@ -10150,10 +10150,10 @@
       <c r="B21" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1" t="s"/>
       <c r="E21" t="n">
         <v>-0.01577696043399202</v>
       </c>
@@ -10166,10 +10166,10 @@
       <c r="B22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1" t="s"/>
       <c r="E22" t="n">
         <v>0.02755588408640844</v>
       </c>
@@ -10180,10 +10180,10 @@
       <c r="B23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1" t="s"/>
+      <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1" t="s"/>
       <c r="E23" t="n">
         <v>0.008781833151407917</v>
       </c>
@@ -10194,10 +10194,10 @@
       <c r="B24" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1" t="s"/>
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="1" t="s"/>
       <c r="E24" t="n">
         <v>0.001583810185982897</v>
       </c>
@@ -10208,10 +10208,10 @@
       <c r="B25" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1" t="s"/>
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="1" t="s"/>
       <c r="E25" t="n">
         <v>0.005357770408549446</v>
       </c>
@@ -10224,10 +10224,10 @@
       <c r="B26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="1" t="s"/>
       <c r="E26" t="n">
         <v>-0.009072542996807169</v>
       </c>
@@ -10238,10 +10238,10 @@
       <c r="B27" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="1" t="s"/>
       <c r="E27" t="n">
         <v>0.1401539835576303</v>
       </c>
@@ -10252,10 +10252,10 @@
       <c r="B28" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="1" t="s"/>
       <c r="E28" t="n">
         <v>-0.06826609885804695</v>
       </c>
@@ -10266,10 +10266,10 @@
       <c r="B29" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1" t="s"/>
       <c r="E29" t="n">
         <v>0.00594667919689522</v>
       </c>
@@ -10282,10 +10282,10 @@
       <c r="B30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1" t="s"/>
       <c r="E30" t="n">
         <v>-0.00278435194208548</v>
       </c>
@@ -10296,10 +10296,10 @@
       <c r="B31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1" t="s"/>
       <c r="E31" t="n">
         <v>-0.0008390299240896416</v>
       </c>
@@ -10310,10 +10310,10 @@
       <c r="B32" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="1" t="s"/>
       <c r="E32" t="n">
         <v>-0.003968873833870223</v>
       </c>
@@ -10324,10 +10324,10 @@
       <c r="B33" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="1" t="s"/>
       <c r="E33" t="n">
         <v>0.2039009952685876</v>
       </c>
@@ -10338,10 +10338,10 @@
       <c r="B34" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="1" t="s"/>
       <c r="E34" t="n">
         <v>-0.05780866644983271</v>
       </c>
@@ -10352,10 +10352,10 @@
       <c r="B35" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="1" t="s"/>
       <c r="E35" t="n">
         <v>0.06350768057082422</v>
       </c>
@@ -10368,10 +10368,10 @@
       <c r="B36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="1" t="s"/>
+      <c r="D36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="1" t="s"/>
       <c r="E36" t="n">
         <v>-0.001937781557035164</v>
       </c>
@@ -10382,10 +10382,10 @@
       <c r="B37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="1" t="s"/>
       <c r="E37" t="n">
         <v>-0.07386825932198028</v>
       </c>
@@ -10396,10 +10396,10 @@
       <c r="B38" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="1" t="s"/>
+      <c r="D38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="1" t="s"/>
       <c r="E38" t="n">
         <v>-0.08631361212768596</v>
       </c>
@@ -10412,10 +10412,10 @@
       <c r="B39" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="1" t="s"/>
+      <c r="D39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="1" t="s"/>
       <c r="E39" t="n">
         <v>0.2574222376542363</v>
       </c>
@@ -10426,10 +10426,10 @@
       <c r="B40" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="1" t="s"/>
+      <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="1" t="s"/>
       <c r="E40" t="n">
         <v>0.05737160512730986</v>
       </c>
@@ -10444,10 +10444,10 @@
       <c r="B41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="1" t="s"/>
+      <c r="D41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="1" t="s"/>
       <c r="E41" t="n">
         <v>0.9579291841601735</v>
       </c>
@@ -10458,10 +10458,10 @@
       <c r="B42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="1" t="s"/>
+      <c r="D42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="1" t="s"/>
       <c r="E42" t="n">
         <v>-0.4235199897939332</v>
       </c>
@@ -10472,10 +10472,10 @@
       <c r="B43" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="1" t="s"/>
+      <c r="D43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="1" t="s"/>
       <c r="E43" t="n">
         <v>0.07455381340381236</v>
       </c>
@@ -10488,10 +10488,10 @@
       <c r="B44" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="1" t="s"/>
+      <c r="D44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="1" t="s"/>
       <c r="E44" t="n">
         <v>0.1908430497885939</v>
       </c>
@@ -10502,10 +10502,10 @@
       <c r="B45" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="1" t="s"/>
+      <c r="D45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="1" t="s"/>
       <c r="E45" t="n">
         <v>-0.0531713206587648</v>
       </c>
@@ -10516,10 +10516,10 @@
       <c r="B46" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="1" t="s"/>
+      <c r="D46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="1" t="s"/>
       <c r="E46" t="n">
         <v>0.0543813089968127</v>
       </c>
@@ -10534,10 +10534,10 @@
       <c r="B47" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="1" t="s"/>
+      <c r="D47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="1" t="s"/>
       <c r="E47" t="n">
         <v>0.5640964226335258</v>
       </c>
@@ -10548,10 +10548,10 @@
       <c r="B48" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="1" t="s"/>
+      <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="1" t="s"/>
       <c r="E48" t="n">
         <v>0.1059350294419686</v>
       </c>
@@ -10562,10 +10562,10 @@
       <c r="B49" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="1" t="s"/>
+      <c r="D49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="1" t="s"/>
       <c r="E49" t="n">
         <v>0.3609306866352791</v>
       </c>
@@ -10578,10 +10578,10 @@
       <c r="B50" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="1" t="s"/>
+      <c r="D50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="1" t="s"/>
       <c r="E50" t="n">
         <v>0.228724051707049</v>
       </c>
@@ -10592,10 +10592,10 @@
       <c r="B51" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="1" t="s"/>
+      <c r="D51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="1" t="s"/>
       <c r="E51" t="n">
         <v>0.9319303335103406</v>
       </c>
@@ -10606,10 +10606,10 @@
       <c r="B52" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="1" t="s"/>
+      <c r="D52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="1" t="s"/>
       <c r="E52" t="n">
         <v>0.2692656004516413</v>
       </c>
@@ -10624,10 +10624,10 @@
       <c r="B53" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="1" t="s"/>
+      <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="1" t="s"/>
       <c r="E53" t="n">
         <v>2.326153419383071</v>
       </c>
@@ -10638,10 +10638,10 @@
       <c r="B54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="1" t="s"/>
+      <c r="D54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="1" t="s"/>
       <c r="E54" t="n">
         <v>0.02225240315977824</v>
       </c>
@@ -10652,10 +10652,10 @@
       <c r="B55" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="1" t="s"/>
+      <c r="D55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="1" t="s"/>
       <c r="E55" t="n">
         <v>0.7438252444274587</v>
       </c>
@@ -10668,10 +10668,10 @@
       <c r="B56" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="1" t="s"/>
+      <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="1" t="s"/>
       <c r="E56" t="n">
         <v>0.1508994228876165</v>
       </c>
@@ -10682,10 +10682,10 @@
       <c r="B57" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="1" t="s"/>
+      <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="1" t="s"/>
       <c r="E57" t="n">
         <v>0.4911289831916514</v>
       </c>
@@ -10696,10 +10696,10 @@
       <c r="B58" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="1" t="s"/>
+      <c r="D58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="1" t="s"/>
       <c r="E58" t="n">
         <v>0.3309652786377155</v>
       </c>
@@ -10710,10 +10710,10 @@
       <c r="B59" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="1" t="s"/>
+      <c r="D59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="1" t="s"/>
       <c r="E59" t="n">
         <v>0.5898918515989056</v>
       </c>
@@ -10728,10 +10728,10 @@
       <c r="B60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="1" t="s"/>
+      <c r="D60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="1" t="s"/>
       <c r="E60" t="n">
         <v>2.500645162143042</v>
       </c>
@@ -10742,10 +10742,10 @@
       <c r="B61" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="1" t="s"/>
+      <c r="D61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="1" t="s"/>
       <c r="E61" t="n">
         <v>1.027471158366322</v>
       </c>
@@ -10756,10 +10756,10 @@
       <c r="B62" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="1" t="s"/>
+      <c r="D62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="1" t="s"/>
       <c r="E62" t="n">
         <v>-0.02349608269380391</v>
       </c>
@@ -10772,10 +10772,10 @@
       <c r="B63" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="1" t="s"/>
+      <c r="D63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="1" t="s"/>
       <c r="E63" t="n">
         <v>-0.03822258161876505</v>
       </c>
@@ -10786,10 +10786,10 @@
       <c r="B64" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="1" t="s"/>
+      <c r="D64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="1" t="s"/>
       <c r="E64" t="n">
         <v>1.146861413912862</v>
       </c>
@@ -10800,10 +10800,10 @@
       <c r="B65" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="1" t="s"/>
+      <c r="D65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="1" t="s"/>
       <c r="E65" t="n">
         <v>0.5038794046763168</v>
       </c>

--- a/DataValidation/data validation for 105_FMILEAGE.xlsx
+++ b/DataValidation/data validation for 105_FMILEAGE.xlsx
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>105_FMILEAGE is too big for export</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>financial_period_key</t>
   </si>
@@ -38,31 +35,79 @@
     <t>train_operating_company_key_toc_name</t>
   </si>
   <si>
+    <t>trains_planned</t>
+  </si>
+  <si>
+    <t>trains_within_FPM</t>
+  </si>
+  <si>
+    <t>FPM_calculated_MAA</t>
+  </si>
+  <si>
     <t>FOC_affected_delay</t>
   </si>
   <si>
     <t>FOC_train_kilometres</t>
   </si>
   <si>
+    <t>FOC_delay_calculated_YTD</t>
+  </si>
+  <si>
+    <t>FPM_baseline_green_threshold_period</t>
+  </si>
+  <si>
+    <t>FPM_red_threshold_period</t>
+  </si>
+  <si>
+    <t>FPM_baseline_green_threshold_MAA</t>
+  </si>
+  <si>
+    <t>FPM_red_threshold_MAA</t>
+  </si>
+  <si>
+    <t>FOC_delay_baseline_green_threshold_period</t>
+  </si>
+  <si>
+    <t>FOC_delay_red_threshold_period</t>
+  </si>
+  <si>
+    <t>FOC_delay_baseline_green_threshold_YTD</t>
+  </si>
+  <si>
+    <t>FOC_delay_red_threshold_YTD</t>
+  </si>
+  <si>
+    <t>FPM_MAA_forecast</t>
+  </si>
+  <si>
+    <t>FPM_period_forecast</t>
+  </si>
+  <si>
+    <t>FOC_delay_YTD_forecast</t>
+  </si>
+  <si>
+    <t>FOC_delay_period_forecast</t>
+  </si>
+  <si>
+    <t>Freightliner Heavy Haul</t>
+  </si>
+  <si>
     <t>Freightliner Intermodal</t>
+  </si>
+  <si>
+    <t>GB Railfreight</t>
+  </si>
+  <si>
+    <t>Colas Freight</t>
   </si>
   <si>
     <t>DB Cargo UK</t>
   </si>
   <si>
-    <t>National (All FOCs)</t>
-  </si>
-  <si>
-    <t>Freightliner Heavy Haul</t>
-  </si>
-  <si>
-    <t>GB Railfreight</t>
-  </si>
-  <si>
     <t>Direct Rail Services</t>
   </si>
   <si>
-    <t>Colas Freight</t>
+    <t>National (All FOCs)</t>
   </si>
   <si>
     <t>a</t>
@@ -75,15 +120,6 @@
   </si>
   <si>
     <t>Latest Load is source item id 9111</t>
-  </si>
-  <si>
-    <t>trains_planned</t>
-  </si>
-  <si>
-    <t>trains_within_FPM</t>
-  </si>
-  <si>
-    <t>FPM_calculated_MAA</t>
   </si>
   <si>
     <t>count</t>
@@ -459,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,12 +503,4163 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="n">
+        <v>2018201901</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="n">
+        <v>6161.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>154372.921875</v>
+      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="s"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="n">
+        <v>21508.59765625</v>
+      </c>
+      <c r="I3" t="n">
+        <v>679445.0625</v>
+      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="n">
+        <v>17175</v>
+      </c>
+      <c r="I4" t="n">
+        <v>400602.4375</v>
+      </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="n">
+        <v>2568.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>78433.828125</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="s"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="n">
+        <v>34110.125</v>
+      </c>
+      <c r="I6" t="n">
+        <v>940600.5625</v>
+      </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="s"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="n">
+        <v>2088</v>
+      </c>
+      <c r="I7" t="n">
+        <v>89638.578125</v>
+      </c>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="s"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C8" s="1" t="s"/>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="n">
+        <v>84216.7265625</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2346576.5</v>
+      </c>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="s"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="n">
+        <v>2018201902</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="n">
+        <v>7105</v>
+      </c>
+      <c r="I9" t="n">
+        <v>174321.203125</v>
+      </c>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="s"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="n">
+        <v>19823.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>681201.4375</v>
+      </c>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="s"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="n">
+        <v>17686</v>
+      </c>
+      <c r="I11" t="n">
+        <v>416378.53125</v>
+      </c>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="s"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="n">
+        <v>2096</v>
+      </c>
+      <c r="I12" t="n">
+        <v>76520.640625</v>
+      </c>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="s"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="n">
+        <v>32796.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>938742.6875</v>
+      </c>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="s"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="n">
+        <v>1926.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>90237.8359375</v>
+      </c>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="s"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
+      <c r="H15" t="n">
+        <v>81512.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2378403.5</v>
+      </c>
+      <c r="J15" t="s"/>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="s"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="n">
+        <v>2018201903</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s"/>
+      <c r="H16" t="n">
+        <v>7016</v>
+      </c>
+      <c r="I16" t="n">
+        <v>168166.90625</v>
+      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
+      <c r="H17" t="n">
+        <v>22095.865234375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>674842.375</v>
+      </c>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="s"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="n">
+        <v>20327.1484375</v>
+      </c>
+      <c r="I18" t="n">
+        <v>402526.125</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="s"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
+      <c r="H19" t="n">
+        <v>2160.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>58088.03125</v>
+      </c>
+      <c r="J19" t="s"/>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="s"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s"/>
+      <c r="G20" t="s"/>
+      <c r="H20" t="n">
+        <v>32687.625</v>
+      </c>
+      <c r="I20" t="n">
+        <v>889398.5625</v>
+      </c>
+      <c r="J20" t="s"/>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="s"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s"/>
+      <c r="F21" t="s"/>
+      <c r="G21" t="s"/>
+      <c r="H21" t="n">
+        <v>2639.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>95119.765625</v>
+      </c>
+      <c r="J21" t="s"/>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="s"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s"/>
+      <c r="G22" t="s"/>
+      <c r="H22" t="n">
+        <v>87201.640625</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2290444.5</v>
+      </c>
+      <c r="J22" t="s"/>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="s"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="n">
+        <v>2018201904</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s"/>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
+      <c r="G23" t="s"/>
+      <c r="H23" t="n">
+        <v>7836.966796875</v>
+      </c>
+      <c r="I23" t="n">
+        <v>150260.3125</v>
+      </c>
+      <c r="J23" t="s"/>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="s"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s"/>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s"/>
+      <c r="F24" t="s"/>
+      <c r="G24" t="s"/>
+      <c r="H24" t="n">
+        <v>30022.83984375</v>
+      </c>
+      <c r="I24" t="n">
+        <v>701971.875</v>
+      </c>
+      <c r="J24" t="s"/>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="s"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s"/>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s"/>
+      <c r="F25" t="s"/>
+      <c r="G25" t="s"/>
+      <c r="H25" t="n">
+        <v>22531.01953125</v>
+      </c>
+      <c r="I25" t="n">
+        <v>427442.375</v>
+      </c>
+      <c r="J25" t="s"/>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="s"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s"/>
+      <c r="F26" t="s"/>
+      <c r="G26" t="s"/>
+      <c r="H26" t="n">
+        <v>2905.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>70121.7421875</v>
+      </c>
+      <c r="J26" t="s"/>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="s"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s"/>
+      <c r="F27" t="s"/>
+      <c r="G27" t="s"/>
+      <c r="H27" t="n">
+        <v>36819.046875</v>
+      </c>
+      <c r="I27" t="n">
+        <v>903191.125</v>
+      </c>
+      <c r="J27" t="s"/>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="s"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s"/>
+      <c r="F28" t="s"/>
+      <c r="G28" t="s"/>
+      <c r="H28" t="n">
+        <v>3399.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>97447.1171875</v>
+      </c>
+      <c r="J28" t="s"/>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="s"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s"/>
+      <c r="F29" t="s"/>
+      <c r="G29" t="s"/>
+      <c r="H29" t="n">
+        <v>103638.875</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2354051</v>
+      </c>
+      <c r="J29" t="s"/>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="s"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1" t="n">
+        <v>2018201905</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s"/>
+      <c r="F30" t="s"/>
+      <c r="G30" t="s"/>
+      <c r="H30" t="n">
+        <v>6239</v>
+      </c>
+      <c r="I30" t="n">
+        <v>147110.28125</v>
+      </c>
+      <c r="J30" t="s"/>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="s"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s"/>
+      <c r="F31" t="s"/>
+      <c r="G31" t="s"/>
+      <c r="H31" t="n">
+        <v>32101.33984375</v>
+      </c>
+      <c r="I31" t="n">
+        <v>688156.25</v>
+      </c>
+      <c r="J31" t="s"/>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="s"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s"/>
+      <c r="F32" t="s"/>
+      <c r="G32" t="s"/>
+      <c r="H32" t="n">
+        <v>22808</v>
+      </c>
+      <c r="I32" t="n">
+        <v>431512.53125</v>
+      </c>
+      <c r="J32" t="s"/>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="s"/>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="s"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s"/>
+      <c r="F33" t="s"/>
+      <c r="G33" t="s"/>
+      <c r="H33" t="n">
+        <v>1598.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>67051.984375</v>
+      </c>
+      <c r="J33" t="s"/>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="s"/>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="s"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s"/>
+      <c r="F34" t="s"/>
+      <c r="G34" t="s"/>
+      <c r="H34" t="n">
+        <v>32199.1015625</v>
+      </c>
+      <c r="I34" t="n">
+        <v>847716.6875</v>
+      </c>
+      <c r="J34" t="s"/>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="s"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s"/>
+      <c r="F35" t="s"/>
+      <c r="G35" t="s"/>
+      <c r="H35" t="n">
+        <v>1662.984985351562</v>
+      </c>
+      <c r="I35" t="n">
+        <v>93476.078125</v>
+      </c>
+      <c r="J35" t="s"/>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="s"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C36" s="1" t="s"/>
+      <c r="D36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s"/>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s"/>
+      <c r="H36" t="n">
+        <v>96847.9296875</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2277824</v>
+      </c>
+      <c r="J36" t="s"/>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="s"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="1" t="n">
+        <v>2018201906</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s"/>
+      <c r="F37" t="s"/>
+      <c r="G37" t="s"/>
+      <c r="H37" t="n">
+        <v>4987.63818359375</v>
+      </c>
+      <c r="I37" t="n">
+        <v>164134.546875</v>
+      </c>
+      <c r="J37" t="s"/>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="s"/>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="s"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s"/>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s"/>
+      <c r="F38" t="s"/>
+      <c r="G38" t="s"/>
+      <c r="H38" t="n">
+        <v>20087.939453125</v>
+      </c>
+      <c r="I38" t="n">
+        <v>650669.3125</v>
+      </c>
+      <c r="J38" t="s"/>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="s"/>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="s"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="s"/>
+      <c r="D39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s"/>
+      <c r="F39" t="s"/>
+      <c r="G39" t="s"/>
+      <c r="H39" t="n">
+        <v>19058.255859375</v>
+      </c>
+      <c r="I39" t="n">
+        <v>467116.25</v>
+      </c>
+      <c r="J39" t="s"/>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="s"/>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="s"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s"/>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s"/>
+      <c r="F40" t="s"/>
+      <c r="G40" t="s"/>
+      <c r="H40" t="n">
+        <v>2635.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>72434.046875</v>
+      </c>
+      <c r="J40" t="s"/>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="s"/>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="s"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s"/>
+      <c r="D41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s"/>
+      <c r="H41" t="n">
+        <v>26276.810546875</v>
+      </c>
+      <c r="I41" t="n">
+        <v>881453.5</v>
+      </c>
+      <c r="J41" t="s"/>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="s"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s"/>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s"/>
+      <c r="F42" t="s"/>
+      <c r="G42" t="s"/>
+      <c r="H42" t="n">
+        <v>1334</v>
+      </c>
+      <c r="I42" t="n">
+        <v>96437.6875</v>
+      </c>
+      <c r="J42" t="s"/>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="s"/>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="s"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C43" s="1" t="s"/>
+      <c r="D43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s"/>
+      <c r="G43" t="s"/>
+      <c r="H43" t="n">
+        <v>74793.640625</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2338246.75</v>
+      </c>
+      <c r="J43" t="s"/>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="s"/>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="s"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="1" t="n">
+        <v>2018201907</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s"/>
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s"/>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s"/>
+      <c r="H44" t="n">
+        <v>8036.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>156371.453125</v>
+      </c>
+      <c r="J44" t="s"/>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="s"/>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="s"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s"/>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s"/>
+      <c r="F45" t="s"/>
+      <c r="G45" t="s"/>
+      <c r="H45" t="n">
+        <v>31406.876953125</v>
+      </c>
+      <c r="I45" t="n">
+        <v>669377.375</v>
+      </c>
+      <c r="J45" t="s"/>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="s"/>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="s"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s"/>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s"/>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s"/>
+      <c r="H46" t="n">
+        <v>36561.9921875</v>
+      </c>
+      <c r="I46" t="n">
+        <v>511708.28125</v>
+      </c>
+      <c r="J46" t="s"/>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="s"/>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="s"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s"/>
+      <c r="D47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s"/>
+      <c r="F47" t="s"/>
+      <c r="G47" t="s"/>
+      <c r="H47" t="n">
+        <v>2788.35595703125</v>
+      </c>
+      <c r="I47" t="n">
+        <v>64237.8984375</v>
+      </c>
+      <c r="J47" t="s"/>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="s"/>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="s"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C48" s="1" t="s"/>
+      <c r="D48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s"/>
+      <c r="F48" t="s"/>
+      <c r="G48" t="s"/>
+      <c r="H48" t="n">
+        <v>38255.88671875</v>
+      </c>
+      <c r="I48" t="n">
+        <v>915260.0625</v>
+      </c>
+      <c r="J48" t="s"/>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="s"/>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="s"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C49" s="1" t="s"/>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s"/>
+      <c r="F49" t="s"/>
+      <c r="G49" t="s"/>
+      <c r="H49" t="n">
+        <v>6288</v>
+      </c>
+      <c r="I49" t="n">
+        <v>98271.03125</v>
+      </c>
+      <c r="J49" t="s"/>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="s"/>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="s"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C50" s="1" t="s"/>
+      <c r="D50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s"/>
+      <c r="F50" t="s"/>
+      <c r="G50" t="s"/>
+      <c r="H50" t="n">
+        <v>123846.109375</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2422237</v>
+      </c>
+      <c r="J50" t="s"/>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="s"/>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="s"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="1" t="n">
+        <v>2018201908</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s"/>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s"/>
+      <c r="F51" t="s"/>
+      <c r="G51" t="s"/>
+      <c r="H51" t="n">
+        <v>8600.728515625</v>
+      </c>
+      <c r="I51" t="n">
+        <v>157653.25</v>
+      </c>
+      <c r="J51" t="s"/>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="s"/>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="s"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s"/>
+      <c r="D52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s"/>
+      <c r="F52" t="s"/>
+      <c r="G52" t="s"/>
+      <c r="H52" t="n">
+        <v>27184.9453125</v>
+      </c>
+      <c r="I52" t="n">
+        <v>673084.125</v>
+      </c>
+      <c r="J52" t="s"/>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="s"/>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="s"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="s"/>
+      <c r="D53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s"/>
+      <c r="F53" t="s"/>
+      <c r="G53" t="s"/>
+      <c r="H53" t="n">
+        <v>26565.3359375</v>
+      </c>
+      <c r="I53" t="n">
+        <v>521973.59375</v>
+      </c>
+      <c r="J53" t="s"/>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="s"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C54" s="1" t="s"/>
+      <c r="D54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s"/>
+      <c r="F54" t="s"/>
+      <c r="G54" t="s"/>
+      <c r="H54" t="n">
+        <v>1652</v>
+      </c>
+      <c r="I54" t="n">
+        <v>70021.1875</v>
+      </c>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="s"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1" t="s"/>
+      <c r="D55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s"/>
+      <c r="F55" t="s"/>
+      <c r="G55" t="s"/>
+      <c r="H55" t="n">
+        <v>33006.796875</v>
+      </c>
+      <c r="I55" t="n">
+        <v>922584.625</v>
+      </c>
+      <c r="J55" t="s"/>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="s"/>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="s"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C56" s="1" t="s"/>
+      <c r="D56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s"/>
+      <c r="F56" t="s"/>
+      <c r="G56" t="s"/>
+      <c r="H56" t="n">
+        <v>2706</v>
+      </c>
+      <c r="I56" t="n">
+        <v>101066.03125</v>
+      </c>
+      <c r="J56" t="s"/>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="s"/>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="s"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C57" s="1" t="s"/>
+      <c r="D57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s"/>
+      <c r="F57" t="s"/>
+      <c r="G57" t="s"/>
+      <c r="H57" t="n">
+        <v>100136.3125</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2452644.25</v>
+      </c>
+      <c r="J57" t="s"/>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="s"/>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="s"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="1" t="n">
+        <v>2018201909</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s"/>
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s"/>
+      <c r="F58" t="s"/>
+      <c r="G58" t="s"/>
+      <c r="H58" t="n">
+        <v>10638.615234375</v>
+      </c>
+      <c r="I58" t="n">
+        <v>170710.859375</v>
+      </c>
+      <c r="J58" t="s"/>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="s"/>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="s"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s"/>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s"/>
+      <c r="F59" t="s"/>
+      <c r="G59" t="s"/>
+      <c r="H59" t="n">
+        <v>29627.2578125</v>
+      </c>
+      <c r="I59" t="n">
+        <v>691620.1875</v>
+      </c>
+      <c r="J59" t="s"/>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="s"/>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="s"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C60" s="1" t="s"/>
+      <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s"/>
+      <c r="F60" t="s"/>
+      <c r="G60" t="s"/>
+      <c r="H60" t="n">
+        <v>30320.33203125</v>
+      </c>
+      <c r="I60" t="n">
+        <v>545473.625</v>
+      </c>
+      <c r="J60" t="s"/>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="s"/>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="s"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1" t="s"/>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s"/>
+      <c r="F61" t="s"/>
+      <c r="G61" t="s"/>
+      <c r="H61" t="n">
+        <v>2048.742919921875</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67336.7265625</v>
+      </c>
+      <c r="J61" t="s"/>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="s"/>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="s"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C62" s="1" t="s"/>
+      <c r="D62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s"/>
+      <c r="F62" t="s"/>
+      <c r="G62" t="s"/>
+      <c r="H62" t="n">
+        <v>38116.640625</v>
+      </c>
+      <c r="I62" t="n">
+        <v>918397.125</v>
+      </c>
+      <c r="J62" t="s"/>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="s"/>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="s"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C63" s="1" t="s"/>
+      <c r="D63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s"/>
+      <c r="F63" t="s"/>
+      <c r="G63" t="s"/>
+      <c r="H63" t="n">
+        <v>2044.5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>99163.03125</v>
+      </c>
+      <c r="J63" t="s"/>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="s"/>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="s"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C64" s="1" t="s"/>
+      <c r="D64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s"/>
+      <c r="F64" t="s"/>
+      <c r="G64" t="s"/>
+      <c r="H64" t="n">
+        <v>113199.0859375</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2498346.5</v>
+      </c>
+      <c r="J64" t="s"/>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="s"/>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="s"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="1" t="n">
+        <v>2018201910</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s"/>
+      <c r="D65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s"/>
+      <c r="F65" t="s"/>
+      <c r="G65" t="s"/>
+      <c r="H65" t="n">
+        <v>4989.85986328125</v>
+      </c>
+      <c r="I65" t="n">
+        <v>121887.8359375</v>
+      </c>
+      <c r="J65" t="s"/>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="s"/>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="s"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s"/>
+      <c r="D66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s"/>
+      <c r="F66" t="s"/>
+      <c r="G66" t="s"/>
+      <c r="H66" t="n">
+        <v>15968.6904296875</v>
+      </c>
+      <c r="I66" t="n">
+        <v>490617.78125</v>
+      </c>
+      <c r="J66" t="s"/>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="s"/>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="s"/>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C67" s="1" t="s"/>
+      <c r="D67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s"/>
+      <c r="F67" t="s"/>
+      <c r="G67" t="s"/>
+      <c r="H67" t="n">
+        <v>14414.4267578125</v>
+      </c>
+      <c r="I67" t="n">
+        <v>395447.9375</v>
+      </c>
+      <c r="J67" t="s"/>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="s"/>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="s"/>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s"/>
+      <c r="D68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s"/>
+      <c r="F68" t="s"/>
+      <c r="G68" t="s"/>
+      <c r="H68" t="n">
+        <v>1080</v>
+      </c>
+      <c r="I68" t="n">
+        <v>37879.32421875</v>
+      </c>
+      <c r="J68" t="s"/>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="s"/>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="s"/>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C69" s="1" t="s"/>
+      <c r="D69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s"/>
+      <c r="F69" t="s"/>
+      <c r="G69" t="s"/>
+      <c r="H69" t="n">
+        <v>18374.400390625</v>
+      </c>
+      <c r="I69" t="n">
+        <v>619490.625</v>
+      </c>
+      <c r="J69" t="s"/>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="s"/>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="s"/>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C70" s="1" t="s"/>
+      <c r="D70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" t="s"/>
+      <c r="F70" t="s"/>
+      <c r="G70" t="s"/>
+      <c r="H70" t="n">
+        <v>1836</v>
+      </c>
+      <c r="I70" t="n">
+        <v>79598.296875</v>
+      </c>
+      <c r="J70" t="s"/>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="s"/>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="s"/>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C71" s="1" t="s"/>
+      <c r="D71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="s"/>
+      <c r="F71" t="s"/>
+      <c r="G71" t="s"/>
+      <c r="H71" t="n">
+        <v>57232.87890625</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1748575.875</v>
+      </c>
+      <c r="J71" t="s"/>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="s"/>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="s"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="1" t="n">
+        <v>2018201911</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s"/>
+      <c r="D72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s"/>
+      <c r="F72" t="s"/>
+      <c r="G72" t="s"/>
+      <c r="H72" t="n">
+        <v>6751.52685546875</v>
+      </c>
+      <c r="I72" t="n">
+        <v>148711</v>
+      </c>
+      <c r="J72" t="s"/>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="s"/>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="s"/>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s"/>
+      <c r="D73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="s"/>
+      <c r="F73" t="s"/>
+      <c r="G73" t="s"/>
+      <c r="H73" t="n">
+        <v>21365.177734375</v>
+      </c>
+      <c r="I73" t="n">
+        <v>697855.5625</v>
+      </c>
+      <c r="J73" t="s"/>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="s"/>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="s"/>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C74" s="1" t="s"/>
+      <c r="D74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s"/>
+      <c r="F74" t="s"/>
+      <c r="G74" t="s"/>
+      <c r="H74" t="n">
+        <v>22995.638671875</v>
+      </c>
+      <c r="I74" t="n">
+        <v>536046.625</v>
+      </c>
+      <c r="J74" t="s"/>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="s"/>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="s"/>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C75" s="1" t="s"/>
+      <c r="D75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s"/>
+      <c r="F75" t="s"/>
+      <c r="G75" t="s"/>
+      <c r="H75" t="n">
+        <v>2098.16796875</v>
+      </c>
+      <c r="I75" t="n">
+        <v>59356.30859375</v>
+      </c>
+      <c r="J75" t="s"/>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="s"/>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="s"/>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C76" s="1" t="s"/>
+      <c r="D76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s"/>
+      <c r="F76" t="s"/>
+      <c r="G76" t="s"/>
+      <c r="H76" t="n">
+        <v>26526.3515625</v>
+      </c>
+      <c r="I76" t="n">
+        <v>887542.6875</v>
+      </c>
+      <c r="J76" t="s"/>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="s"/>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="s"/>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C77" s="1" t="s"/>
+      <c r="D77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s"/>
+      <c r="F77" t="s"/>
+      <c r="G77" t="s"/>
+      <c r="H77" t="n">
+        <v>1159.5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>92173.34375</v>
+      </c>
+      <c r="J77" t="s"/>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="s"/>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="s"/>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C78" s="1" t="s"/>
+      <c r="D78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" t="s"/>
+      <c r="F78" t="s"/>
+      <c r="G78" t="s"/>
+      <c r="H78" t="n">
+        <v>81450.359375</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2427065.5</v>
+      </c>
+      <c r="J78" t="s"/>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="s"/>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="s"/>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="1" t="n">
+        <v>2018201912</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s"/>
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s"/>
+      <c r="F79" t="s"/>
+      <c r="G79" t="s"/>
+      <c r="H79" t="n">
+        <v>6550.51806640625</v>
+      </c>
+      <c r="I79" t="n">
+        <v>159054</v>
+      </c>
+      <c r="J79" t="s"/>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="s"/>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="s"/>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s"/>
+      <c r="D80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s"/>
+      <c r="F80" t="s"/>
+      <c r="G80" t="s"/>
+      <c r="H80" t="n">
+        <v>22173.703125</v>
+      </c>
+      <c r="I80" t="n">
+        <v>671509.6875</v>
+      </c>
+      <c r="J80" t="s"/>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="s"/>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="s"/>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C81" s="1" t="s"/>
+      <c r="D81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s"/>
+      <c r="F81" t="s"/>
+      <c r="G81" t="s"/>
+      <c r="H81" t="n">
+        <v>18393.552734375</v>
+      </c>
+      <c r="I81" t="n">
+        <v>487400.21875</v>
+      </c>
+      <c r="J81" t="s"/>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="s"/>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="s"/>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C82" s="1" t="s"/>
+      <c r="D82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s"/>
+      <c r="F82" t="s"/>
+      <c r="G82" t="s"/>
+      <c r="H82" t="n">
+        <v>2764.97509765625</v>
+      </c>
+      <c r="I82" t="n">
+        <v>66095.578125</v>
+      </c>
+      <c r="J82" t="s"/>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="s"/>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="s"/>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C83" s="1" t="s"/>
+      <c r="D83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s"/>
+      <c r="F83" t="s"/>
+      <c r="G83" t="s"/>
+      <c r="H83" t="n">
+        <v>27723.54296875</v>
+      </c>
+      <c r="I83" t="n">
+        <v>933824.1875</v>
+      </c>
+      <c r="J83" t="s"/>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="s"/>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="s"/>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s"/>
+      <c r="D84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" t="s"/>
+      <c r="F84" t="s"/>
+      <c r="G84" t="s"/>
+      <c r="H84" t="n">
+        <v>3354.73388671875</v>
+      </c>
+      <c r="I84" t="n">
+        <v>90720.0234375</v>
+      </c>
+      <c r="J84" t="s"/>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="s"/>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="s"/>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C85" s="1" t="s"/>
+      <c r="D85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s"/>
+      <c r="F85" t="s"/>
+      <c r="G85" t="s"/>
+      <c r="H85" t="n">
+        <v>81453.0234375</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2414136.75</v>
+      </c>
+      <c r="J85" t="s"/>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="s"/>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="s"/>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="1" t="n">
+        <v>2018201913</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1" t="s"/>
+      <c r="D86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s"/>
+      <c r="F86" t="s"/>
+      <c r="G86" t="s"/>
+      <c r="H86" t="n">
+        <v>6839.2822265625</v>
+      </c>
+      <c r="I86" t="n">
+        <v>160475.9375</v>
+      </c>
+      <c r="J86" t="s"/>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="s"/>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="s"/>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s"/>
+      <c r="D87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s"/>
+      <c r="F87" t="s"/>
+      <c r="G87" t="s"/>
+      <c r="H87" t="n">
+        <v>22347.236328125</v>
+      </c>
+      <c r="I87" t="n">
+        <v>684748.0625</v>
+      </c>
+      <c r="J87" t="s"/>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="s"/>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="s"/>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C88" s="1" t="s"/>
+      <c r="D88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s"/>
+      <c r="F88" t="s"/>
+      <c r="G88" t="s"/>
+      <c r="H88" t="n">
+        <v>21456.0234375</v>
+      </c>
+      <c r="I88" t="n">
+        <v>521325.96875</v>
+      </c>
+      <c r="J88" t="s"/>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="s"/>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="s"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C89" s="1" t="s"/>
+      <c r="D89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s"/>
+      <c r="F89" t="s"/>
+      <c r="G89" t="s"/>
+      <c r="H89" t="n">
+        <v>1592</v>
+      </c>
+      <c r="I89" t="n">
+        <v>59615.91015625</v>
+      </c>
+      <c r="J89" t="s"/>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="s"/>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="s"/>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C90" s="1" t="s"/>
+      <c r="D90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s"/>
+      <c r="F90" t="s"/>
+      <c r="G90" t="s"/>
+      <c r="H90" t="n">
+        <v>26633.828125</v>
+      </c>
+      <c r="I90" t="n">
+        <v>934338.0625</v>
+      </c>
+      <c r="J90" t="s"/>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="s"/>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="s"/>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C91" s="1" t="s"/>
+      <c r="D91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s"/>
+      <c r="F91" t="s"/>
+      <c r="G91" t="s"/>
+      <c r="H91" t="n">
+        <v>2174.552978515625</v>
+      </c>
+      <c r="I91" t="n">
+        <v>96976.25</v>
+      </c>
+      <c r="J91" t="s"/>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="s"/>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="s"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C92" s="1" t="s"/>
+      <c r="D92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" t="s"/>
+      <c r="F92" t="s"/>
+      <c r="G92" t="s"/>
+      <c r="H92" t="n">
+        <v>81596.921875</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2468455.25</v>
+      </c>
+      <c r="J92" t="s"/>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="s"/>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="s"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="1" t="n">
+        <v>2019202001</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s"/>
+      <c r="D93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s"/>
+      <c r="F93" t="s"/>
+      <c r="G93" t="s"/>
+      <c r="H93" t="n">
+        <v>5115.18408203125</v>
+      </c>
+      <c r="I93" t="n">
+        <v>162021.828125</v>
+      </c>
+      <c r="J93" t="s"/>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="s"/>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="s"/>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s"/>
+      <c r="D94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s"/>
+      <c r="F94" t="s"/>
+      <c r="G94" t="s"/>
+      <c r="H94" t="n">
+        <v>14695.71484375</v>
+      </c>
+      <c r="I94" t="n">
+        <v>630008.375</v>
+      </c>
+      <c r="J94" t="s"/>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="s"/>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="s"/>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C95" s="1" t="s"/>
+      <c r="D95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s"/>
+      <c r="F95" t="s"/>
+      <c r="G95" t="s"/>
+      <c r="H95" t="n">
+        <v>16916.87109375</v>
+      </c>
+      <c r="I95" t="n">
+        <v>460956.90625</v>
+      </c>
+      <c r="J95" t="s"/>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s"/>
+      <c r="M95" t="s"/>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="s"/>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C96" s="1" t="s"/>
+      <c r="D96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s"/>
+      <c r="F96" t="s"/>
+      <c r="G96" t="s"/>
+      <c r="H96" t="n">
+        <v>1225.475952148438</v>
+      </c>
+      <c r="I96" t="n">
+        <v>53692.3671875</v>
+      </c>
+      <c r="J96" t="s"/>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="s"/>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="s"/>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C97" s="1" t="s"/>
+      <c r="D97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" t="s"/>
+      <c r="F97" t="s"/>
+      <c r="G97" t="s"/>
+      <c r="H97" t="n">
+        <v>24210.1328125</v>
+      </c>
+      <c r="I97" t="n">
+        <v>840809.9375</v>
+      </c>
+      <c r="J97" t="s"/>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="s"/>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="s"/>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C98" s="1" t="s"/>
+      <c r="D98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" t="s"/>
+      <c r="F98" t="s"/>
+      <c r="G98" t="s"/>
+      <c r="H98" t="n">
+        <v>1460.93505859375</v>
+      </c>
+      <c r="I98" t="n">
+        <v>94161.609375</v>
+      </c>
+      <c r="J98" t="s"/>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="s"/>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="s"/>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C99" s="1" t="s"/>
+      <c r="D99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" t="s"/>
+      <c r="F99" t="s"/>
+      <c r="G99" t="s"/>
+      <c r="H99" t="n">
+        <v>64083.3125</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2252755</v>
+      </c>
+      <c r="J99" t="s"/>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s"/>
+      <c r="M99" t="s"/>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="s"/>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100" s="1" t="n">
+        <v>2019202002</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1" t="s"/>
+      <c r="D100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s"/>
+      <c r="F100" t="s"/>
+      <c r="G100" t="s"/>
+      <c r="H100" t="n">
+        <v>5532.76806640625</v>
+      </c>
+      <c r="I100" t="n">
+        <v>142190.765625</v>
+      </c>
+      <c r="J100" t="s"/>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="s"/>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="s"/>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1" t="s"/>
+      <c r="D101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s"/>
+      <c r="F101" t="s"/>
+      <c r="G101" t="s"/>
+      <c r="H101" t="n">
+        <v>17207.90234375</v>
+      </c>
+      <c r="I101" t="n">
+        <v>655153</v>
+      </c>
+      <c r="J101" t="s"/>
+      <c r="K101" t="s"/>
+      <c r="L101" t="s"/>
+      <c r="M101" t="s"/>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="s"/>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C102" s="1" t="s"/>
+      <c r="D102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s"/>
+      <c r="F102" t="s"/>
+      <c r="G102" t="s"/>
+      <c r="H102" t="n">
+        <v>17274.64453125</v>
+      </c>
+      <c r="I102" t="n">
+        <v>458195.28125</v>
+      </c>
+      <c r="J102" t="s"/>
+      <c r="K102" t="s"/>
+      <c r="L102" t="s"/>
+      <c r="M102" t="s"/>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="s"/>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C103" s="1" t="s"/>
+      <c r="D103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s"/>
+      <c r="F103" t="s"/>
+      <c r="G103" t="s"/>
+      <c r="H103" t="n">
+        <v>1996.659057617188</v>
+      </c>
+      <c r="I103" t="n">
+        <v>59987.203125</v>
+      </c>
+      <c r="J103" t="s"/>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s"/>
+      <c r="M103" t="s"/>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="s"/>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C104" s="1" t="s"/>
+      <c r="D104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" t="s"/>
+      <c r="F104" t="s"/>
+      <c r="G104" t="s"/>
+      <c r="H104" t="n">
+        <v>23774.03515625</v>
+      </c>
+      <c r="I104" t="n">
+        <v>900849.9375</v>
+      </c>
+      <c r="J104" t="s"/>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s"/>
+      <c r="M104" t="s"/>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="s"/>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C105" s="1" t="s"/>
+      <c r="D105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s"/>
+      <c r="F105" t="s"/>
+      <c r="G105" t="s"/>
+      <c r="H105" t="n">
+        <v>2181.4619140625</v>
+      </c>
+      <c r="I105" t="n">
+        <v>96634.0390625</v>
+      </c>
+      <c r="J105" t="s"/>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="s"/>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="s"/>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C106" s="1" t="s"/>
+      <c r="D106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" t="s"/>
+      <c r="F106" t="s"/>
+      <c r="G106" t="s"/>
+      <c r="H106" t="n">
+        <v>68425.96875</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2324766.25</v>
+      </c>
+      <c r="J106" t="s"/>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s"/>
+      <c r="M106" t="s"/>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="s"/>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1" t="s"/>
+      <c r="D107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s"/>
+      <c r="F107" t="s"/>
+      <c r="G107" t="s"/>
+      <c r="H107" t="n">
+        <v>6030.19482421875</v>
+      </c>
+      <c r="I107" t="n">
+        <v>139014.609375</v>
+      </c>
+      <c r="J107" t="s"/>
+      <c r="K107" t="s"/>
+      <c r="L107" t="s"/>
+      <c r="M107" t="s"/>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="s"/>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1" t="s"/>
+      <c r="D108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" t="s"/>
+      <c r="F108" t="s"/>
+      <c r="G108" t="s"/>
+      <c r="H108" t="n">
+        <v>17351.068359375</v>
+      </c>
+      <c r="I108" t="n">
+        <v>621661.875</v>
+      </c>
+      <c r="J108" t="s"/>
+      <c r="K108" t="s"/>
+      <c r="L108" t="s"/>
+      <c r="M108" t="s"/>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="s"/>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C109" s="1" t="s"/>
+      <c r="D109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s"/>
+      <c r="F109" t="s"/>
+      <c r="G109" t="s"/>
+      <c r="H109" t="n">
+        <v>14868.5166015625</v>
+      </c>
+      <c r="I109" t="n">
+        <v>481039.78125</v>
+      </c>
+      <c r="J109" t="s"/>
+      <c r="K109" t="s"/>
+      <c r="L109" t="s"/>
+      <c r="M109" t="s"/>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="s"/>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C110" s="1" t="s"/>
+      <c r="D110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="s"/>
+      <c r="F110" t="s"/>
+      <c r="G110" t="s"/>
+      <c r="H110" t="n">
+        <v>1722.369018554688</v>
+      </c>
+      <c r="I110" t="n">
+        <v>55559.9765625</v>
+      </c>
+      <c r="J110" t="s"/>
+      <c r="K110" t="s"/>
+      <c r="L110" t="s"/>
+      <c r="M110" t="s"/>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="s"/>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C111" s="1" t="s"/>
+      <c r="D111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" t="s"/>
+      <c r="F111" t="s"/>
+      <c r="G111" t="s"/>
+      <c r="H111" t="n">
+        <v>28080.37109375</v>
+      </c>
+      <c r="I111" t="n">
+        <v>908492.3125</v>
+      </c>
+      <c r="J111" t="s"/>
+      <c r="K111" t="s"/>
+      <c r="L111" t="s"/>
+      <c r="M111" t="s"/>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="s"/>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C112" s="1" t="s"/>
+      <c r="D112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" t="s"/>
+      <c r="F112" t="s"/>
+      <c r="G112" t="s"/>
+      <c r="H112" t="n">
+        <v>2079.01806640625</v>
+      </c>
+      <c r="I112" t="n">
+        <v>96165.4296875</v>
+      </c>
+      <c r="J112" t="s"/>
+      <c r="K112" t="s"/>
+      <c r="L112" t="s"/>
+      <c r="M112" t="s"/>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="s"/>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C113" s="1" t="s"/>
+      <c r="D113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" t="s"/>
+      <c r="F113" t="s"/>
+      <c r="G113" t="s"/>
+      <c r="H113" t="n">
+        <v>70437.5390625</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2309836.25</v>
+      </c>
+      <c r="J113" t="s"/>
+      <c r="K113" t="s"/>
+      <c r="L113" t="s"/>
+      <c r="M113" t="s"/>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="s"/>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s"/>
+      <c r="D114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s"/>
+      <c r="F114" t="s"/>
+      <c r="G114" t="s"/>
+      <c r="H114" t="n">
+        <v>7223.86083984375</v>
+      </c>
+      <c r="I114" t="n">
+        <v>152723.859375</v>
+      </c>
+      <c r="J114" t="s"/>
+      <c r="K114" t="s"/>
+      <c r="L114" t="s"/>
+      <c r="M114" t="s"/>
+      <c r="N114" t="s"/>
+      <c r="O114" t="s"/>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="s"/>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1" t="s"/>
+      <c r="D115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s"/>
+      <c r="F115" t="s"/>
+      <c r="G115" t="s"/>
+      <c r="H115" t="n">
+        <v>18598.763671875</v>
+      </c>
+      <c r="I115" t="n">
+        <v>633689.9375</v>
+      </c>
+      <c r="J115" t="s"/>
+      <c r="K115" t="s"/>
+      <c r="L115" t="s"/>
+      <c r="M115" t="s"/>
+      <c r="N115" t="s"/>
+      <c r="O115" t="s"/>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="s"/>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C116" s="1" t="s"/>
+      <c r="D116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" t="s"/>
+      <c r="F116" t="s"/>
+      <c r="G116" t="s"/>
+      <c r="H116" t="n">
+        <v>16598.8984375</v>
+      </c>
+      <c r="I116" t="n">
+        <v>486919.375</v>
+      </c>
+      <c r="J116" t="s"/>
+      <c r="K116" t="s"/>
+      <c r="L116" t="s"/>
+      <c r="M116" t="s"/>
+      <c r="N116" t="s"/>
+      <c r="O116" t="s"/>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="s"/>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C117" s="1" t="s"/>
+      <c r="D117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s"/>
+      <c r="F117" t="s"/>
+      <c r="G117" t="s"/>
+      <c r="H117" t="n">
+        <v>1625.588012695312</v>
+      </c>
+      <c r="I117" t="n">
+        <v>58410.75390625</v>
+      </c>
+      <c r="J117" t="s"/>
+      <c r="K117" t="s"/>
+      <c r="L117" t="s"/>
+      <c r="M117" t="s"/>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="s"/>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="s"/>
+      <c r="V117" t="s"/>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C118" s="1" t="s"/>
+      <c r="D118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" t="s"/>
+      <c r="F118" t="s"/>
+      <c r="G118" t="s"/>
+      <c r="H118" t="n">
+        <v>27093.5859375</v>
+      </c>
+      <c r="I118" t="n">
+        <v>940037.875</v>
+      </c>
+      <c r="J118" t="s"/>
+      <c r="K118" t="s"/>
+      <c r="L118" t="s"/>
+      <c r="M118" t="s"/>
+      <c r="N118" t="s"/>
+      <c r="O118" t="s"/>
+      <c r="P118" t="s"/>
+      <c r="Q118" t="s"/>
+      <c r="R118" t="s"/>
+      <c r="S118" t="s"/>
+      <c r="T118" t="s"/>
+      <c r="U118" t="s"/>
+      <c r="V118" t="s"/>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C119" s="1" t="s"/>
+      <c r="D119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s"/>
+      <c r="F119" t="s"/>
+      <c r="G119" t="s"/>
+      <c r="H119" t="n">
+        <v>3475.864990234375</v>
+      </c>
+      <c r="I119" t="n">
+        <v>132760.125</v>
+      </c>
+      <c r="J119" t="s"/>
+      <c r="K119" t="s"/>
+      <c r="L119" t="s"/>
+      <c r="M119" t="s"/>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="s"/>
+      <c r="Q119" t="s"/>
+      <c r="R119" t="s"/>
+      <c r="S119" t="s"/>
+      <c r="T119" t="s"/>
+      <c r="U119" t="s"/>
+      <c r="V119" t="s"/>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C120" s="1" t="s"/>
+      <c r="D120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" t="s"/>
+      <c r="F120" t="s"/>
+      <c r="G120" t="s"/>
+      <c r="H120" t="n">
+        <v>75041.5625</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2411547.5</v>
+      </c>
+      <c r="J120" t="s"/>
+      <c r="K120" t="s"/>
+      <c r="L120" t="s"/>
+      <c r="M120" t="s"/>
+      <c r="N120" t="s"/>
+      <c r="O120" t="s"/>
+      <c r="P120" t="s"/>
+      <c r="Q120" t="s"/>
+      <c r="R120" t="s"/>
+      <c r="S120" t="s"/>
+      <c r="T120" t="s"/>
+      <c r="U120" t="s"/>
+      <c r="V120" t="s"/>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s"/>
+      <c r="D121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s"/>
+      <c r="F121" t="s"/>
+      <c r="G121" t="s"/>
+      <c r="H121" t="n">
+        <v>7388.60107421875</v>
+      </c>
+      <c r="I121" t="n">
+        <v>130492.015625</v>
+      </c>
+      <c r="J121" t="s"/>
+      <c r="K121" t="s"/>
+      <c r="L121" t="s"/>
+      <c r="M121" t="s"/>
+      <c r="N121" t="s"/>
+      <c r="O121" t="s"/>
+      <c r="P121" t="s"/>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="s"/>
+      <c r="T121" t="s"/>
+      <c r="U121" t="s"/>
+      <c r="V121" t="s"/>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1" t="s"/>
+      <c r="D122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" t="s"/>
+      <c r="F122" t="s"/>
+      <c r="G122" t="s"/>
+      <c r="H122" t="n">
+        <v>24330.0625</v>
+      </c>
+      <c r="I122" t="n">
+        <v>616340.5</v>
+      </c>
+      <c r="J122" t="s"/>
+      <c r="K122" t="s"/>
+      <c r="L122" t="s"/>
+      <c r="M122" t="s"/>
+      <c r="N122" t="s"/>
+      <c r="O122" t="s"/>
+      <c r="P122" t="s"/>
+      <c r="Q122" t="s"/>
+      <c r="R122" t="s"/>
+      <c r="S122" t="s"/>
+      <c r="T122" t="s"/>
+      <c r="U122" t="s"/>
+      <c r="V122" t="s"/>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C123" s="1" t="s"/>
+      <c r="D123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s"/>
+      <c r="F123" t="s"/>
+      <c r="G123" t="s"/>
+      <c r="H123" t="n">
+        <v>22668.33984375</v>
+      </c>
+      <c r="I123" t="n">
+        <v>455348.03125</v>
+      </c>
+      <c r="J123" t="s"/>
+      <c r="K123" t="s"/>
+      <c r="L123" t="s"/>
+      <c r="M123" t="s"/>
+      <c r="N123" t="s"/>
+      <c r="O123" t="s"/>
+      <c r="P123" t="s"/>
+      <c r="Q123" t="s"/>
+      <c r="R123" t="s"/>
+      <c r="S123" t="s"/>
+      <c r="T123" t="s"/>
+      <c r="U123" t="s"/>
+      <c r="V123" t="s"/>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C124" s="1" t="s"/>
+      <c r="D124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" t="s"/>
+      <c r="F124" t="s"/>
+      <c r="G124" t="s"/>
+      <c r="H124" t="n">
+        <v>1674.829956054688</v>
+      </c>
+      <c r="I124" t="n">
+        <v>55063.25390625</v>
+      </c>
+      <c r="J124" t="s"/>
+      <c r="K124" t="s"/>
+      <c r="L124" t="s"/>
+      <c r="M124" t="s"/>
+      <c r="N124" t="s"/>
+      <c r="O124" t="s"/>
+      <c r="P124" t="s"/>
+      <c r="Q124" t="s"/>
+      <c r="R124" t="s"/>
+      <c r="S124" t="s"/>
+      <c r="T124" t="s"/>
+      <c r="U124" t="s"/>
+      <c r="V124" t="s"/>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C125" s="1" t="s"/>
+      <c r="D125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" t="s"/>
+      <c r="F125" t="s"/>
+      <c r="G125" t="s"/>
+      <c r="H125" t="n">
+        <v>34297.4609375</v>
+      </c>
+      <c r="I125" t="n">
+        <v>863191</v>
+      </c>
+      <c r="J125" t="s"/>
+      <c r="K125" t="s"/>
+      <c r="L125" t="s"/>
+      <c r="M125" t="s"/>
+      <c r="N125" t="s"/>
+      <c r="O125" t="s"/>
+      <c r="P125" t="s"/>
+      <c r="Q125" t="s"/>
+      <c r="R125" t="s"/>
+      <c r="S125" t="s"/>
+      <c r="T125" t="s"/>
+      <c r="U125" t="s"/>
+      <c r="V125" t="s"/>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C126" s="1" t="s"/>
+      <c r="D126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s"/>
+      <c r="F126" t="s"/>
+      <c r="G126" t="s"/>
+      <c r="H126" t="n">
+        <v>7028.14013671875</v>
+      </c>
+      <c r="I126" t="n">
+        <v>135978.84375</v>
+      </c>
+      <c r="J126" t="s"/>
+      <c r="K126" t="s"/>
+      <c r="L126" t="s"/>
+      <c r="M126" t="s"/>
+      <c r="N126" t="s"/>
+      <c r="O126" t="s"/>
+      <c r="P126" t="s"/>
+      <c r="Q126" t="s"/>
+      <c r="R126" t="s"/>
+      <c r="S126" t="s"/>
+      <c r="T126" t="s"/>
+      <c r="U126" t="s"/>
+      <c r="V126" t="s"/>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C127" s="1" t="s"/>
+      <c r="D127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s"/>
+      <c r="F127" t="s"/>
+      <c r="G127" t="s"/>
+      <c r="H127" t="n">
+        <v>97919.9453125</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2267272.25</v>
+      </c>
+      <c r="J127" t="s"/>
+      <c r="K127" t="s"/>
+      <c r="L127" t="s"/>
+      <c r="M127" t="s"/>
+      <c r="N127" t="s"/>
+      <c r="O127" t="s"/>
+      <c r="P127" t="s"/>
+      <c r="Q127" t="s"/>
+      <c r="R127" t="s"/>
+      <c r="S127" t="s"/>
+      <c r="T127" t="s"/>
+      <c r="U127" t="s"/>
+      <c r="V127" t="s"/>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="A121:A127"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -483,7 +4670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,12 +4678,4163 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="n">
+        <v>2018201901</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="n">
+        <v>6161.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>154372.921875</v>
+      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="s"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="n">
+        <v>21521</v>
+      </c>
+      <c r="I3" t="n">
+        <v>679445.0625</v>
+      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="n">
+        <v>17175</v>
+      </c>
+      <c r="I4" t="n">
+        <v>400602.4375</v>
+      </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="n">
+        <v>2568.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>78433.828125</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="s"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="n">
+        <v>34146.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>940600.5625</v>
+      </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="s"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="n">
+        <v>2088</v>
+      </c>
+      <c r="I7" t="n">
+        <v>89638.578125</v>
+      </c>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="s"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C8" s="1" t="s"/>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="n">
+        <v>84265.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2346576.5</v>
+      </c>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="s"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="n">
+        <v>2018201902</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="n">
+        <v>7105</v>
+      </c>
+      <c r="I9" t="n">
+        <v>174321.203125</v>
+      </c>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="s"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="n">
+        <v>19823.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>681201.4375</v>
+      </c>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="s"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="n">
+        <v>17686</v>
+      </c>
+      <c r="I11" t="n">
+        <v>416378.53125</v>
+      </c>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="s"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="n">
+        <v>2096</v>
+      </c>
+      <c r="I12" t="n">
+        <v>76520.640625</v>
+      </c>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="s"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="n">
+        <v>32796.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>938742.6875</v>
+      </c>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="s"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="n">
+        <v>1926.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>90237.8359375</v>
+      </c>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="s"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
+      <c r="H15" t="n">
+        <v>81512.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2378403.5</v>
+      </c>
+      <c r="J15" t="s"/>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="s"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="n">
+        <v>2018201903</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s"/>
+      <c r="H16" t="n">
+        <v>7016</v>
+      </c>
+      <c r="I16" t="n">
+        <v>168166.90625</v>
+      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
+      <c r="H17" t="n">
+        <v>22095.865234375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>674842.375</v>
+      </c>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="s"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="n">
+        <v>20327.1484375</v>
+      </c>
+      <c r="I18" t="n">
+        <v>402526.125</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="s"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
+      <c r="H19" t="n">
+        <v>2160.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>58088.03125</v>
+      </c>
+      <c r="J19" t="s"/>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="s"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s"/>
+      <c r="G20" t="s"/>
+      <c r="H20" t="n">
+        <v>32687.625</v>
+      </c>
+      <c r="I20" t="n">
+        <v>889398.5625</v>
+      </c>
+      <c r="J20" t="s"/>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="s"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s"/>
+      <c r="F21" t="s"/>
+      <c r="G21" t="s"/>
+      <c r="H21" t="n">
+        <v>2639.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>95119.765625</v>
+      </c>
+      <c r="J21" t="s"/>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="s"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s"/>
+      <c r="G22" t="s"/>
+      <c r="H22" t="n">
+        <v>87201.640625</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2290444.5</v>
+      </c>
+      <c r="J22" t="s"/>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="s"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="n">
+        <v>2018201904</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s"/>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
+      <c r="G23" t="s"/>
+      <c r="H23" t="n">
+        <v>7854.56689453125</v>
+      </c>
+      <c r="I23" t="n">
+        <v>150260.3125</v>
+      </c>
+      <c r="J23" t="s"/>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="s"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s"/>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s"/>
+      <c r="F24" t="s"/>
+      <c r="G24" t="s"/>
+      <c r="H24" t="n">
+        <v>30022.83984375</v>
+      </c>
+      <c r="I24" t="n">
+        <v>701971.875</v>
+      </c>
+      <c r="J24" t="s"/>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="s"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s"/>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s"/>
+      <c r="F25" t="s"/>
+      <c r="G25" t="s"/>
+      <c r="H25" t="n">
+        <v>22544.7109375</v>
+      </c>
+      <c r="I25" t="n">
+        <v>427442.375</v>
+      </c>
+      <c r="J25" t="s"/>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="s"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s"/>
+      <c r="F26" t="s"/>
+      <c r="G26" t="s"/>
+      <c r="H26" t="n">
+        <v>2905.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>70121.7421875</v>
+      </c>
+      <c r="J26" t="s"/>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="s"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s"/>
+      <c r="F27" t="s"/>
+      <c r="G27" t="s"/>
+      <c r="H27" t="n">
+        <v>36832.046875</v>
+      </c>
+      <c r="I27" t="n">
+        <v>903191.125</v>
+      </c>
+      <c r="J27" t="s"/>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="s"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s"/>
+      <c r="F28" t="s"/>
+      <c r="G28" t="s"/>
+      <c r="H28" t="n">
+        <v>3399.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>97447.1171875</v>
+      </c>
+      <c r="J28" t="s"/>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="s"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s"/>
+      <c r="F29" t="s"/>
+      <c r="G29" t="s"/>
+      <c r="H29" t="n">
+        <v>103683.1640625</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2354051</v>
+      </c>
+      <c r="J29" t="s"/>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="s"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1" t="n">
+        <v>2018201905</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s"/>
+      <c r="F30" t="s"/>
+      <c r="G30" t="s"/>
+      <c r="H30" t="n">
+        <v>6239</v>
+      </c>
+      <c r="I30" t="n">
+        <v>147110.28125</v>
+      </c>
+      <c r="J30" t="s"/>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="s"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s"/>
+      <c r="F31" t="s"/>
+      <c r="G31" t="s"/>
+      <c r="H31" t="n">
+        <v>32101.33984375</v>
+      </c>
+      <c r="I31" t="n">
+        <v>688156.25</v>
+      </c>
+      <c r="J31" t="s"/>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="s"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s"/>
+      <c r="F32" t="s"/>
+      <c r="G32" t="s"/>
+      <c r="H32" t="n">
+        <v>22808</v>
+      </c>
+      <c r="I32" t="n">
+        <v>431512.53125</v>
+      </c>
+      <c r="J32" t="s"/>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="s"/>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="s"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s"/>
+      <c r="F33" t="s"/>
+      <c r="G33" t="s"/>
+      <c r="H33" t="n">
+        <v>1598.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>67051.984375</v>
+      </c>
+      <c r="J33" t="s"/>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="s"/>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="s"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s"/>
+      <c r="F34" t="s"/>
+      <c r="G34" t="s"/>
+      <c r="H34" t="n">
+        <v>32199.1015625</v>
+      </c>
+      <c r="I34" t="n">
+        <v>847716.6875</v>
+      </c>
+      <c r="J34" t="s"/>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="s"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s"/>
+      <c r="F35" t="s"/>
+      <c r="G35" t="s"/>
+      <c r="H35" t="n">
+        <v>1662.984985351562</v>
+      </c>
+      <c r="I35" t="n">
+        <v>93476.078125</v>
+      </c>
+      <c r="J35" t="s"/>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="s"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C36" s="1" t="s"/>
+      <c r="D36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s"/>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s"/>
+      <c r="H36" t="n">
+        <v>96847.9296875</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2277824</v>
+      </c>
+      <c r="J36" t="s"/>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="s"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="1" t="n">
+        <v>2018201906</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s"/>
+      <c r="F37" t="s"/>
+      <c r="G37" t="s"/>
+      <c r="H37" t="n">
+        <v>4983.31005859375</v>
+      </c>
+      <c r="I37" t="n">
+        <v>164134.546875</v>
+      </c>
+      <c r="J37" t="s"/>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="s"/>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="s"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s"/>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s"/>
+      <c r="F38" t="s"/>
+      <c r="G38" t="s"/>
+      <c r="H38" t="n">
+        <v>20084.267578125</v>
+      </c>
+      <c r="I38" t="n">
+        <v>650669.3125</v>
+      </c>
+      <c r="J38" t="s"/>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="s"/>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="s"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="s"/>
+      <c r="D39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s"/>
+      <c r="F39" t="s"/>
+      <c r="G39" t="s"/>
+      <c r="H39" t="n">
+        <v>19055.80078125</v>
+      </c>
+      <c r="I39" t="n">
+        <v>467116.25</v>
+      </c>
+      <c r="J39" t="s"/>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="s"/>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="s"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s"/>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s"/>
+      <c r="F40" t="s"/>
+      <c r="G40" t="s"/>
+      <c r="H40" t="n">
+        <v>2635.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>72434.046875</v>
+      </c>
+      <c r="J40" t="s"/>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="s"/>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="s"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s"/>
+      <c r="D41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s"/>
+      <c r="H41" t="n">
+        <v>26271.400390625</v>
+      </c>
+      <c r="I41" t="n">
+        <v>881453.5</v>
+      </c>
+      <c r="J41" t="s"/>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="s"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s"/>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s"/>
+      <c r="F42" t="s"/>
+      <c r="G42" t="s"/>
+      <c r="H42" t="n">
+        <v>1334</v>
+      </c>
+      <c r="I42" t="n">
+        <v>96437.6875</v>
+      </c>
+      <c r="J42" t="s"/>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="s"/>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="s"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C43" s="1" t="s"/>
+      <c r="D43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s"/>
+      <c r="G43" t="s"/>
+      <c r="H43" t="n">
+        <v>74777.78125</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2338246.75</v>
+      </c>
+      <c r="J43" t="s"/>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="s"/>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="s"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="1" t="n">
+        <v>2018201907</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s"/>
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s"/>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s"/>
+      <c r="H44" t="n">
+        <v>8036.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>156371.453125</v>
+      </c>
+      <c r="J44" t="s"/>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="s"/>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="s"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s"/>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s"/>
+      <c r="F45" t="s"/>
+      <c r="G45" t="s"/>
+      <c r="H45" t="n">
+        <v>31406.876953125</v>
+      </c>
+      <c r="I45" t="n">
+        <v>669377.375</v>
+      </c>
+      <c r="J45" t="s"/>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="s"/>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="s"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s"/>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s"/>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s"/>
+      <c r="H46" t="n">
+        <v>36561.9921875</v>
+      </c>
+      <c r="I46" t="n">
+        <v>511708.28125</v>
+      </c>
+      <c r="J46" t="s"/>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="s"/>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="s"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s"/>
+      <c r="D47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s"/>
+      <c r="F47" t="s"/>
+      <c r="G47" t="s"/>
+      <c r="H47" t="n">
+        <v>2788.35595703125</v>
+      </c>
+      <c r="I47" t="n">
+        <v>64237.8984375</v>
+      </c>
+      <c r="J47" t="s"/>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="s"/>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="s"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C48" s="1" t="s"/>
+      <c r="D48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s"/>
+      <c r="F48" t="s"/>
+      <c r="G48" t="s"/>
+      <c r="H48" t="n">
+        <v>38255.88671875</v>
+      </c>
+      <c r="I48" t="n">
+        <v>915260.0625</v>
+      </c>
+      <c r="J48" t="s"/>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="s"/>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="s"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C49" s="1" t="s"/>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s"/>
+      <c r="F49" t="s"/>
+      <c r="G49" t="s"/>
+      <c r="H49" t="n">
+        <v>6288</v>
+      </c>
+      <c r="I49" t="n">
+        <v>98271.03125</v>
+      </c>
+      <c r="J49" t="s"/>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="s"/>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="s"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C50" s="1" t="s"/>
+      <c r="D50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s"/>
+      <c r="F50" t="s"/>
+      <c r="G50" t="s"/>
+      <c r="H50" t="n">
+        <v>123846.109375</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2422237</v>
+      </c>
+      <c r="J50" t="s"/>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="s"/>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="s"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="1" t="n">
+        <v>2018201908</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s"/>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s"/>
+      <c r="F51" t="s"/>
+      <c r="G51" t="s"/>
+      <c r="H51" t="n">
+        <v>8600.728515625</v>
+      </c>
+      <c r="I51" t="n">
+        <v>157653.25</v>
+      </c>
+      <c r="J51" t="s"/>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="s"/>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="s"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s"/>
+      <c r="D52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s"/>
+      <c r="F52" t="s"/>
+      <c r="G52" t="s"/>
+      <c r="H52" t="n">
+        <v>27178.705078125</v>
+      </c>
+      <c r="I52" t="n">
+        <v>673084.125</v>
+      </c>
+      <c r="J52" t="s"/>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="s"/>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="s"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="s"/>
+      <c r="D53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s"/>
+      <c r="F53" t="s"/>
+      <c r="G53" t="s"/>
+      <c r="H53" t="n">
+        <v>26563.646484375</v>
+      </c>
+      <c r="I53" t="n">
+        <v>521973.59375</v>
+      </c>
+      <c r="J53" t="s"/>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="s"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C54" s="1" t="s"/>
+      <c r="D54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s"/>
+      <c r="F54" t="s"/>
+      <c r="G54" t="s"/>
+      <c r="H54" t="n">
+        <v>1652</v>
+      </c>
+      <c r="I54" t="n">
+        <v>70021.1875</v>
+      </c>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="s"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1" t="s"/>
+      <c r="D55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s"/>
+      <c r="F55" t="s"/>
+      <c r="G55" t="s"/>
+      <c r="H55" t="n">
+        <v>33008.4375</v>
+      </c>
+      <c r="I55" t="n">
+        <v>922584.625</v>
+      </c>
+      <c r="J55" t="s"/>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="s"/>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="s"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C56" s="1" t="s"/>
+      <c r="D56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s"/>
+      <c r="F56" t="s"/>
+      <c r="G56" t="s"/>
+      <c r="H56" t="n">
+        <v>2706</v>
+      </c>
+      <c r="I56" t="n">
+        <v>101066.03125</v>
+      </c>
+      <c r="J56" t="s"/>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="s"/>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="s"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C57" s="1" t="s"/>
+      <c r="D57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s"/>
+      <c r="F57" t="s"/>
+      <c r="G57" t="s"/>
+      <c r="H57" t="n">
+        <v>100130.015625</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2452644.25</v>
+      </c>
+      <c r="J57" t="s"/>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="s"/>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="s"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="1" t="n">
+        <v>2018201909</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s"/>
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s"/>
+      <c r="F58" t="s"/>
+      <c r="G58" t="s"/>
+      <c r="H58" t="n">
+        <v>10638.615234375</v>
+      </c>
+      <c r="I58" t="n">
+        <v>170710.859375</v>
+      </c>
+      <c r="J58" t="s"/>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="s"/>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="s"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s"/>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s"/>
+      <c r="F59" t="s"/>
+      <c r="G59" t="s"/>
+      <c r="H59" t="n">
+        <v>29624.77734375</v>
+      </c>
+      <c r="I59" t="n">
+        <v>691620.1875</v>
+      </c>
+      <c r="J59" t="s"/>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="s"/>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="s"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C60" s="1" t="s"/>
+      <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s"/>
+      <c r="F60" t="s"/>
+      <c r="G60" t="s"/>
+      <c r="H60" t="n">
+        <v>30313.3125</v>
+      </c>
+      <c r="I60" t="n">
+        <v>545473.625</v>
+      </c>
+      <c r="J60" t="s"/>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="s"/>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="s"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1" t="s"/>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s"/>
+      <c r="F61" t="s"/>
+      <c r="G61" t="s"/>
+      <c r="H61" t="n">
+        <v>2048.742919921875</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67336.7265625</v>
+      </c>
+      <c r="J61" t="s"/>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="s"/>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="s"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C62" s="1" t="s"/>
+      <c r="D62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s"/>
+      <c r="F62" t="s"/>
+      <c r="G62" t="s"/>
+      <c r="H62" t="n">
+        <v>38108.27734375</v>
+      </c>
+      <c r="I62" t="n">
+        <v>918397.125</v>
+      </c>
+      <c r="J62" t="s"/>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="s"/>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="s"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C63" s="1" t="s"/>
+      <c r="D63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s"/>
+      <c r="F63" t="s"/>
+      <c r="G63" t="s"/>
+      <c r="H63" t="n">
+        <v>2044.5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>99163.03125</v>
+      </c>
+      <c r="J63" t="s"/>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="s"/>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="s"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C64" s="1" t="s"/>
+      <c r="D64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s"/>
+      <c r="F64" t="s"/>
+      <c r="G64" t="s"/>
+      <c r="H64" t="n">
+        <v>113181.2265625</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2498346.5</v>
+      </c>
+      <c r="J64" t="s"/>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="s"/>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="s"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="1" t="n">
+        <v>2018201910</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s"/>
+      <c r="D65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s"/>
+      <c r="F65" t="s"/>
+      <c r="G65" t="s"/>
+      <c r="H65" t="n">
+        <v>4991.23486328125</v>
+      </c>
+      <c r="I65" t="n">
+        <v>121887.8359375</v>
+      </c>
+      <c r="J65" t="s"/>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="s"/>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="s"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s"/>
+      <c r="D66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s"/>
+      <c r="F66" t="s"/>
+      <c r="G66" t="s"/>
+      <c r="H66" t="n">
+        <v>15970.0927734375</v>
+      </c>
+      <c r="I66" t="n">
+        <v>490617.78125</v>
+      </c>
+      <c r="J66" t="s"/>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="s"/>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="s"/>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C67" s="1" t="s"/>
+      <c r="D67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s"/>
+      <c r="F67" t="s"/>
+      <c r="G67" t="s"/>
+      <c r="H67" t="n">
+        <v>14414.4267578125</v>
+      </c>
+      <c r="I67" t="n">
+        <v>395447.9375</v>
+      </c>
+      <c r="J67" t="s"/>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="s"/>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="s"/>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s"/>
+      <c r="D68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s"/>
+      <c r="F68" t="s"/>
+      <c r="G68" t="s"/>
+      <c r="H68" t="n">
+        <v>1080</v>
+      </c>
+      <c r="I68" t="n">
+        <v>37879.32421875</v>
+      </c>
+      <c r="J68" t="s"/>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="s"/>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="s"/>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C69" s="1" t="s"/>
+      <c r="D69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s"/>
+      <c r="F69" t="s"/>
+      <c r="G69" t="s"/>
+      <c r="H69" t="n">
+        <v>18374.69140625</v>
+      </c>
+      <c r="I69" t="n">
+        <v>619490.625</v>
+      </c>
+      <c r="J69" t="s"/>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="s"/>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="s"/>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C70" s="1" t="s"/>
+      <c r="D70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" t="s"/>
+      <c r="F70" t="s"/>
+      <c r="G70" t="s"/>
+      <c r="H70" t="n">
+        <v>1836</v>
+      </c>
+      <c r="I70" t="n">
+        <v>79598.296875</v>
+      </c>
+      <c r="J70" t="s"/>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="s"/>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="s"/>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C71" s="1" t="s"/>
+      <c r="D71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="s"/>
+      <c r="F71" t="s"/>
+      <c r="G71" t="s"/>
+      <c r="H71" t="n">
+        <v>57235.9453125</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1748575.875</v>
+      </c>
+      <c r="J71" t="s"/>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="s"/>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="s"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="1" t="n">
+        <v>2018201911</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s"/>
+      <c r="D72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s"/>
+      <c r="F72" t="s"/>
+      <c r="G72" t="s"/>
+      <c r="H72" t="n">
+        <v>6751.52685546875</v>
+      </c>
+      <c r="I72" t="n">
+        <v>148711</v>
+      </c>
+      <c r="J72" t="s"/>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="s"/>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="s"/>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s"/>
+      <c r="D73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="s"/>
+      <c r="F73" t="s"/>
+      <c r="G73" t="s"/>
+      <c r="H73" t="n">
+        <v>21365.177734375</v>
+      </c>
+      <c r="I73" t="n">
+        <v>697855.5625</v>
+      </c>
+      <c r="J73" t="s"/>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="s"/>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="s"/>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C74" s="1" t="s"/>
+      <c r="D74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s"/>
+      <c r="F74" t="s"/>
+      <c r="G74" t="s"/>
+      <c r="H74" t="n">
+        <v>22995.638671875</v>
+      </c>
+      <c r="I74" t="n">
+        <v>536046.625</v>
+      </c>
+      <c r="J74" t="s"/>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="s"/>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="s"/>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C75" s="1" t="s"/>
+      <c r="D75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s"/>
+      <c r="F75" t="s"/>
+      <c r="G75" t="s"/>
+      <c r="H75" t="n">
+        <v>2098.16796875</v>
+      </c>
+      <c r="I75" t="n">
+        <v>59356.30859375</v>
+      </c>
+      <c r="J75" t="s"/>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="s"/>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="s"/>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C76" s="1" t="s"/>
+      <c r="D76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s"/>
+      <c r="F76" t="s"/>
+      <c r="G76" t="s"/>
+      <c r="H76" t="n">
+        <v>26526.3515625</v>
+      </c>
+      <c r="I76" t="n">
+        <v>887542.6875</v>
+      </c>
+      <c r="J76" t="s"/>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="s"/>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="s"/>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C77" s="1" t="s"/>
+      <c r="D77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s"/>
+      <c r="F77" t="s"/>
+      <c r="G77" t="s"/>
+      <c r="H77" t="n">
+        <v>1159.5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>92173.34375</v>
+      </c>
+      <c r="J77" t="s"/>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="s"/>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="s"/>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C78" s="1" t="s"/>
+      <c r="D78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" t="s"/>
+      <c r="F78" t="s"/>
+      <c r="G78" t="s"/>
+      <c r="H78" t="n">
+        <v>81450.359375</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2427065.5</v>
+      </c>
+      <c r="J78" t="s"/>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="s"/>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="s"/>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="1" t="n">
+        <v>2018201912</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s"/>
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s"/>
+      <c r="F79" t="s"/>
+      <c r="G79" t="s"/>
+      <c r="H79" t="n">
+        <v>6550.51806640625</v>
+      </c>
+      <c r="I79" t="n">
+        <v>159054</v>
+      </c>
+      <c r="J79" t="s"/>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="s"/>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="s"/>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s"/>
+      <c r="D80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s"/>
+      <c r="F80" t="s"/>
+      <c r="G80" t="s"/>
+      <c r="H80" t="n">
+        <v>22171.69140625</v>
+      </c>
+      <c r="I80" t="n">
+        <v>671509.6875</v>
+      </c>
+      <c r="J80" t="s"/>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="s"/>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="s"/>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C81" s="1" t="s"/>
+      <c r="D81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s"/>
+      <c r="F81" t="s"/>
+      <c r="G81" t="s"/>
+      <c r="H81" t="n">
+        <v>18419.33203125</v>
+      </c>
+      <c r="I81" t="n">
+        <v>487400.21875</v>
+      </c>
+      <c r="J81" t="s"/>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="s"/>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="s"/>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C82" s="1" t="s"/>
+      <c r="D82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s"/>
+      <c r="F82" t="s"/>
+      <c r="G82" t="s"/>
+      <c r="H82" t="n">
+        <v>2764.97509765625</v>
+      </c>
+      <c r="I82" t="n">
+        <v>66095.578125</v>
+      </c>
+      <c r="J82" t="s"/>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="s"/>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="s"/>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C83" s="1" t="s"/>
+      <c r="D83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s"/>
+      <c r="F83" t="s"/>
+      <c r="G83" t="s"/>
+      <c r="H83" t="n">
+        <v>27704.6171875</v>
+      </c>
+      <c r="I83" t="n">
+        <v>933824.1875</v>
+      </c>
+      <c r="J83" t="s"/>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="s"/>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="s"/>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s"/>
+      <c r="D84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" t="s"/>
+      <c r="F84" t="s"/>
+      <c r="G84" t="s"/>
+      <c r="H84" t="n">
+        <v>3354.73388671875</v>
+      </c>
+      <c r="I84" t="n">
+        <v>90720.0234375</v>
+      </c>
+      <c r="J84" t="s"/>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="s"/>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="s"/>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C85" s="1" t="s"/>
+      <c r="D85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s"/>
+      <c r="F85" t="s"/>
+      <c r="G85" t="s"/>
+      <c r="H85" t="n">
+        <v>81457.8671875</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2414136.75</v>
+      </c>
+      <c r="J85" t="s"/>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="s"/>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="s"/>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="1" t="n">
+        <v>2018201913</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1" t="s"/>
+      <c r="D86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s"/>
+      <c r="F86" t="s"/>
+      <c r="G86" t="s"/>
+      <c r="H86" t="n">
+        <v>6839.091796875</v>
+      </c>
+      <c r="I86" t="n">
+        <v>160475.9375</v>
+      </c>
+      <c r="J86" t="s"/>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="s"/>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="s"/>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s"/>
+      <c r="D87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s"/>
+      <c r="F87" t="s"/>
+      <c r="G87" t="s"/>
+      <c r="H87" t="n">
+        <v>22347.048828125</v>
+      </c>
+      <c r="I87" t="n">
+        <v>684748.0625</v>
+      </c>
+      <c r="J87" t="s"/>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="s"/>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="s"/>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C88" s="1" t="s"/>
+      <c r="D88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s"/>
+      <c r="F88" t="s"/>
+      <c r="G88" t="s"/>
+      <c r="H88" t="n">
+        <v>21455.171875</v>
+      </c>
+      <c r="I88" t="n">
+        <v>521325.96875</v>
+      </c>
+      <c r="J88" t="s"/>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="s"/>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="s"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C89" s="1" t="s"/>
+      <c r="D89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s"/>
+      <c r="F89" t="s"/>
+      <c r="G89" t="s"/>
+      <c r="H89" t="n">
+        <v>1592</v>
+      </c>
+      <c r="I89" t="n">
+        <v>59615.91015625</v>
+      </c>
+      <c r="J89" t="s"/>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="s"/>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="s"/>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C90" s="1" t="s"/>
+      <c r="D90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s"/>
+      <c r="F90" t="s"/>
+      <c r="G90" t="s"/>
+      <c r="H90" t="n">
+        <v>26688.134765625</v>
+      </c>
+      <c r="I90" t="n">
+        <v>934338.0625</v>
+      </c>
+      <c r="J90" t="s"/>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="s"/>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="s"/>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C91" s="1" t="s"/>
+      <c r="D91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s"/>
+      <c r="F91" t="s"/>
+      <c r="G91" t="s"/>
+      <c r="H91" t="n">
+        <v>2173.2958984375</v>
+      </c>
+      <c r="I91" t="n">
+        <v>96976.25</v>
+      </c>
+      <c r="J91" t="s"/>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="s"/>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="s"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C92" s="1" t="s"/>
+      <c r="D92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" t="s"/>
+      <c r="F92" t="s"/>
+      <c r="G92" t="s"/>
+      <c r="H92" t="n">
+        <v>81648.7421875</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2468455.25</v>
+      </c>
+      <c r="J92" t="s"/>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="s"/>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="s"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="1" t="n">
+        <v>2019202001</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s"/>
+      <c r="D93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s"/>
+      <c r="F93" t="s"/>
+      <c r="G93" t="s"/>
+      <c r="H93" t="n">
+        <v>5115.0849609375</v>
+      </c>
+      <c r="I93" t="n">
+        <v>162021.828125</v>
+      </c>
+      <c r="J93" t="s"/>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="s"/>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="s"/>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s"/>
+      <c r="D94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s"/>
+      <c r="F94" t="s"/>
+      <c r="G94" t="s"/>
+      <c r="H94" t="n">
+        <v>14684.859375</v>
+      </c>
+      <c r="I94" t="n">
+        <v>630008.375</v>
+      </c>
+      <c r="J94" t="s"/>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="s"/>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="s"/>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C95" s="1" t="s"/>
+      <c r="D95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s"/>
+      <c r="F95" t="s"/>
+      <c r="G95" t="s"/>
+      <c r="H95" t="n">
+        <v>16902.26953125</v>
+      </c>
+      <c r="I95" t="n">
+        <v>459627.34375</v>
+      </c>
+      <c r="J95" t="s"/>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s"/>
+      <c r="M95" t="s"/>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="s"/>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C96" s="1" t="s"/>
+      <c r="D96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s"/>
+      <c r="F96" t="s"/>
+      <c r="G96" t="s"/>
+      <c r="H96" t="n">
+        <v>1225.475952148438</v>
+      </c>
+      <c r="I96" t="n">
+        <v>53692.3671875</v>
+      </c>
+      <c r="J96" t="s"/>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="s"/>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="s"/>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C97" s="1" t="s"/>
+      <c r="D97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" t="s"/>
+      <c r="F97" t="s"/>
+      <c r="G97" t="s"/>
+      <c r="H97" t="n">
+        <v>24272.455078125</v>
+      </c>
+      <c r="I97" t="n">
+        <v>840809.9375</v>
+      </c>
+      <c r="J97" t="s"/>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="s"/>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="s"/>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C98" s="1" t="s"/>
+      <c r="D98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" t="s"/>
+      <c r="F98" t="s"/>
+      <c r="G98" t="s"/>
+      <c r="H98" t="n">
+        <v>1460.93505859375</v>
+      </c>
+      <c r="I98" t="n">
+        <v>94161.609375</v>
+      </c>
+      <c r="J98" t="s"/>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="s"/>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="s"/>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C99" s="1" t="s"/>
+      <c r="D99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" t="s"/>
+      <c r="F99" t="s"/>
+      <c r="G99" t="s"/>
+      <c r="H99" t="n">
+        <v>64120.078125</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2251425.25</v>
+      </c>
+      <c r="J99" t="s"/>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s"/>
+      <c r="M99" t="s"/>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="s"/>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100" s="1" t="n">
+        <v>2019202002</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1" t="s"/>
+      <c r="D100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s"/>
+      <c r="F100" t="s"/>
+      <c r="G100" t="s"/>
+      <c r="H100" t="n">
+        <v>5585.76806640625</v>
+      </c>
+      <c r="I100" t="n">
+        <v>142190.765625</v>
+      </c>
+      <c r="J100" t="s"/>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="s"/>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="s"/>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1" t="s"/>
+      <c r="D101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s"/>
+      <c r="F101" t="s"/>
+      <c r="G101" t="s"/>
+      <c r="H101" t="n">
+        <v>17135.0234375</v>
+      </c>
+      <c r="I101" t="n">
+        <v>655153</v>
+      </c>
+      <c r="J101" t="s"/>
+      <c r="K101" t="s"/>
+      <c r="L101" t="s"/>
+      <c r="M101" t="s"/>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="s"/>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C102" s="1" t="s"/>
+      <c r="D102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s"/>
+      <c r="F102" t="s"/>
+      <c r="G102" t="s"/>
+      <c r="H102" t="n">
+        <v>17287.5234375</v>
+      </c>
+      <c r="I102" t="n">
+        <v>456724.625</v>
+      </c>
+      <c r="J102" t="s"/>
+      <c r="K102" t="s"/>
+      <c r="L102" t="s"/>
+      <c r="M102" t="s"/>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="s"/>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C103" s="1" t="s"/>
+      <c r="D103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s"/>
+      <c r="F103" t="s"/>
+      <c r="G103" t="s"/>
+      <c r="H103" t="n">
+        <v>1996.659057617188</v>
+      </c>
+      <c r="I103" t="n">
+        <v>59987.203125</v>
+      </c>
+      <c r="J103" t="s"/>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s"/>
+      <c r="M103" t="s"/>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="s"/>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C104" s="1" t="s"/>
+      <c r="D104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" t="s"/>
+      <c r="F104" t="s"/>
+      <c r="G104" t="s"/>
+      <c r="H104" t="n">
+        <v>23819.40625</v>
+      </c>
+      <c r="I104" t="n">
+        <v>900849.9375</v>
+      </c>
+      <c r="J104" t="s"/>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s"/>
+      <c r="M104" t="s"/>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="s"/>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C105" s="1" t="s"/>
+      <c r="D105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s"/>
+      <c r="F105" t="s"/>
+      <c r="G105" t="s"/>
+      <c r="H105" t="n">
+        <v>2180.302001953125</v>
+      </c>
+      <c r="I105" t="n">
+        <v>96634.0390625</v>
+      </c>
+      <c r="J105" t="s"/>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="s"/>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="s"/>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C106" s="1" t="s"/>
+      <c r="D106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" t="s"/>
+      <c r="F106" t="s"/>
+      <c r="G106" t="s"/>
+      <c r="H106" t="n">
+        <v>68463.1796875</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2323295.5</v>
+      </c>
+      <c r="J106" t="s"/>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s"/>
+      <c r="M106" t="s"/>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="s"/>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1" t="s"/>
+      <c r="D107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s"/>
+      <c r="F107" t="s"/>
+      <c r="G107" t="s"/>
+      <c r="H107" t="n">
+        <v>6064.2109375</v>
+      </c>
+      <c r="I107" t="n">
+        <v>139014.609375</v>
+      </c>
+      <c r="J107" t="s"/>
+      <c r="K107" t="s"/>
+      <c r="L107" t="s"/>
+      <c r="M107" t="s"/>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="s"/>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1" t="s"/>
+      <c r="D108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" t="s"/>
+      <c r="F108" t="s"/>
+      <c r="G108" t="s"/>
+      <c r="H108" t="n">
+        <v>17369.44921875</v>
+      </c>
+      <c r="I108" t="n">
+        <v>621661.875</v>
+      </c>
+      <c r="J108" t="s"/>
+      <c r="K108" t="s"/>
+      <c r="L108" t="s"/>
+      <c r="M108" t="s"/>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="s"/>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C109" s="1" t="s"/>
+      <c r="D109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s"/>
+      <c r="F109" t="s"/>
+      <c r="G109" t="s"/>
+      <c r="H109" t="n">
+        <v>14922.181640625</v>
+      </c>
+      <c r="I109" t="n">
+        <v>479572.0625</v>
+      </c>
+      <c r="J109" t="s"/>
+      <c r="K109" t="s"/>
+      <c r="L109" t="s"/>
+      <c r="M109" t="s"/>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="s"/>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C110" s="1" t="s"/>
+      <c r="D110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="s"/>
+      <c r="F110" t="s"/>
+      <c r="G110" t="s"/>
+      <c r="H110" t="n">
+        <v>1722.369018554688</v>
+      </c>
+      <c r="I110" t="n">
+        <v>55559.9765625</v>
+      </c>
+      <c r="J110" t="s"/>
+      <c r="K110" t="s"/>
+      <c r="L110" t="s"/>
+      <c r="M110" t="s"/>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="s"/>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C111" s="1" t="s"/>
+      <c r="D111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" t="s"/>
+      <c r="F111" t="s"/>
+      <c r="G111" t="s"/>
+      <c r="H111" t="n">
+        <v>28144.59765625</v>
+      </c>
+      <c r="I111" t="n">
+        <v>908492.3125</v>
+      </c>
+      <c r="J111" t="s"/>
+      <c r="K111" t="s"/>
+      <c r="L111" t="s"/>
+      <c r="M111" t="s"/>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="s"/>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C112" s="1" t="s"/>
+      <c r="D112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" t="s"/>
+      <c r="F112" t="s"/>
+      <c r="G112" t="s"/>
+      <c r="H112" t="n">
+        <v>2098.39306640625</v>
+      </c>
+      <c r="I112" t="n">
+        <v>96165.4296875</v>
+      </c>
+      <c r="J112" t="s"/>
+      <c r="K112" t="s"/>
+      <c r="L112" t="s"/>
+      <c r="M112" t="s"/>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="s"/>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C113" s="1" t="s"/>
+      <c r="D113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" t="s"/>
+      <c r="F113" t="s"/>
+      <c r="G113" t="s"/>
+      <c r="H113" t="n">
+        <v>70627.203125</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2308368.5</v>
+      </c>
+      <c r="J113" t="s"/>
+      <c r="K113" t="s"/>
+      <c r="L113" t="s"/>
+      <c r="M113" t="s"/>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="s"/>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s"/>
+      <c r="D114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s"/>
+      <c r="F114" t="s"/>
+      <c r="G114" t="s"/>
+      <c r="H114" t="n">
+        <v>7391.89892578125</v>
+      </c>
+      <c r="I114" t="n">
+        <v>152723.859375</v>
+      </c>
+      <c r="J114" t="s"/>
+      <c r="K114" t="s"/>
+      <c r="L114" t="s"/>
+      <c r="M114" t="s"/>
+      <c r="N114" t="s"/>
+      <c r="O114" t="s"/>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="s"/>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1" t="s"/>
+      <c r="D115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s"/>
+      <c r="F115" t="s"/>
+      <c r="G115" t="s"/>
+      <c r="H115" t="n">
+        <v>18602.90234375</v>
+      </c>
+      <c r="I115" t="n">
+        <v>633689.9375</v>
+      </c>
+      <c r="J115" t="s"/>
+      <c r="K115" t="s"/>
+      <c r="L115" t="s"/>
+      <c r="M115" t="s"/>
+      <c r="N115" t="s"/>
+      <c r="O115" t="s"/>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="s"/>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C116" s="1" t="s"/>
+      <c r="D116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" t="s"/>
+      <c r="F116" t="s"/>
+      <c r="G116" t="s"/>
+      <c r="H116" t="n">
+        <v>16722.365234375</v>
+      </c>
+      <c r="I116" t="n">
+        <v>484801.875</v>
+      </c>
+      <c r="J116" t="s"/>
+      <c r="K116" t="s"/>
+      <c r="L116" t="s"/>
+      <c r="M116" t="s"/>
+      <c r="N116" t="s"/>
+      <c r="O116" t="s"/>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="s"/>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C117" s="1" t="s"/>
+      <c r="D117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s"/>
+      <c r="F117" t="s"/>
+      <c r="G117" t="s"/>
+      <c r="H117" t="n">
+        <v>1628.041015625</v>
+      </c>
+      <c r="I117" t="n">
+        <v>58410.75390625</v>
+      </c>
+      <c r="J117" t="s"/>
+      <c r="K117" t="s"/>
+      <c r="L117" t="s"/>
+      <c r="M117" t="s"/>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="s"/>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="s"/>
+      <c r="V117" t="s"/>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C118" s="1" t="s"/>
+      <c r="D118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" t="s"/>
+      <c r="F118" t="s"/>
+      <c r="G118" t="s"/>
+      <c r="H118" t="n">
+        <v>27226.650390625</v>
+      </c>
+      <c r="I118" t="n">
+        <v>940037.875</v>
+      </c>
+      <c r="J118" t="s"/>
+      <c r="K118" t="s"/>
+      <c r="L118" t="s"/>
+      <c r="M118" t="s"/>
+      <c r="N118" t="s"/>
+      <c r="O118" t="s"/>
+      <c r="P118" t="s"/>
+      <c r="Q118" t="s"/>
+      <c r="R118" t="s"/>
+      <c r="S118" t="s"/>
+      <c r="T118" t="s"/>
+      <c r="U118" t="s"/>
+      <c r="V118" t="s"/>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C119" s="1" t="s"/>
+      <c r="D119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s"/>
+      <c r="F119" t="s"/>
+      <c r="G119" t="s"/>
+      <c r="H119" t="n">
+        <v>3487.368896484375</v>
+      </c>
+      <c r="I119" t="n">
+        <v>132760.125</v>
+      </c>
+      <c r="J119" t="s"/>
+      <c r="K119" t="s"/>
+      <c r="L119" t="s"/>
+      <c r="M119" t="s"/>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="s"/>
+      <c r="Q119" t="s"/>
+      <c r="R119" t="s"/>
+      <c r="S119" t="s"/>
+      <c r="T119" t="s"/>
+      <c r="U119" t="s"/>
+      <c r="V119" t="s"/>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C120" s="1" t="s"/>
+      <c r="D120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" t="s"/>
+      <c r="F120" t="s"/>
+      <c r="G120" t="s"/>
+      <c r="H120" t="n">
+        <v>75484.2265625</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2409430</v>
+      </c>
+      <c r="J120" t="s"/>
+      <c r="K120" t="s"/>
+      <c r="L120" t="s"/>
+      <c r="M120" t="s"/>
+      <c r="N120" t="s"/>
+      <c r="O120" t="s"/>
+      <c r="P120" t="s"/>
+      <c r="Q120" t="s"/>
+      <c r="R120" t="s"/>
+      <c r="S120" t="s"/>
+      <c r="T120" t="s"/>
+      <c r="U120" t="s"/>
+      <c r="V120" t="s"/>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s"/>
+      <c r="D121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s"/>
+      <c r="F121" t="s"/>
+      <c r="G121" t="s"/>
+      <c r="H121" t="n">
+        <v>7573.36376953125</v>
+      </c>
+      <c r="I121" t="n">
+        <v>130492.015625</v>
+      </c>
+      <c r="J121" t="s"/>
+      <c r="K121" t="s"/>
+      <c r="L121" t="s"/>
+      <c r="M121" t="s"/>
+      <c r="N121" t="s"/>
+      <c r="O121" t="s"/>
+      <c r="P121" t="s"/>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="s"/>
+      <c r="T121" t="s"/>
+      <c r="U121" t="s"/>
+      <c r="V121" t="s"/>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1" t="s"/>
+      <c r="D122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" t="s"/>
+      <c r="F122" t="s"/>
+      <c r="G122" t="s"/>
+      <c r="H122" t="n">
+        <v>24580.046875</v>
+      </c>
+      <c r="I122" t="n">
+        <v>616340.5</v>
+      </c>
+      <c r="J122" t="s"/>
+      <c r="K122" t="s"/>
+      <c r="L122" t="s"/>
+      <c r="M122" t="s"/>
+      <c r="N122" t="s"/>
+      <c r="O122" t="s"/>
+      <c r="P122" t="s"/>
+      <c r="Q122" t="s"/>
+      <c r="R122" t="s"/>
+      <c r="S122" t="s"/>
+      <c r="T122" t="s"/>
+      <c r="U122" t="s"/>
+      <c r="V122" t="s"/>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C123" s="1" t="s"/>
+      <c r="D123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s"/>
+      <c r="F123" t="s"/>
+      <c r="G123" t="s"/>
+      <c r="H123" t="n">
+        <v>22663.013671875</v>
+      </c>
+      <c r="I123" t="n">
+        <v>453371.5</v>
+      </c>
+      <c r="J123" t="s"/>
+      <c r="K123" t="s"/>
+      <c r="L123" t="s"/>
+      <c r="M123" t="s"/>
+      <c r="N123" t="s"/>
+      <c r="O123" t="s"/>
+      <c r="P123" t="s"/>
+      <c r="Q123" t="s"/>
+      <c r="R123" t="s"/>
+      <c r="S123" t="s"/>
+      <c r="T123" t="s"/>
+      <c r="U123" t="s"/>
+      <c r="V123" t="s"/>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C124" s="1" t="s"/>
+      <c r="D124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" t="s"/>
+      <c r="F124" t="s"/>
+      <c r="G124" t="s"/>
+      <c r="H124" t="n">
+        <v>1674.829956054688</v>
+      </c>
+      <c r="I124" t="n">
+        <v>55063.25390625</v>
+      </c>
+      <c r="J124" t="s"/>
+      <c r="K124" t="s"/>
+      <c r="L124" t="s"/>
+      <c r="M124" t="s"/>
+      <c r="N124" t="s"/>
+      <c r="O124" t="s"/>
+      <c r="P124" t="s"/>
+      <c r="Q124" t="s"/>
+      <c r="R124" t="s"/>
+      <c r="S124" t="s"/>
+      <c r="T124" t="s"/>
+      <c r="U124" t="s"/>
+      <c r="V124" t="s"/>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C125" s="1" t="s"/>
+      <c r="D125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" t="s"/>
+      <c r="F125" t="s"/>
+      <c r="G125" t="s"/>
+      <c r="H125" t="n">
+        <v>34284.3515625</v>
+      </c>
+      <c r="I125" t="n">
+        <v>863191</v>
+      </c>
+      <c r="J125" t="s"/>
+      <c r="K125" t="s"/>
+      <c r="L125" t="s"/>
+      <c r="M125" t="s"/>
+      <c r="N125" t="s"/>
+      <c r="O125" t="s"/>
+      <c r="P125" t="s"/>
+      <c r="Q125" t="s"/>
+      <c r="R125" t="s"/>
+      <c r="S125" t="s"/>
+      <c r="T125" t="s"/>
+      <c r="U125" t="s"/>
+      <c r="V125" t="s"/>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C126" s="1" t="s"/>
+      <c r="D126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s"/>
+      <c r="F126" t="s"/>
+      <c r="G126" t="s"/>
+      <c r="H126" t="n">
+        <v>7108.7431640625</v>
+      </c>
+      <c r="I126" t="n">
+        <v>135978.84375</v>
+      </c>
+      <c r="J126" t="s"/>
+      <c r="K126" t="s"/>
+      <c r="L126" t="s"/>
+      <c r="M126" t="s"/>
+      <c r="N126" t="s"/>
+      <c r="O126" t="s"/>
+      <c r="P126" t="s"/>
+      <c r="Q126" t="s"/>
+      <c r="R126" t="s"/>
+      <c r="S126" t="s"/>
+      <c r="T126" t="s"/>
+      <c r="U126" t="s"/>
+      <c r="V126" t="s"/>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C127" s="1" t="s"/>
+      <c r="D127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s"/>
+      <c r="F127" t="s"/>
+      <c r="G127" t="s"/>
+      <c r="H127" t="n">
+        <v>98413.34375</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2265295.5</v>
+      </c>
+      <c r="J127" t="s"/>
+      <c r="K127" t="s"/>
+      <c r="L127" t="s"/>
+      <c r="M127" t="s"/>
+      <c r="N127" t="s"/>
+      <c r="O127" t="s"/>
+      <c r="P127" t="s"/>
+      <c r="Q127" t="s"/>
+      <c r="R127" t="s"/>
+      <c r="S127" t="s"/>
+      <c r="T127" t="s"/>
+      <c r="U127" t="s"/>
+      <c r="V127" t="s"/>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="A121:A127"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -517,22 +8855,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -544,7 +8882,7 @@
       </c>
       <c r="C2" s="1" t="s"/>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
         <v>12.40234375</v>
@@ -558,7 +8896,7 @@
       </c>
       <c r="C3" s="1" t="s"/>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
         <v>36.375</v>
@@ -572,7 +8910,7 @@
       </c>
       <c r="C4" s="1" t="s"/>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>48.7734375</v>
@@ -588,7 +8926,7 @@
       </c>
       <c r="C5" s="1" t="s"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
         <v>17.60009765625</v>
@@ -602,7 +8940,7 @@
       </c>
       <c r="C6" s="1" t="s"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>13.69140625</v>
@@ -616,7 +8954,7 @@
       </c>
       <c r="C7" s="1" t="s"/>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -630,7 +8968,7 @@
       </c>
       <c r="C8" s="1" t="s"/>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>44.2890625</v>
@@ -646,7 +8984,7 @@
       </c>
       <c r="C9" s="1" t="s"/>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
         <v>-4.328125</v>
@@ -660,7 +8998,7 @@
       </c>
       <c r="C10" s="1" t="s"/>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
         <v>-3.671875</v>
@@ -674,7 +9012,7 @@
       </c>
       <c r="C11" s="1" t="s"/>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v>-2.455078125</v>
@@ -688,7 +9026,7 @@
       </c>
       <c r="C12" s="1" t="s"/>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
         <v>-5.41015625</v>
@@ -702,7 +9040,7 @@
       </c>
       <c r="C13" s="1" t="s"/>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
         <v>-15.859375</v>
@@ -718,7 +9056,7 @@
       </c>
       <c r="C14" s="1" t="s"/>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
         <v>-6.240234375</v>
@@ -732,7 +9070,7 @@
       </c>
       <c r="C15" s="1" t="s"/>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
         <v>-1.689453125</v>
@@ -746,7 +9084,7 @@
       </c>
       <c r="C16" s="1" t="s"/>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
         <v>1.640625</v>
@@ -760,7 +9098,7 @@
       </c>
       <c r="C17" s="1" t="s"/>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E17" t="n">
         <v>-6.296875</v>
@@ -776,7 +9114,7 @@
       </c>
       <c r="C18" s="1" t="s"/>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
         <v>-2.48046875</v>
@@ -790,7 +9128,7 @@
       </c>
       <c r="C19" s="1" t="s"/>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
         <v>-7.01953125</v>
@@ -804,7 +9142,7 @@
       </c>
       <c r="C20" s="1" t="s"/>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
         <v>-8.36328125</v>
@@ -818,7 +9156,7 @@
       </c>
       <c r="C21" s="1" t="s"/>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
         <v>-17.859375</v>
@@ -834,7 +9172,7 @@
       </c>
       <c r="C22" s="1" t="s"/>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E22" t="n">
         <v>1.375</v>
@@ -848,7 +9186,7 @@
       </c>
       <c r="C23" s="1" t="s"/>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
         <v>1.40234375</v>
@@ -862,7 +9200,7 @@
       </c>
       <c r="C24" s="1" t="s"/>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
         <v>0.291015625</v>
@@ -876,7 +9214,7 @@
       </c>
       <c r="C25" s="1" t="s"/>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n">
         <v>3.06640625</v>
@@ -892,7 +9230,7 @@
       </c>
       <c r="C26" s="1" t="s"/>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
         <v>-2.01171875</v>
@@ -906,7 +9244,7 @@
       </c>
       <c r="C27" s="1" t="s"/>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E27" t="n">
         <v>25.779296875</v>
@@ -920,7 +9258,7 @@
       </c>
       <c r="C28" s="1" t="s"/>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E28" t="n">
         <v>-18.92578125</v>
@@ -934,7 +9272,7 @@
       </c>
       <c r="C29" s="1" t="s"/>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E29" t="n">
         <v>4.84375</v>
@@ -950,7 +9288,7 @@
       </c>
       <c r="C30" s="1" t="s"/>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E30" t="n">
         <v>-0.1904296875</v>
@@ -964,7 +9302,7 @@
       </c>
       <c r="C31" s="1" t="s"/>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E31" t="n">
         <v>-0.1875</v>
@@ -978,7 +9316,7 @@
       </c>
       <c r="C32" s="1" t="s"/>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E32" t="n">
         <v>-0.8515625</v>
@@ -992,7 +9330,7 @@
       </c>
       <c r="C33" s="1" t="s"/>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E33" t="n">
         <v>54.306640625</v>
@@ -1006,7 +9344,7 @@
       </c>
       <c r="C34" s="1" t="s"/>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E34" t="n">
         <v>-1.257080078125</v>
@@ -1020,7 +9358,7 @@
       </c>
       <c r="C35" s="1" t="s"/>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n">
         <v>51.8203125</v>
@@ -1036,7 +9374,7 @@
       </c>
       <c r="C36" s="1" t="s"/>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E36" t="n">
         <v>-0.09912109375</v>
@@ -1050,7 +9388,7 @@
       </c>
       <c r="C37" s="1" t="s"/>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E37" t="n">
         <v>-10.85546875</v>
@@ -1064,7 +9402,7 @@
       </c>
       <c r="C38" s="1" t="s"/>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E38" t="n">
         <v>-14.6015625</v>
@@ -1080,7 +9418,7 @@
       </c>
       <c r="C39" s="1" t="s"/>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E39" t="n">
         <v>62.322265625</v>
@@ -1094,7 +9432,7 @@
       </c>
       <c r="C40" s="1" t="s"/>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E40" t="n">
         <v>36.765625</v>
@@ -1112,7 +9450,7 @@
       </c>
       <c r="C41" s="1" t="s"/>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E41" t="n">
         <v>53</v>
@@ -1126,7 +9464,7 @@
       </c>
       <c r="C42" s="1" t="s"/>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E42" t="n">
         <v>-72.87890625</v>
@@ -1140,7 +9478,7 @@
       </c>
       <c r="C43" s="1" t="s"/>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E43" t="n">
         <v>12.87890625</v>
@@ -1156,7 +9494,7 @@
       </c>
       <c r="C44" s="1" t="s"/>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E44" t="n">
         <v>45.37109375</v>
@@ -1170,7 +9508,7 @@
       </c>
       <c r="C45" s="1" t="s"/>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E45" t="n">
         <v>-1.159912109375</v>
@@ -1184,7 +9522,7 @@
       </c>
       <c r="C46" s="1" t="s"/>
       <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E46" t="n">
         <v>37.2109375</v>
@@ -1202,7 +9540,7 @@
       </c>
       <c r="C47" s="1" t="s"/>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
         <v>34.01611328125</v>
@@ -1216,7 +9554,7 @@
       </c>
       <c r="C48" s="1" t="s"/>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E48" t="n">
         <v>18.380859375</v>
@@ -1230,7 +9568,7 @@
       </c>
       <c r="C49" s="1" t="s"/>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E49" t="n">
         <v>53.6650390625</v>
@@ -1246,7 +9584,7 @@
       </c>
       <c r="C50" s="1" t="s"/>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E50" t="n">
         <v>64.2265625</v>
@@ -1260,7 +9598,7 @@
       </c>
       <c r="C51" s="1" t="s"/>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E51" t="n">
         <v>19.375</v>
@@ -1274,7 +9612,7 @@
       </c>
       <c r="C52" s="1" t="s"/>
       <c r="D52" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E52" t="n">
         <v>189.6640625</v>
@@ -1292,7 +9630,7 @@
       </c>
       <c r="C53" s="1" t="s"/>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E53" t="n">
         <v>168.0380859375</v>
@@ -1306,7 +9644,7 @@
       </c>
       <c r="C54" s="1" t="s"/>
       <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E54" t="n">
         <v>4.138671875</v>
@@ -1320,7 +9658,7 @@
       </c>
       <c r="C55" s="1" t="s"/>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E55" t="n">
         <v>123.466796875</v>
@@ -1336,7 +9674,7 @@
       </c>
       <c r="C56" s="1" t="s"/>
       <c r="D56" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E56" t="n">
         <v>2.4530029296875</v>
@@ -1350,7 +9688,7 @@
       </c>
       <c r="C57" s="1" t="s"/>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E57" t="n">
         <v>133.064453125</v>
@@ -1364,7 +9702,7 @@
       </c>
       <c r="C58" s="1" t="s"/>
       <c r="D58" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E58" t="n">
         <v>11.50390625</v>
@@ -1378,7 +9716,7 @@
       </c>
       <c r="C59" s="1" t="s"/>
       <c r="D59" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E59" t="n">
         <v>442.6640625</v>
@@ -1396,7 +9734,7 @@
       </c>
       <c r="C60" s="1" t="s"/>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E60" t="n">
         <v>184.7626953125</v>
@@ -1410,7 +9748,7 @@
       </c>
       <c r="C61" s="1" t="s"/>
       <c r="D61" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E61" t="n">
         <v>249.984375</v>
@@ -1424,7 +9762,7 @@
       </c>
       <c r="C62" s="1" t="s"/>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E62" t="n">
         <v>-5.326171875</v>
@@ -1440,7 +9778,7 @@
       </c>
       <c r="C63" s="1" t="s"/>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E63" t="n">
         <v>-13.109375</v>
@@ -1454,7 +9792,7 @@
       </c>
       <c r="C64" s="1" t="s"/>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E64" t="n">
         <v>80.60302734375</v>
@@ -1468,7 +9806,7 @@
       </c>
       <c r="C65" s="1" t="s"/>
       <c r="D65" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E65" t="n">
         <v>493.3984375</v>
@@ -1513,22 +9851,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1540,7 +9878,7 @@
       </c>
       <c r="C2" s="1" t="s"/>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
         <v>0.05766226114883929</v>
@@ -1554,7 +9892,7 @@
       </c>
       <c r="C3" s="1" t="s"/>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
         <v>0.1066398906483046</v>
@@ -1568,7 +9906,7 @@
       </c>
       <c r="C4" s="1" t="s"/>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>0.05791419292912511</v>
@@ -1584,7 +9922,7 @@
       </c>
       <c r="C5" s="1" t="s"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
         <v>0.224577928073755</v>
@@ -1598,7 +9936,7 @@
       </c>
       <c r="C6" s="1" t="s"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>0.06076691838560763</v>
@@ -1612,7 +9950,7 @@
       </c>
       <c r="C7" s="1" t="s"/>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>0.03530781240517922</v>
@@ -1626,7 +9964,7 @@
       </c>
       <c r="C8" s="1" t="s"/>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>0.04273402475663693</v>
@@ -1642,7 +9980,7 @@
       </c>
       <c r="C9" s="1" t="s"/>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
         <v>-0.086777044378176</v>
@@ -1656,7 +9994,7 @@
       </c>
       <c r="C10" s="1" t="s"/>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
         <v>-0.01827900272483538</v>
@@ -1670,7 +10008,7 @@
       </c>
       <c r="C11" s="1" t="s"/>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v>-0.01288196644601303</v>
@@ -1684,7 +10022,7 @@
       </c>
       <c r="C12" s="1" t="s"/>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
         <v>-0.02058909029445893</v>
@@ -1698,7 +10036,7 @@
       </c>
       <c r="C13" s="1" t="s"/>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
         <v>-0.02120417573937289</v>
@@ -1714,7 +10052,7 @@
       </c>
       <c r="C14" s="1" t="s"/>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
         <v>-0.02295474316121084</v>
@@ -1728,7 +10066,7 @@
       </c>
       <c r="C15" s="1" t="s"/>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
         <v>-0.006359615135207624</v>
@@ -1742,7 +10080,7 @@
       </c>
       <c r="C16" s="1" t="s"/>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
         <v>0.004970567141710869</v>
@@ -1756,7 +10094,7 @@
       </c>
       <c r="C17" s="1" t="s"/>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E17" t="n">
         <v>-0.006288303256623316</v>
@@ -1772,7 +10110,7 @@
       </c>
       <c r="C18" s="1" t="s"/>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
         <v>-0.008372252220228997</v>
@@ -1786,7 +10124,7 @@
       </c>
       <c r="C19" s="1" t="s"/>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
         <v>-0.02315123476472896</v>
@@ -1800,7 +10138,7 @@
       </c>
       <c r="C20" s="1" t="s"/>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
         <v>-0.02194128630662871</v>
@@ -1814,7 +10152,7 @@
       </c>
       <c r="C21" s="1" t="s"/>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
         <v>-0.01577696043399202</v>
@@ -1830,7 +10168,7 @@
       </c>
       <c r="C22" s="1" t="s"/>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E22" t="n">
         <v>0.02755588408640844</v>
@@ -1844,7 +10182,7 @@
       </c>
       <c r="C23" s="1" t="s"/>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
         <v>0.008781833151407917</v>
@@ -1858,7 +10196,7 @@
       </c>
       <c r="C24" s="1" t="s"/>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
         <v>0.001583810185982897</v>
@@ -1872,7 +10210,7 @@
       </c>
       <c r="C25" s="1" t="s"/>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n">
         <v>0.005357770408549446</v>
@@ -1888,7 +10226,7 @@
       </c>
       <c r="C26" s="1" t="s"/>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
         <v>-0.009072542996807169</v>
@@ -1902,7 +10240,7 @@
       </c>
       <c r="C27" s="1" t="s"/>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E27" t="n">
         <v>0.1401539835576303</v>
@@ -1916,7 +10254,7 @@
       </c>
       <c r="C28" s="1" t="s"/>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E28" t="n">
         <v>-0.06826609885804695</v>
@@ -1930,7 +10268,7 @@
       </c>
       <c r="C29" s="1" t="s"/>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E29" t="n">
         <v>0.00594667919689522</v>
@@ -1946,7 +10284,7 @@
       </c>
       <c r="C30" s="1" t="s"/>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E30" t="n">
         <v>-0.00278435194208548</v>
@@ -1960,7 +10298,7 @@
       </c>
       <c r="C31" s="1" t="s"/>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E31" t="n">
         <v>-0.0008390299240896416</v>
@@ -1974,7 +10312,7 @@
       </c>
       <c r="C32" s="1" t="s"/>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E32" t="n">
         <v>-0.003968873833870223</v>
@@ -1988,7 +10326,7 @@
       </c>
       <c r="C33" s="1" t="s"/>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E33" t="n">
         <v>0.2039009952685876</v>
@@ -2002,7 +10340,7 @@
       </c>
       <c r="C34" s="1" t="s"/>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E34" t="n">
         <v>-0.05780866644983271</v>
@@ -2016,7 +10354,7 @@
       </c>
       <c r="C35" s="1" t="s"/>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n">
         <v>0.06350768057082422</v>
@@ -2032,7 +10370,7 @@
       </c>
       <c r="C36" s="1" t="s"/>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E36" t="n">
         <v>-0.001937781557035164</v>
@@ -2046,7 +10384,7 @@
       </c>
       <c r="C37" s="1" t="s"/>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E37" t="n">
         <v>-0.07386825932198028</v>
@@ -2060,7 +10398,7 @@
       </c>
       <c r="C38" s="1" t="s"/>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E38" t="n">
         <v>-0.08631361212768596</v>
@@ -2076,7 +10414,7 @@
       </c>
       <c r="C39" s="1" t="s"/>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E39" t="n">
         <v>0.2574222376542363</v>
@@ -2090,7 +10428,7 @@
       </c>
       <c r="C40" s="1" t="s"/>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E40" t="n">
         <v>0.05737160512730986</v>
@@ -2108,7 +10446,7 @@
       </c>
       <c r="C41" s="1" t="s"/>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E41" t="n">
         <v>0.9579291841601735</v>
@@ -2122,7 +10460,7 @@
       </c>
       <c r="C42" s="1" t="s"/>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E42" t="n">
         <v>-0.4235199897939332</v>
@@ -2136,7 +10474,7 @@
       </c>
       <c r="C43" s="1" t="s"/>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E43" t="n">
         <v>0.07455381340381236</v>
@@ -2152,7 +10490,7 @@
       </c>
       <c r="C44" s="1" t="s"/>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E44" t="n">
         <v>0.1908430497885939</v>
@@ -2166,7 +10504,7 @@
       </c>
       <c r="C45" s="1" t="s"/>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E45" t="n">
         <v>-0.0531713206587648</v>
@@ -2180,7 +10518,7 @@
       </c>
       <c r="C46" s="1" t="s"/>
       <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E46" t="n">
         <v>0.0543813089968127</v>
@@ -2198,7 +10536,7 @@
       </c>
       <c r="C47" s="1" t="s"/>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
         <v>0.5640964226335258</v>
@@ -2212,7 +10550,7 @@
       </c>
       <c r="C48" s="1" t="s"/>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E48" t="n">
         <v>0.1059350294419686</v>
@@ -2226,7 +10564,7 @@
       </c>
       <c r="C49" s="1" t="s"/>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E49" t="n">
         <v>0.3609306866352791</v>
@@ -2242,7 +10580,7 @@
       </c>
       <c r="C50" s="1" t="s"/>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E50" t="n">
         <v>0.228724051707049</v>
@@ -2256,7 +10594,7 @@
       </c>
       <c r="C51" s="1" t="s"/>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E51" t="n">
         <v>0.9319303335103406</v>
@@ -2270,7 +10608,7 @@
       </c>
       <c r="C52" s="1" t="s"/>
       <c r="D52" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E52" t="n">
         <v>0.2692656004516413</v>
@@ -2288,7 +10626,7 @@
       </c>
       <c r="C53" s="1" t="s"/>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E53" t="n">
         <v>2.326153419383071</v>
@@ -2302,7 +10640,7 @@
       </c>
       <c r="C54" s="1" t="s"/>
       <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E54" t="n">
         <v>0.02225240315977824</v>
@@ -2316,7 +10654,7 @@
       </c>
       <c r="C55" s="1" t="s"/>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E55" t="n">
         <v>0.7438252444274587</v>
@@ -2332,7 +10670,7 @@
       </c>
       <c r="C56" s="1" t="s"/>
       <c r="D56" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E56" t="n">
         <v>0.1508994228876165</v>
@@ -2346,7 +10684,7 @@
       </c>
       <c r="C57" s="1" t="s"/>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E57" t="n">
         <v>0.4911289831916514</v>
@@ -2360,7 +10698,7 @@
       </c>
       <c r="C58" s="1" t="s"/>
       <c r="D58" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E58" t="n">
         <v>0.3309652786377155</v>
@@ -2374,7 +10712,7 @@
       </c>
       <c r="C59" s="1" t="s"/>
       <c r="D59" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E59" t="n">
         <v>0.5898918515989056</v>
@@ -2392,7 +10730,7 @@
       </c>
       <c r="C60" s="1" t="s"/>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E60" t="n">
         <v>2.500645162143042</v>
@@ -2406,7 +10744,7 @@
       </c>
       <c r="C61" s="1" t="s"/>
       <c r="D61" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E61" t="n">
         <v>1.027471158366322</v>
@@ -2420,7 +10758,7 @@
       </c>
       <c r="C62" s="1" t="s"/>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E62" t="n">
         <v>-0.02349608269380391</v>
@@ -2436,7 +10774,7 @@
       </c>
       <c r="C63" s="1" t="s"/>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E63" t="n">
         <v>-0.03822258161876505</v>
@@ -2450,7 +10788,7 @@
       </c>
       <c r="C64" s="1" t="s"/>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E64" t="n">
         <v>1.146861413912862</v>
@@ -2464,7 +10802,7 @@
       </c>
       <c r="C65" s="1" t="s"/>
       <c r="D65" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E65" t="n">
         <v>0.5038794046763168</v>
@@ -2509,7 +10847,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2517,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +10879,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2549,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2573,29 +10911,29 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -2615,7 +10953,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
@@ -2629,7 +10967,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -2643,7 +10981,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -2657,7 +10995,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -2671,7 +11009,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -2685,7 +11023,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -2699,7 +11037,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -2713,29 +11051,29 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -2755,7 +11093,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
@@ -2769,7 +11107,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s"/>
       <c r="C20" t="s"/>
@@ -2783,7 +11121,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -2797,7 +11135,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -2811,7 +11149,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
@@ -2825,7 +11163,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -2839,7 +11177,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>

--- a/DataValidation/data validation for 105_FMILEAGE.xlsx
+++ b/DataValidation/data validation for 105_FMILEAGE.xlsx
@@ -11,8 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Latest_DW_load" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="absolute revisions" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="percentage revisions" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PonP change for 2018201908" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YonY change for 20182019" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PonP change for 2019202008" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YonY change for 20192020" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_Data" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -26,10 +26,10 @@
     <t>financial_period_key</t>
   </si>
   <si>
-    <t>provisional</t>
+    <t>toc_name</t>
   </si>
   <si>
-    <t>toc_name</t>
+    <t>provisional</t>
   </si>
   <si>
     <t>trains_planned</t>
@@ -110,7 +110,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>No data shows as having significant Period on Period change for 2018201908</t>
+    <t>No data shows as having significant Period on Period change for 2019202008</t>
   </si>
   <si>
     <t>No data shows as being outside 95% confidence interval for Year on Year change</t>
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,20 +567,20 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="n">
-        <v>2018201901</v>
-      </c>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s">
+        <v>2019202001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C2" s="1" t="s"/>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
       <c r="G2" t="n">
-        <v>2568.5</v>
+        <v>1225.475952148438</v>
       </c>
       <c r="H2" t="n">
-        <v>78433.828125</v>
+        <v>53692.3671875</v>
       </c>
       <c r="I2" t="s"/>
       <c r="J2" t="s"/>
@@ -598,18 +598,18 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C3" s="1" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="n">
-        <v>34146.5</v>
+        <v>24272.455078125</v>
       </c>
       <c r="H3" t="n">
-        <v>940600.5625</v>
+        <v>840809.9375</v>
       </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
@@ -627,18 +627,18 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C4" s="1" t="s"/>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
       <c r="G4" t="n">
-        <v>2088</v>
+        <v>1460.93505859375</v>
       </c>
       <c r="H4" t="n">
-        <v>89638.578125</v>
+        <v>94161.609375</v>
       </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
@@ -656,18 +656,18 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C5" s="1" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="n">
-        <v>6161.5</v>
+        <v>5115.0849609375</v>
       </c>
       <c r="H5" t="n">
-        <v>154372.921875</v>
+        <v>162021.828125</v>
       </c>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
@@ -685,18 +685,18 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="1" t="s"/>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="n">
-        <v>21521</v>
+        <v>14684.859375</v>
       </c>
       <c r="H6" t="n">
-        <v>679445.0625</v>
+        <v>630008.375</v>
       </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
@@ -714,18 +714,18 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C7" s="1" t="s"/>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="n">
-        <v>17175</v>
+        <v>16902.26953125</v>
       </c>
       <c r="H7" t="n">
-        <v>400602.4375</v>
+        <v>459627.34375</v>
       </c>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -743,18 +743,18 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C8" s="1" t="s"/>
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="n">
-        <v>84265.5</v>
+        <v>64120.078125</v>
       </c>
       <c r="H8" t="n">
-        <v>2346576.5</v>
+        <v>2251425.25</v>
       </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
@@ -772,20 +772,20 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="n">
-        <v>2018201902</v>
-      </c>
-      <c r="B9" s="1" t="s"/>
-      <c r="C9" s="1" t="s">
+        <v>2019202002</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C9" s="1" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="n">
-        <v>2096</v>
+        <v>1996.659057617188</v>
       </c>
       <c r="H9" t="n">
-        <v>76520.640625</v>
+        <v>59987.203125</v>
       </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
@@ -803,18 +803,18 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C10" s="1" t="s"/>
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
       <c r="G10" t="n">
-        <v>32796.5</v>
+        <v>23819.40625</v>
       </c>
       <c r="H10" t="n">
-        <v>938742.6875</v>
+        <v>900849.9375</v>
       </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
@@ -832,18 +832,18 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="1" t="s"/>
       <c r="D11" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="s"/>
       <c r="G11" t="n">
-        <v>1926.5</v>
+        <v>2180.302001953125</v>
       </c>
       <c r="H11" t="n">
-        <v>90237.8359375</v>
+        <v>96634.0390625</v>
       </c>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
@@ -861,18 +861,18 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C12" s="1" t="s"/>
       <c r="D12" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="n">
-        <v>7105</v>
+        <v>5585.76806640625</v>
       </c>
       <c r="H12" t="n">
-        <v>174321.203125</v>
+        <v>142190.765625</v>
       </c>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
@@ -890,18 +890,18 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C13" s="1" t="s"/>
       <c r="D13" t="s"/>
       <c r="E13" t="s"/>
       <c r="F13" t="s"/>
       <c r="G13" t="n">
-        <v>19823.5</v>
+        <v>17135.0234375</v>
       </c>
       <c r="H13" t="n">
-        <v>681201.4375</v>
+        <v>655153</v>
       </c>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
@@ -919,18 +919,18 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C14" s="1" t="s"/>
       <c r="D14" t="s"/>
       <c r="E14" t="s"/>
       <c r="F14" t="s"/>
       <c r="G14" t="n">
-        <v>17686</v>
+        <v>17287.5234375</v>
       </c>
       <c r="H14" t="n">
-        <v>416378.53125</v>
+        <v>456724.625</v>
       </c>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
@@ -948,18 +948,18 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C15" s="1" t="s"/>
       <c r="D15" t="s"/>
       <c r="E15" t="s"/>
       <c r="F15" t="s"/>
       <c r="G15" t="n">
-        <v>81512.5</v>
+        <v>68463.1796875</v>
       </c>
       <c r="H15" t="n">
-        <v>2378403.5</v>
+        <v>2323295.5</v>
       </c>
       <c r="I15" t="s"/>
       <c r="J15" t="s"/>
@@ -977,20 +977,20 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="n">
-        <v>2018201903</v>
-      </c>
-      <c r="B16" s="1" t="s"/>
-      <c r="C16" s="1" t="s">
+        <v>2019202003</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C16" s="1" t="s"/>
       <c r="D16" t="s"/>
       <c r="E16" t="s"/>
       <c r="F16" t="s"/>
       <c r="G16" t="n">
-        <v>2160.5</v>
+        <v>1722.369018554688</v>
       </c>
       <c r="H16" t="n">
-        <v>58088.03125</v>
+        <v>55559.9765625</v>
       </c>
       <c r="I16" t="s"/>
       <c r="J16" t="s"/>
@@ -1008,18 +1008,18 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C17" s="1" t="s"/>
       <c r="D17" t="s"/>
       <c r="E17" t="s"/>
       <c r="F17" t="s"/>
       <c r="G17" t="n">
-        <v>32687.625</v>
+        <v>28144.59765625</v>
       </c>
       <c r="H17" t="n">
-        <v>889398.5625</v>
+        <v>908492.3125</v>
       </c>
       <c r="I17" t="s"/>
       <c r="J17" t="s"/>
@@ -1037,18 +1037,18 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C18" s="1" t="s"/>
       <c r="D18" t="s"/>
       <c r="E18" t="s"/>
       <c r="F18" t="s"/>
       <c r="G18" t="n">
-        <v>2639.5</v>
+        <v>2098.39306640625</v>
       </c>
       <c r="H18" t="n">
-        <v>95119.765625</v>
+        <v>96165.4296875</v>
       </c>
       <c r="I18" t="s"/>
       <c r="J18" t="s"/>
@@ -1066,18 +1066,18 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C19" s="1" t="s"/>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
       <c r="F19" t="s"/>
       <c r="G19" t="n">
-        <v>7016</v>
+        <v>6064.2109375</v>
       </c>
       <c r="H19" t="n">
-        <v>168166.90625</v>
+        <v>139014.609375</v>
       </c>
       <c r="I19" t="s"/>
       <c r="J19" t="s"/>
@@ -1095,18 +1095,18 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C20" s="1" t="s"/>
       <c r="D20" t="s"/>
       <c r="E20" t="s"/>
       <c r="F20" t="s"/>
       <c r="G20" t="n">
-        <v>22095.865234375</v>
+        <v>17369.44921875</v>
       </c>
       <c r="H20" t="n">
-        <v>674842.375</v>
+        <v>621661.875</v>
       </c>
       <c r="I20" t="s"/>
       <c r="J20" t="s"/>
@@ -1124,18 +1124,18 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C21" s="1" t="s"/>
       <c r="D21" t="s"/>
       <c r="E21" t="s"/>
       <c r="F21" t="s"/>
       <c r="G21" t="n">
-        <v>20327.1484375</v>
+        <v>14922.181640625</v>
       </c>
       <c r="H21" t="n">
-        <v>402526.125</v>
+        <v>479572.0625</v>
       </c>
       <c r="I21" t="s"/>
       <c r="J21" t="s"/>
@@ -1153,18 +1153,18 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C22" s="1" t="s"/>
       <c r="D22" t="s"/>
       <c r="E22" t="s"/>
       <c r="F22" t="s"/>
       <c r="G22" t="n">
-        <v>87201.640625</v>
+        <v>70627.203125</v>
       </c>
       <c r="H22" t="n">
-        <v>2290444.5</v>
+        <v>2308368.5</v>
       </c>
       <c r="I22" t="s"/>
       <c r="J22" t="s"/>
@@ -1182,20 +1182,20 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1" t="n">
-        <v>2018201904</v>
-      </c>
-      <c r="B23" s="1" t="s"/>
-      <c r="C23" s="1" t="s">
+        <v>2019202004</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C23" s="1" t="s"/>
       <c r="D23" t="s"/>
       <c r="E23" t="s"/>
       <c r="F23" t="s"/>
       <c r="G23" t="n">
-        <v>2905.5</v>
+        <v>1628.041015625</v>
       </c>
       <c r="H23" t="n">
-        <v>70121.7421875</v>
+        <v>58410.75390625</v>
       </c>
       <c r="I23" t="s"/>
       <c r="J23" t="s"/>
@@ -1213,18 +1213,18 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C24" s="1" t="s"/>
       <c r="D24" t="s"/>
       <c r="E24" t="s"/>
       <c r="F24" t="s"/>
       <c r="G24" t="n">
-        <v>36832.046875</v>
+        <v>27226.650390625</v>
       </c>
       <c r="H24" t="n">
-        <v>903191.125</v>
+        <v>940037.875</v>
       </c>
       <c r="I24" t="s"/>
       <c r="J24" t="s"/>
@@ -1242,18 +1242,18 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C25" s="1" t="s"/>
       <c r="D25" t="s"/>
       <c r="E25" t="s"/>
       <c r="F25" t="s"/>
       <c r="G25" t="n">
-        <v>3399.5</v>
+        <v>3487.368896484375</v>
       </c>
       <c r="H25" t="n">
-        <v>97447.1171875</v>
+        <v>132760.125</v>
       </c>
       <c r="I25" t="s"/>
       <c r="J25" t="s"/>
@@ -1271,18 +1271,18 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C26" s="1" t="s"/>
       <c r="D26" t="s"/>
       <c r="E26" t="s"/>
       <c r="F26" t="s"/>
       <c r="G26" t="n">
-        <v>7854.56689453125</v>
+        <v>7391.89892578125</v>
       </c>
       <c r="H26" t="n">
-        <v>150260.3125</v>
+        <v>152723.859375</v>
       </c>
       <c r="I26" t="s"/>
       <c r="J26" t="s"/>
@@ -1300,18 +1300,18 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C27" s="1" t="s"/>
       <c r="D27" t="s"/>
       <c r="E27" t="s"/>
       <c r="F27" t="s"/>
       <c r="G27" t="n">
-        <v>30022.83984375</v>
+        <v>18602.90234375</v>
       </c>
       <c r="H27" t="n">
-        <v>701971.875</v>
+        <v>633689.9375</v>
       </c>
       <c r="I27" t="s"/>
       <c r="J27" t="s"/>
@@ -1329,18 +1329,18 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C28" s="1" t="s"/>
       <c r="D28" t="s"/>
       <c r="E28" t="s"/>
       <c r="F28" t="s"/>
       <c r="G28" t="n">
-        <v>22544.7109375</v>
+        <v>16722.365234375</v>
       </c>
       <c r="H28" t="n">
-        <v>427442.375</v>
+        <v>484801.875</v>
       </c>
       <c r="I28" t="s"/>
       <c r="J28" t="s"/>
@@ -1358,18 +1358,18 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C29" s="1" t="s"/>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="n">
-        <v>103683.1640625</v>
+        <v>75484.2265625</v>
       </c>
       <c r="H29" t="n">
-        <v>2354051</v>
+        <v>2409430</v>
       </c>
       <c r="I29" t="s"/>
       <c r="J29" t="s"/>
@@ -1387,20 +1387,20 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1" t="n">
-        <v>2018201905</v>
-      </c>
-      <c r="B30" s="1" t="s"/>
-      <c r="C30" s="1" t="s">
+        <v>2019202005</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C30" s="1" t="s"/>
       <c r="D30" t="s"/>
       <c r="E30" t="s"/>
       <c r="F30" t="s"/>
       <c r="G30" t="n">
-        <v>1598.5</v>
+        <v>1674.829956054688</v>
       </c>
       <c r="H30" t="n">
-        <v>67051.984375</v>
+        <v>55063.25390625</v>
       </c>
       <c r="I30" t="s"/>
       <c r="J30" t="s"/>
@@ -1418,18 +1418,18 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C31" s="1" t="s"/>
       <c r="D31" t="s"/>
       <c r="E31" t="s"/>
       <c r="F31" t="s"/>
       <c r="G31" t="n">
-        <v>32199.1015625</v>
+        <v>34284.3515625</v>
       </c>
       <c r="H31" t="n">
-        <v>847716.6875</v>
+        <v>863191</v>
       </c>
       <c r="I31" t="s"/>
       <c r="J31" t="s"/>
@@ -1447,18 +1447,18 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C32" s="1" t="s"/>
       <c r="D32" t="s"/>
       <c r="E32" t="s"/>
       <c r="F32" t="s"/>
       <c r="G32" t="n">
-        <v>1662.984985351562</v>
+        <v>7108.7431640625</v>
       </c>
       <c r="H32" t="n">
-        <v>93476.078125</v>
+        <v>135978.84375</v>
       </c>
       <c r="I32" t="s"/>
       <c r="J32" t="s"/>
@@ -1476,18 +1476,18 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C33" s="1" t="s"/>
       <c r="D33" t="s"/>
       <c r="E33" t="s"/>
       <c r="F33" t="s"/>
       <c r="G33" t="n">
-        <v>6239</v>
+        <v>7573.36376953125</v>
       </c>
       <c r="H33" t="n">
-        <v>147110.28125</v>
+        <v>130492.015625</v>
       </c>
       <c r="I33" t="s"/>
       <c r="J33" t="s"/>
@@ -1505,18 +1505,18 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C34" s="1" t="s"/>
       <c r="D34" t="s"/>
       <c r="E34" t="s"/>
       <c r="F34" t="s"/>
       <c r="G34" t="n">
-        <v>32101.33984375</v>
+        <v>24580.046875</v>
       </c>
       <c r="H34" t="n">
-        <v>688156.25</v>
+        <v>616340.5</v>
       </c>
       <c r="I34" t="s"/>
       <c r="J34" t="s"/>
@@ -1534,18 +1534,18 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C35" s="1" t="s"/>
       <c r="D35" t="s"/>
       <c r="E35" t="s"/>
       <c r="F35" t="s"/>
       <c r="G35" t="n">
-        <v>22808</v>
+        <v>22663.013671875</v>
       </c>
       <c r="H35" t="n">
-        <v>431512.53125</v>
+        <v>453371.5</v>
       </c>
       <c r="I35" t="s"/>
       <c r="J35" t="s"/>
@@ -1563,18 +1563,18 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C36" s="1" t="s"/>
       <c r="D36" t="s"/>
       <c r="E36" t="s"/>
       <c r="F36" t="s"/>
       <c r="G36" t="n">
-        <v>96847.9296875</v>
+        <v>98413.34375</v>
       </c>
       <c r="H36" t="n">
-        <v>2277824</v>
+        <v>2265295.5</v>
       </c>
       <c r="I36" t="s"/>
       <c r="J36" t="s"/>
@@ -1592,20 +1592,20 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1" t="n">
-        <v>2018201906</v>
-      </c>
-      <c r="B37" s="1" t="s"/>
-      <c r="C37" s="1" t="s">
+        <v>2019202006</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C37" s="1" t="s"/>
       <c r="D37" t="s"/>
       <c r="E37" t="s"/>
       <c r="F37" t="s"/>
       <c r="G37" t="n">
-        <v>2635.5</v>
+        <v>1117.740966796875</v>
       </c>
       <c r="H37" t="n">
-        <v>72434.046875</v>
+        <v>55899.56640625</v>
       </c>
       <c r="I37" t="s"/>
       <c r="J37" t="s"/>
@@ -1623,18 +1623,18 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C38" s="1" t="s"/>
       <c r="D38" t="s"/>
       <c r="E38" t="s"/>
       <c r="F38" t="s"/>
       <c r="G38" t="n">
-        <v>26271.400390625</v>
+        <v>22961.87890625</v>
       </c>
       <c r="H38" t="n">
-        <v>881453.5</v>
+        <v>904859.75</v>
       </c>
       <c r="I38" t="s"/>
       <c r="J38" t="s"/>
@@ -1652,18 +1652,18 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C39" s="1" t="s"/>
       <c r="D39" t="s"/>
       <c r="E39" t="s"/>
       <c r="F39" t="s"/>
       <c r="G39" t="n">
-        <v>1334</v>
+        <v>3174.431884765625</v>
       </c>
       <c r="H39" t="n">
-        <v>96437.6875</v>
+        <v>144902.59375</v>
       </c>
       <c r="I39" t="s"/>
       <c r="J39" t="s"/>
@@ -1681,18 +1681,18 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C40" s="1" t="s"/>
       <c r="D40" t="s"/>
       <c r="E40" t="s"/>
       <c r="F40" t="s"/>
       <c r="G40" t="n">
-        <v>4983.31005859375</v>
+        <v>6561.40478515625</v>
       </c>
       <c r="H40" t="n">
-        <v>164134.546875</v>
+        <v>133770.265625</v>
       </c>
       <c r="I40" t="s"/>
       <c r="J40" t="s"/>
@@ -1710,18 +1710,18 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C41" s="1" t="s"/>
       <c r="D41" t="s"/>
       <c r="E41" t="s"/>
       <c r="F41" t="s"/>
       <c r="G41" t="n">
-        <v>20084.267578125</v>
+        <v>17776.931640625</v>
       </c>
       <c r="H41" t="n">
-        <v>650669.3125</v>
+        <v>613752.1875</v>
       </c>
       <c r="I41" t="s"/>
       <c r="J41" t="s"/>
@@ -1739,18 +1739,18 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C42" s="1" t="s"/>
       <c r="D42" t="s"/>
       <c r="E42" t="s"/>
       <c r="F42" t="s"/>
       <c r="G42" t="n">
-        <v>19055.80078125</v>
+        <v>17114.26171875</v>
       </c>
       <c r="H42" t="n">
-        <v>467116.25</v>
+        <v>463333.375</v>
       </c>
       <c r="I42" t="s"/>
       <c r="J42" t="s"/>
@@ -1768,18 +1768,18 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C43" s="1" t="s"/>
       <c r="D43" t="s"/>
       <c r="E43" t="s"/>
       <c r="F43" t="s"/>
       <c r="G43" t="n">
-        <v>74777.78125</v>
+        <v>69080.6484375</v>
       </c>
       <c r="H43" t="n">
-        <v>2338246.75</v>
+        <v>2323086</v>
       </c>
       <c r="I43" t="s"/>
       <c r="J43" t="s"/>
@@ -1797,20 +1797,20 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1" t="n">
-        <v>2018201907</v>
-      </c>
-      <c r="B44" s="1" t="s"/>
-      <c r="C44" s="1" t="s">
+        <v>2019202007</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C44" s="1" t="s"/>
       <c r="D44" t="s"/>
       <c r="E44" t="s"/>
       <c r="F44" t="s"/>
       <c r="G44" t="n">
-        <v>2788.35595703125</v>
+        <v>1039.89697265625</v>
       </c>
       <c r="H44" t="n">
-        <v>64237.8984375</v>
+        <v>51477.0390625</v>
       </c>
       <c r="I44" t="s"/>
       <c r="J44" t="s"/>
@@ -1828,18 +1828,18 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C45" s="1" t="s"/>
       <c r="D45" t="s"/>
       <c r="E45" t="s"/>
       <c r="F45" t="s"/>
       <c r="G45" t="n">
-        <v>38255.88671875</v>
+        <v>27668.080078125</v>
       </c>
       <c r="H45" t="n">
-        <v>915260.0625</v>
+        <v>924610.25</v>
       </c>
       <c r="I45" t="s"/>
       <c r="J45" t="s"/>
@@ -1857,18 +1857,18 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C46" s="1" t="s"/>
       <c r="D46" t="s"/>
       <c r="E46" t="s"/>
       <c r="F46" t="s"/>
       <c r="G46" t="n">
-        <v>6288</v>
+        <v>2099.591064453125</v>
       </c>
       <c r="H46" t="n">
-        <v>98271.03125</v>
+        <v>139688.171875</v>
       </c>
       <c r="I46" t="s"/>
       <c r="J46" t="s"/>
@@ -1886,18 +1886,18 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C47" s="1" t="s"/>
       <c r="D47" t="s"/>
       <c r="E47" t="s"/>
       <c r="F47" t="s"/>
       <c r="G47" t="n">
-        <v>8036.5</v>
+        <v>7425.51416015625</v>
       </c>
       <c r="H47" t="n">
-        <v>156371.453125</v>
+        <v>134571.5625</v>
       </c>
       <c r="I47" t="s"/>
       <c r="J47" t="s"/>
@@ -1915,18 +1915,18 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C48" s="1" t="s"/>
       <c r="D48" t="s"/>
       <c r="E48" t="s"/>
       <c r="F48" t="s"/>
       <c r="G48" t="n">
-        <v>31406.876953125</v>
+        <v>22409.703125</v>
       </c>
       <c r="H48" t="n">
-        <v>669377.375</v>
+        <v>643245.1875</v>
       </c>
       <c r="I48" t="s"/>
       <c r="J48" t="s"/>
@@ -1944,18 +1944,18 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C49" s="1" t="s"/>
       <c r="D49" t="s"/>
       <c r="E49" t="s"/>
       <c r="F49" t="s"/>
       <c r="G49" t="n">
-        <v>36561.9921875</v>
+        <v>20054.080078125</v>
       </c>
       <c r="H49" t="n">
-        <v>511708.28125</v>
+        <v>442925.90625</v>
       </c>
       <c r="I49" t="s"/>
       <c r="J49" t="s"/>
@@ -1973,18 +1973,18 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C50" s="1" t="s"/>
       <c r="D50" t="s"/>
       <c r="E50" t="s"/>
       <c r="F50" t="s"/>
       <c r="G50" t="n">
-        <v>123846.109375</v>
+        <v>80931.734375</v>
       </c>
       <c r="H50" t="n">
-        <v>2422237</v>
+        <v>2341969.25</v>
       </c>
       <c r="I50" t="s"/>
       <c r="J50" t="s"/>
@@ -2000,213 +2000,8 @@
       <c r="T50" t="s"/>
       <c r="U50" t="s"/>
     </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="1" t="n">
-        <v>2018201908</v>
-      </c>
-      <c r="B51" s="1" t="s"/>
-      <c r="C51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s"/>
-      <c r="E51" t="s"/>
-      <c r="F51" t="s"/>
-      <c r="G51" t="n">
-        <v>1652</v>
-      </c>
-      <c r="H51" t="n">
-        <v>70021.1875</v>
-      </c>
-      <c r="I51" t="s"/>
-      <c r="J51" t="s"/>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
-      <c r="M51" t="s"/>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
-      <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" t="s"/>
-      <c r="E52" t="s"/>
-      <c r="F52" t="s"/>
-      <c r="G52" t="n">
-        <v>33008.4375</v>
-      </c>
-      <c r="H52" t="n">
-        <v>922584.625</v>
-      </c>
-      <c r="I52" t="s"/>
-      <c r="J52" t="s"/>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
-      <c r="M52" t="s"/>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
-      <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" t="s"/>
-      <c r="E53" t="s"/>
-      <c r="F53" t="s"/>
-      <c r="G53" t="n">
-        <v>2706</v>
-      </c>
-      <c r="H53" t="n">
-        <v>101066.03125</v>
-      </c>
-      <c r="I53" t="s"/>
-      <c r="J53" t="s"/>
-      <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
-      <c r="M53" t="s"/>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
-      <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" t="s"/>
-      <c r="E54" t="s"/>
-      <c r="F54" t="s"/>
-      <c r="G54" t="n">
-        <v>8600.728515625</v>
-      </c>
-      <c r="H54" t="n">
-        <v>157653.25</v>
-      </c>
-      <c r="I54" t="s"/>
-      <c r="J54" t="s"/>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
-      <c r="M54" t="s"/>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
-      <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" t="s"/>
-      <c r="E55" t="s"/>
-      <c r="F55" t="s"/>
-      <c r="G55" t="n">
-        <v>27178.705078125</v>
-      </c>
-      <c r="H55" t="n">
-        <v>673084.125</v>
-      </c>
-      <c r="I55" t="s"/>
-      <c r="J55" t="s"/>
-      <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
-      <c r="M55" t="s"/>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
-      <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" t="s"/>
-      <c r="E56" t="s"/>
-      <c r="F56" t="s"/>
-      <c r="G56" t="n">
-        <v>26563.646484375</v>
-      </c>
-      <c r="H56" t="n">
-        <v>521973.59375</v>
-      </c>
-      <c r="I56" t="s"/>
-      <c r="J56" t="s"/>
-      <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
-      <c r="M56" t="s"/>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
-      <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" t="s"/>
-      <c r="E57" t="s"/>
-      <c r="F57" t="s"/>
-      <c r="G57" t="n">
-        <v>100130.015625</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2452644.25</v>
-      </c>
-      <c r="I57" t="s"/>
-      <c r="J57" t="s"/>
-      <c r="K57" t="s"/>
-      <c r="L57" t="s"/>
-      <c r="M57" t="s"/>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
-      <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
-    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="7">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2214,15 +2009,6 @@
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B57"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2309,20 +2095,20 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="n">
-        <v>2018201901</v>
-      </c>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s">
+        <v>2019202001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C2" s="1" t="s"/>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
       <c r="G2" t="n">
-        <v>2568.5</v>
+        <v>1225.475952148438</v>
       </c>
       <c r="H2" t="n">
-        <v>78433.828125</v>
+        <v>53692.3671875</v>
       </c>
       <c r="I2" t="s"/>
       <c r="J2" t="s"/>
@@ -2340,18 +2126,18 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C3" s="1" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="n">
-        <v>34146.5</v>
+        <v>24299.642578125</v>
       </c>
       <c r="H3" t="n">
-        <v>940600.5625</v>
+        <v>840809.9375</v>
       </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
@@ -2369,18 +2155,18 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C4" s="1" t="s"/>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
       <c r="G4" t="n">
-        <v>2088</v>
+        <v>1460.93505859375</v>
       </c>
       <c r="H4" t="n">
-        <v>89638.578125</v>
+        <v>94161.609375</v>
       </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
@@ -2398,18 +2184,18 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C5" s="1" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="n">
-        <v>6161.5</v>
+        <v>5137.1650390625</v>
       </c>
       <c r="H5" t="n">
-        <v>154372.921875</v>
+        <v>162021.828125</v>
       </c>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
@@ -2427,18 +2213,18 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="1" t="s"/>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="n">
-        <v>21521</v>
+        <v>14684.859375</v>
       </c>
       <c r="H6" t="n">
-        <v>679445.0625</v>
+        <v>630008.375</v>
       </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
@@ -2456,18 +2242,18 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C7" s="1" t="s"/>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="n">
-        <v>17175</v>
+        <v>16902.26953125</v>
       </c>
       <c r="H7" t="n">
-        <v>400602.4375</v>
+        <v>459627.34375</v>
       </c>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -2485,18 +2271,18 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C8" s="1" t="s"/>
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="n">
-        <v>84265.5</v>
+        <v>64169.34765625</v>
       </c>
       <c r="H8" t="n">
-        <v>2346576.5</v>
+        <v>2251425.25</v>
       </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
@@ -2514,20 +2300,20 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="n">
-        <v>2018201902</v>
-      </c>
-      <c r="B9" s="1" t="s"/>
-      <c r="C9" s="1" t="s">
+        <v>2019202002</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C9" s="1" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="n">
-        <v>2096</v>
+        <v>1998.159057617188</v>
       </c>
       <c r="H9" t="n">
-        <v>76520.640625</v>
+        <v>59987.203125</v>
       </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
@@ -2545,18 +2331,18 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C10" s="1" t="s"/>
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
       <c r="G10" t="n">
-        <v>32796.5</v>
+        <v>23819.220703125</v>
       </c>
       <c r="H10" t="n">
-        <v>938742.6875</v>
+        <v>900849.9375</v>
       </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
@@ -2574,18 +2360,18 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="1" t="s"/>
       <c r="D11" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="s"/>
       <c r="G11" t="n">
-        <v>1926.5</v>
+        <v>2180.302001953125</v>
       </c>
       <c r="H11" t="n">
-        <v>90237.8359375</v>
+        <v>96634.0390625</v>
       </c>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
@@ -2603,18 +2389,18 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C12" s="1" t="s"/>
       <c r="D12" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="n">
-        <v>7105</v>
+        <v>5585.76806640625</v>
       </c>
       <c r="H12" t="n">
-        <v>174321.203125</v>
+        <v>142190.765625</v>
       </c>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
@@ -2632,18 +2418,18 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C13" s="1" t="s"/>
       <c r="D13" t="s"/>
       <c r="E13" t="s"/>
       <c r="F13" t="s"/>
       <c r="G13" t="n">
-        <v>19823.5</v>
+        <v>17140.5234375</v>
       </c>
       <c r="H13" t="n">
-        <v>681201.4375</v>
+        <v>655153</v>
       </c>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
@@ -2661,18 +2447,18 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C14" s="1" t="s"/>
       <c r="D14" t="s"/>
       <c r="E14" t="s"/>
       <c r="F14" t="s"/>
       <c r="G14" t="n">
-        <v>17686</v>
+        <v>17290.0234375</v>
       </c>
       <c r="H14" t="n">
-        <v>416378.53125</v>
+        <v>456724.625</v>
       </c>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
@@ -2690,18 +2476,18 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C15" s="1" t="s"/>
       <c r="D15" t="s"/>
       <c r="E15" t="s"/>
       <c r="F15" t="s"/>
       <c r="G15" t="n">
-        <v>81512.5</v>
+        <v>68472.4921875</v>
       </c>
       <c r="H15" t="n">
-        <v>2378403.5</v>
+        <v>2323295.5</v>
       </c>
       <c r="I15" t="s"/>
       <c r="J15" t="s"/>
@@ -2719,20 +2505,20 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="n">
-        <v>2018201903</v>
-      </c>
-      <c r="B16" s="1" t="s"/>
-      <c r="C16" s="1" t="s">
+        <v>2019202003</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C16" s="1" t="s"/>
       <c r="D16" t="s"/>
       <c r="E16" t="s"/>
       <c r="F16" t="s"/>
       <c r="G16" t="n">
-        <v>2160.5</v>
+        <v>1721.984008789062</v>
       </c>
       <c r="H16" t="n">
-        <v>58088.03125</v>
+        <v>55559.9765625</v>
       </c>
       <c r="I16" t="s"/>
       <c r="J16" t="s"/>
@@ -2750,18 +2536,18 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C17" s="1" t="s"/>
       <c r="D17" t="s"/>
       <c r="E17" t="s"/>
       <c r="F17" t="s"/>
       <c r="G17" t="n">
-        <v>32687.625</v>
+        <v>28098.46875</v>
       </c>
       <c r="H17" t="n">
-        <v>889398.5625</v>
+        <v>908492.3125</v>
       </c>
       <c r="I17" t="s"/>
       <c r="J17" t="s"/>
@@ -2779,18 +2565,18 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C18" s="1" t="s"/>
       <c r="D18" t="s"/>
       <c r="E18" t="s"/>
       <c r="F18" t="s"/>
       <c r="G18" t="n">
-        <v>2639.5</v>
+        <v>2098.39306640625</v>
       </c>
       <c r="H18" t="n">
-        <v>95119.765625</v>
+        <v>96165.4296875</v>
       </c>
       <c r="I18" t="s"/>
       <c r="J18" t="s"/>
@@ -2808,18 +2594,18 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C19" s="1" t="s"/>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
       <c r="F19" t="s"/>
       <c r="G19" t="n">
-        <v>7016</v>
+        <v>6064.166015625</v>
       </c>
       <c r="H19" t="n">
-        <v>168166.90625</v>
+        <v>139014.609375</v>
       </c>
       <c r="I19" t="s"/>
       <c r="J19" t="s"/>
@@ -2837,18 +2623,18 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C20" s="1" t="s"/>
       <c r="D20" t="s"/>
       <c r="E20" t="s"/>
       <c r="F20" t="s"/>
       <c r="G20" t="n">
-        <v>22095.865234375</v>
+        <v>17379.837890625</v>
       </c>
       <c r="H20" t="n">
-        <v>674842.375</v>
+        <v>621661.875</v>
       </c>
       <c r="I20" t="s"/>
       <c r="J20" t="s"/>
@@ -2866,18 +2652,18 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C21" s="1" t="s"/>
       <c r="D21" t="s"/>
       <c r="E21" t="s"/>
       <c r="F21" t="s"/>
       <c r="G21" t="n">
-        <v>20327.1484375</v>
+        <v>14917.8935546875</v>
       </c>
       <c r="H21" t="n">
-        <v>402526.125</v>
+        <v>479572.0625</v>
       </c>
       <c r="I21" t="s"/>
       <c r="J21" t="s"/>
@@ -2895,18 +2681,18 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C22" s="1" t="s"/>
       <c r="D22" t="s"/>
       <c r="E22" t="s"/>
       <c r="F22" t="s"/>
       <c r="G22" t="n">
-        <v>87201.640625</v>
+        <v>70586.7421875</v>
       </c>
       <c r="H22" t="n">
-        <v>2290444.5</v>
+        <v>2308368.5</v>
       </c>
       <c r="I22" t="s"/>
       <c r="J22" t="s"/>
@@ -2924,20 +2710,20 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1" t="n">
-        <v>2018201904</v>
-      </c>
-      <c r="B23" s="1" t="s"/>
-      <c r="C23" s="1" t="s">
+        <v>2019202004</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C23" s="1" t="s"/>
       <c r="D23" t="s"/>
       <c r="E23" t="s"/>
       <c r="F23" t="s"/>
       <c r="G23" t="n">
-        <v>2905.5</v>
+        <v>1628.041015625</v>
       </c>
       <c r="H23" t="n">
-        <v>70121.7421875</v>
+        <v>58410.75390625</v>
       </c>
       <c r="I23" t="s"/>
       <c r="J23" t="s"/>
@@ -2955,18 +2741,18 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C24" s="1" t="s"/>
       <c r="D24" t="s"/>
       <c r="E24" t="s"/>
       <c r="F24" t="s"/>
       <c r="G24" t="n">
-        <v>36831.11328125</v>
+        <v>27287.68359375</v>
       </c>
       <c r="H24" t="n">
-        <v>903191.125</v>
+        <v>940037.875</v>
       </c>
       <c r="I24" t="s"/>
       <c r="J24" t="s"/>
@@ -2984,18 +2770,18 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C25" s="1" t="s"/>
       <c r="D25" t="s"/>
       <c r="E25" t="s"/>
       <c r="F25" t="s"/>
       <c r="G25" t="n">
-        <v>3399.5</v>
+        <v>3474.98388671875</v>
       </c>
       <c r="H25" t="n">
-        <v>97447.1171875</v>
+        <v>132760.125</v>
       </c>
       <c r="I25" t="s"/>
       <c r="J25" t="s"/>
@@ -3013,18 +2799,18 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C26" s="1" t="s"/>
       <c r="D26" t="s"/>
       <c r="E26" t="s"/>
       <c r="F26" t="s"/>
       <c r="G26" t="n">
-        <v>7854.56689453125</v>
+        <v>7393.01708984375</v>
       </c>
       <c r="H26" t="n">
-        <v>150260.3125</v>
+        <v>152723.859375</v>
       </c>
       <c r="I26" t="s"/>
       <c r="J26" t="s"/>
@@ -3042,18 +2828,18 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C27" s="1" t="s"/>
       <c r="D27" t="s"/>
       <c r="E27" t="s"/>
       <c r="F27" t="s"/>
       <c r="G27" t="n">
-        <v>30022.005859375</v>
+        <v>18626.560546875</v>
       </c>
       <c r="H27" t="n">
-        <v>701971.875</v>
+        <v>633689.9375</v>
       </c>
       <c r="I27" t="s"/>
       <c r="J27" t="s"/>
@@ -3071,18 +2857,18 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C28" s="1" t="s"/>
       <c r="D28" t="s"/>
       <c r="E28" t="s"/>
       <c r="F28" t="s"/>
       <c r="G28" t="n">
-        <v>22544.7109375</v>
+        <v>16824.890625</v>
       </c>
       <c r="H28" t="n">
-        <v>427442.375</v>
+        <v>484801.875</v>
       </c>
       <c r="I28" t="s"/>
       <c r="J28" t="s"/>
@@ -3100,18 +2886,18 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C29" s="1" t="s"/>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="n">
-        <v>103681.3984375</v>
+        <v>75660.1796875</v>
       </c>
       <c r="H29" t="n">
-        <v>2354051</v>
+        <v>2409430</v>
       </c>
       <c r="I29" t="s"/>
       <c r="J29" t="s"/>
@@ -3129,20 +2915,20 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1" t="n">
-        <v>2018201905</v>
-      </c>
-      <c r="B30" s="1" t="s"/>
-      <c r="C30" s="1" t="s">
+        <v>2019202005</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C30" s="1" t="s"/>
       <c r="D30" t="s"/>
       <c r="E30" t="s"/>
       <c r="F30" t="s"/>
       <c r="G30" t="n">
-        <v>1598.5</v>
+        <v>1674.829956054688</v>
       </c>
       <c r="H30" t="n">
-        <v>67051.984375</v>
+        <v>55063.25390625</v>
       </c>
       <c r="I30" t="s"/>
       <c r="J30" t="s"/>
@@ -3160,18 +2946,18 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C31" s="1" t="s"/>
       <c r="D31" t="s"/>
       <c r="E31" t="s"/>
       <c r="F31" t="s"/>
       <c r="G31" t="n">
-        <v>32199.1015625</v>
+        <v>34271.46484375</v>
       </c>
       <c r="H31" t="n">
-        <v>847716.6875</v>
+        <v>863191</v>
       </c>
       <c r="I31" t="s"/>
       <c r="J31" t="s"/>
@@ -3189,18 +2975,18 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C32" s="1" t="s"/>
       <c r="D32" t="s"/>
       <c r="E32" t="s"/>
       <c r="F32" t="s"/>
       <c r="G32" t="n">
-        <v>1662.984985351562</v>
+        <v>7090.1591796875</v>
       </c>
       <c r="H32" t="n">
-        <v>93476.078125</v>
+        <v>135978.84375</v>
       </c>
       <c r="I32" t="s"/>
       <c r="J32" t="s"/>
@@ -3218,18 +3004,18 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C33" s="1" t="s"/>
       <c r="D33" t="s"/>
       <c r="E33" t="s"/>
       <c r="F33" t="s"/>
       <c r="G33" t="n">
-        <v>6239</v>
+        <v>7562.0751953125</v>
       </c>
       <c r="H33" t="n">
-        <v>147110.28125</v>
+        <v>130492.015625</v>
       </c>
       <c r="I33" t="s"/>
       <c r="J33" t="s"/>
@@ -3247,18 +3033,18 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C34" s="1" t="s"/>
       <c r="D34" t="s"/>
       <c r="E34" t="s"/>
       <c r="F34" t="s"/>
       <c r="G34" t="n">
-        <v>32101.33984375</v>
+        <v>24515.478515625</v>
       </c>
       <c r="H34" t="n">
-        <v>688156.25</v>
+        <v>616340.5</v>
       </c>
       <c r="I34" t="s"/>
       <c r="J34" t="s"/>
@@ -3276,18 +3062,18 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C35" s="1" t="s"/>
       <c r="D35" t="s"/>
       <c r="E35" t="s"/>
       <c r="F35" t="s"/>
       <c r="G35" t="n">
-        <v>22808</v>
+        <v>22654.337890625</v>
       </c>
       <c r="H35" t="n">
-        <v>431512.53125</v>
+        <v>453371.5</v>
       </c>
       <c r="I35" t="s"/>
       <c r="J35" t="s"/>
@@ -3305,18 +3091,18 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C36" s="1" t="s"/>
       <c r="D36" t="s"/>
       <c r="E36" t="s"/>
       <c r="F36" t="s"/>
       <c r="G36" t="n">
-        <v>96847.9296875</v>
+        <v>98297.34375</v>
       </c>
       <c r="H36" t="n">
-        <v>2277824</v>
+        <v>2265295.5</v>
       </c>
       <c r="I36" t="s"/>
       <c r="J36" t="s"/>
@@ -3334,20 +3120,20 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1" t="n">
-        <v>2018201906</v>
-      </c>
-      <c r="B37" s="1" t="s"/>
-      <c r="C37" s="1" t="s">
+        <v>2019202006</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C37" s="1" t="s"/>
       <c r="D37" t="s"/>
       <c r="E37" t="s"/>
       <c r="F37" t="s"/>
       <c r="G37" t="n">
-        <v>2635.5</v>
+        <v>1114.5009765625</v>
       </c>
       <c r="H37" t="n">
-        <v>72434.046875</v>
+        <v>55899.56640625</v>
       </c>
       <c r="I37" t="s"/>
       <c r="J37" t="s"/>
@@ -3365,18 +3151,18 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C38" s="1" t="s"/>
       <c r="D38" t="s"/>
       <c r="E38" t="s"/>
       <c r="F38" t="s"/>
       <c r="G38" t="n">
-        <v>26271.400390625</v>
+        <v>22980.30859375</v>
       </c>
       <c r="H38" t="n">
-        <v>881453.5</v>
+        <v>904859.75</v>
       </c>
       <c r="I38" t="s"/>
       <c r="J38" t="s"/>
@@ -3394,18 +3180,18 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C39" s="1" t="s"/>
       <c r="D39" t="s"/>
       <c r="E39" t="s"/>
       <c r="F39" t="s"/>
       <c r="G39" t="n">
-        <v>1334</v>
+        <v>3180.931884765625</v>
       </c>
       <c r="H39" t="n">
-        <v>96437.6875</v>
+        <v>144902.59375</v>
       </c>
       <c r="I39" t="s"/>
       <c r="J39" t="s"/>
@@ -3423,18 +3209,18 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C40" s="1" t="s"/>
       <c r="D40" t="s"/>
       <c r="E40" t="s"/>
       <c r="F40" t="s"/>
       <c r="G40" t="n">
-        <v>4983.31005859375</v>
+        <v>6569.115234375</v>
       </c>
       <c r="H40" t="n">
-        <v>164134.546875</v>
+        <v>133770.265625</v>
       </c>
       <c r="I40" t="s"/>
       <c r="J40" t="s"/>
@@ -3452,18 +3238,18 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C41" s="1" t="s"/>
       <c r="D41" t="s"/>
       <c r="E41" t="s"/>
       <c r="F41" t="s"/>
       <c r="G41" t="n">
-        <v>20084.267578125</v>
+        <v>17786.1171875</v>
       </c>
       <c r="H41" t="n">
-        <v>650669.3125</v>
+        <v>613752.1875</v>
       </c>
       <c r="I41" t="s"/>
       <c r="J41" t="s"/>
@@ -3481,18 +3267,18 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C42" s="1" t="s"/>
       <c r="D42" t="s"/>
       <c r="E42" t="s"/>
       <c r="F42" t="s"/>
       <c r="G42" t="n">
-        <v>19055.80078125</v>
+        <v>17094.662109375</v>
       </c>
       <c r="H42" t="n">
-        <v>467116.25</v>
+        <v>463333.375</v>
       </c>
       <c r="I42" t="s"/>
       <c r="J42" t="s"/>
@@ -3510,18 +3296,18 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C43" s="1" t="s"/>
       <c r="D43" t="s"/>
       <c r="E43" t="s"/>
       <c r="F43" t="s"/>
       <c r="G43" t="n">
-        <v>74777.78125</v>
+        <v>69099.6328125</v>
       </c>
       <c r="H43" t="n">
-        <v>2338246.75</v>
+        <v>2323086</v>
       </c>
       <c r="I43" t="s"/>
       <c r="J43" t="s"/>
@@ -3539,20 +3325,20 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1" t="n">
-        <v>2018201907</v>
-      </c>
-      <c r="B44" s="1" t="s"/>
-      <c r="C44" s="1" t="s">
+        <v>2019202007</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C44" s="1" t="s"/>
       <c r="D44" t="s"/>
       <c r="E44" t="s"/>
       <c r="F44" t="s"/>
       <c r="G44" t="n">
-        <v>2788.35595703125</v>
+        <v>1073.922973632812</v>
       </c>
       <c r="H44" t="n">
-        <v>64237.8984375</v>
+        <v>51477.0390625</v>
       </c>
       <c r="I44" t="s"/>
       <c r="J44" t="s"/>
@@ -3570,18 +3356,18 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C45" s="1" t="s"/>
       <c r="D45" t="s"/>
       <c r="E45" t="s"/>
       <c r="F45" t="s"/>
       <c r="G45" t="n">
-        <v>38255.13671875</v>
+        <v>27870.07421875</v>
       </c>
       <c r="H45" t="n">
-        <v>915260.0625</v>
+        <v>924610.25</v>
       </c>
       <c r="I45" t="s"/>
       <c r="J45" t="s"/>
@@ -3599,18 +3385,18 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C46" s="1" t="s"/>
       <c r="D46" t="s"/>
       <c r="E46" t="s"/>
       <c r="F46" t="s"/>
       <c r="G46" t="n">
-        <v>6288</v>
+        <v>2241.339111328125</v>
       </c>
       <c r="H46" t="n">
-        <v>98271.03125</v>
+        <v>139688.171875</v>
       </c>
       <c r="I46" t="s"/>
       <c r="J46" t="s"/>
@@ -3628,18 +3414,18 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C47" s="1" t="s"/>
       <c r="D47" t="s"/>
       <c r="E47" t="s"/>
       <c r="F47" t="s"/>
       <c r="G47" t="n">
-        <v>8036.5</v>
+        <v>7468.9111328125</v>
       </c>
       <c r="H47" t="n">
-        <v>156371.453125</v>
+        <v>134571.5625</v>
       </c>
       <c r="I47" t="s"/>
       <c r="J47" t="s"/>
@@ -3657,18 +3443,18 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C48" s="1" t="s"/>
       <c r="D48" t="s"/>
       <c r="E48" t="s"/>
       <c r="F48" t="s"/>
       <c r="G48" t="n">
-        <v>31406.876953125</v>
+        <v>22493.244140625</v>
       </c>
       <c r="H48" t="n">
-        <v>669377.375</v>
+        <v>643245.1875</v>
       </c>
       <c r="I48" t="s"/>
       <c r="J48" t="s"/>
@@ -3686,18 +3472,18 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C49" s="1" t="s"/>
       <c r="D49" t="s"/>
       <c r="E49" t="s"/>
       <c r="F49" t="s"/>
       <c r="G49" t="n">
-        <v>36561.6171875</v>
+        <v>20122.6875</v>
       </c>
       <c r="H49" t="n">
-        <v>511708.28125</v>
+        <v>442925.90625</v>
       </c>
       <c r="I49" t="s"/>
       <c r="J49" t="s"/>
@@ -3715,18 +3501,18 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C50" s="1" t="s"/>
       <c r="D50" t="s"/>
       <c r="E50" t="s"/>
       <c r="F50" t="s"/>
       <c r="G50" t="n">
-        <v>123844.984375</v>
+        <v>81502.3515625</v>
       </c>
       <c r="H50" t="n">
-        <v>2422237</v>
+        <v>2341969.25</v>
       </c>
       <c r="I50" t="s"/>
       <c r="J50" t="s"/>
@@ -3744,20 +3530,20 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1" t="n">
-        <v>2018201908</v>
-      </c>
-      <c r="B51" s="1" t="s"/>
-      <c r="C51" s="1" t="s">
+        <v>2019202008</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C51" s="1" t="s"/>
       <c r="D51" t="s"/>
       <c r="E51" t="s"/>
       <c r="F51" t="s"/>
       <c r="G51" t="n">
-        <v>1652</v>
+        <v>1578.28955078125</v>
       </c>
       <c r="H51" t="n">
-        <v>70021.1875</v>
+        <v>51771.88671875</v>
       </c>
       <c r="I51" t="s"/>
       <c r="J51" t="s"/>
@@ -3775,18 +3561,18 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C52" s="1" t="s"/>
       <c r="D52" t="s"/>
       <c r="E52" t="s"/>
       <c r="F52" t="s"/>
       <c r="G52" t="n">
-        <v>33008.4375</v>
+        <v>31559.28515625</v>
       </c>
       <c r="H52" t="n">
-        <v>922584.625</v>
+        <v>881203</v>
       </c>
       <c r="I52" t="s"/>
       <c r="J52" t="s"/>
@@ -3804,18 +3590,18 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C53" s="1" t="s"/>
       <c r="D53" t="s"/>
       <c r="E53" t="s"/>
       <c r="F53" t="s"/>
       <c r="G53" t="n">
-        <v>2706</v>
+        <v>3083.8369140625</v>
       </c>
       <c r="H53" t="n">
-        <v>101066.03125</v>
+        <v>137807.3125</v>
       </c>
       <c r="I53" t="s"/>
       <c r="J53" t="s"/>
@@ -3833,18 +3619,18 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C54" s="1" t="s"/>
       <c r="D54" t="s"/>
       <c r="E54" t="s"/>
       <c r="F54" t="s"/>
       <c r="G54" t="n">
-        <v>8600.728515625</v>
+        <v>10536.6396484375</v>
       </c>
       <c r="H54" t="n">
-        <v>157653.25</v>
+        <v>165150.140625</v>
       </c>
       <c r="I54" t="s"/>
       <c r="J54" t="s"/>
@@ -3862,18 +3648,18 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C55" s="1" t="s"/>
       <c r="D55" t="s"/>
       <c r="E55" t="s"/>
       <c r="F55" t="s"/>
       <c r="G55" t="n">
-        <v>27178.546875</v>
+        <v>26909.984375</v>
       </c>
       <c r="H55" t="n">
-        <v>673084.125</v>
+        <v>637096.25</v>
       </c>
       <c r="I55" t="s"/>
       <c r="J55" t="s"/>
@@ -3891,18 +3677,18 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C56" s="1" t="s"/>
       <c r="D56" t="s"/>
       <c r="E56" t="s"/>
       <c r="F56" t="s"/>
       <c r="G56" t="n">
-        <v>26561.7109375</v>
+        <v>22739.529296875</v>
       </c>
       <c r="H56" t="n">
-        <v>521973.59375</v>
+        <v>450251.78125</v>
       </c>
       <c r="I56" t="s"/>
       <c r="J56" t="s"/>
@@ -3920,18 +3706,18 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C57" s="1" t="s"/>
       <c r="D57" t="s"/>
       <c r="E57" t="s"/>
       <c r="F57" t="s"/>
       <c r="G57" t="n">
-        <v>100127.921875</v>
+        <v>97495.3515625</v>
       </c>
       <c r="H57" t="n">
-        <v>2452644.25</v>
+        <v>2335668.25</v>
       </c>
       <c r="I57" t="s"/>
       <c r="J57" t="s"/>
@@ -3948,7 +3734,7 @@
       <c r="U57" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="8">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -3957,14 +3743,6 @@
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A57"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B57"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -3976,7 +3754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4000,108 +3778,427 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
-        <v>2018201904</v>
-      </c>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s">
+        <v>2019202001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C2" s="1" t="s"/>
       <c r="D2" t="n">
-        <v>-0.93359375</v>
+        <v>27.1875</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s"/>
       <c r="D3" t="n">
-        <v>-0.833984375</v>
+        <v>22.080078125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C4" s="1" t="s"/>
       <c r="D4" t="n">
-        <v>-1.765625</v>
+        <v>49.26953125</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
-        <v>2018201907</v>
-      </c>
-      <c r="B5" s="1" t="s"/>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>2019202002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s"/>
       <c r="D5" t="n">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
       <c r="D6" t="n">
-        <v>-0.375</v>
+        <v>-0.185546875</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s"/>
       <c r="D7" t="n">
-        <v>-1.125</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="n">
-        <v>2018201908</v>
-      </c>
-      <c r="B8" s="1" t="s"/>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s"/>
       <c r="D8" t="n">
-        <v>-0.158203125</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" t="n">
+        <v>9.3125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" t="n">
+        <v>-0.385009765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" t="n">
+        <v>-46.12890625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" t="n">
+        <v>-0.044921875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" t="n">
+        <v>10.388671875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="n">
-        <v>-1.935546875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" t="n">
+        <v>-4.2880859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="n">
-        <v>-2.09375</v>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" t="n">
+        <v>-40.4609375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" t="n">
+        <v>61.033203125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" t="n">
+        <v>-12.385009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" t="n">
+        <v>1.1181640625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" t="n">
+        <v>23.658203125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" t="n">
+        <v>102.525390625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" t="n">
+        <v>175.953125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" t="n">
+        <v>-12.88671875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s"/>
+      <c r="D23" t="n">
+        <v>-18.583984375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s"/>
+      <c r="D24" t="n">
+        <v>-11.28857421875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s"/>
+      <c r="D25" t="n">
+        <v>-64.568359375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" t="n">
+        <v>-8.67578125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" t="n">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="n">
+        <v>2019202006</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" t="n">
+        <v>-3.239990234375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" t="n">
+        <v>18.4296875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" t="n">
+        <v>7.71044921875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" t="n">
+        <v>9.185546875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" t="n">
+        <v>-19.599609375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" t="n">
+        <v>18.984375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="n">
+        <v>2019202007</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" t="n">
+        <v>34.0260009765625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s"/>
+      <c r="D36" t="n">
+        <v>201.994140625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" t="n">
+        <v>141.748046875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s"/>
+      <c r="D38" t="n">
+        <v>43.39697265625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s"/>
+      <c r="D39" t="n">
+        <v>83.541015625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="s"/>
+      <c r="D40" t="n">
+        <v>68.607421875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s"/>
+      <c r="D41" t="n">
+        <v>570.6171875</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A41"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -4113,7 +4210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4137,108 +4234,427 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
-        <v>2018201904</v>
-      </c>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s">
+        <v>2019202001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C2" s="1" t="s"/>
       <c r="D2" t="n">
-        <v>-0.002534732194407808</v>
+        <v>0.112009683043979</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s"/>
       <c r="D3" t="n">
-        <v>-0.002777833074220707</v>
+        <v>0.4316659115854282</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C4" s="1" t="s"/>
       <c r="D4" t="n">
-        <v>-0.001702904242906481</v>
+        <v>0.07683947476475411</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
-        <v>2018201907</v>
-      </c>
-      <c r="B5" s="1" t="s"/>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>2019202002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s"/>
       <c r="D5" t="n">
-        <v>-0.001960482593212013</v>
+        <v>0.07512549497509603</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
       <c r="D6" t="n">
-        <v>-0.001025655270853121</v>
+        <v>-0.0007789735522899527</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s"/>
       <c r="D7" t="n">
-        <v>-0.0009083854193542363</v>
+        <v>0.0320980010331544</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="n">
-        <v>2018201908</v>
-      </c>
-      <c r="B8" s="1" t="s"/>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s"/>
       <c r="D8" t="n">
-        <v>-0.0005820848511555139</v>
+        <v>0.01446129637387513</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" t="n">
+        <v>0.01360220200479569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" t="n">
+        <v>-0.02235350041003861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" t="n">
+        <v>-0.1638996826794441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" t="n">
+        <v>-0.0007407703238390196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" t="n">
+        <v>0.05981002474036783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="n">
-        <v>-0.007286450209832854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" t="n">
+        <v>-0.02873632047090132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="n">
-        <v>-0.002091031332544047</v>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" t="n">
+        <v>-0.05728803592631292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" t="n">
+        <v>0.2241671386283186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" t="n">
+        <v>-0.3551390785789929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" t="n">
+        <v>0.01512688517155044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" t="n">
+        <v>0.1271747961035146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" t="n">
+        <v>0.6131034048595333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" t="n">
+        <v>0.2330991957032414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" t="n">
+        <v>-0.03758775698734641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s"/>
+      <c r="D23" t="n">
+        <v>-0.261424332629562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s"/>
+      <c r="D24" t="n">
+        <v>-0.1490562788514872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s"/>
+      <c r="D25" t="n">
+        <v>-0.2626860709556723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" t="n">
+        <v>-0.03828167504821621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" t="n">
+        <v>-0.1178701948128858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="n">
+        <v>2019202006</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" t="n">
+        <v>-0.2898695073922076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" t="n">
+        <v>0.08026210561969133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" t="n">
+        <v>0.2047610481483022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" t="n">
+        <v>0.1175121711160575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" t="n">
+        <v>0.05167116047185889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" t="n">
+        <v>-0.1145220851304799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" t="n">
+        <v>0.0274814661260395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="n">
+        <v>2019202007</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" t="n">
+        <v>3.272055008454207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s"/>
+      <c r="D36" t="n">
+        <v>0.7300620066684752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" t="n">
+        <v>6.751221667630822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s"/>
+      <c r="D38" t="n">
+        <v>0.5844305420506642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s"/>
+      <c r="D39" t="n">
+        <v>0.3727894794456363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="s"/>
+      <c r="D40" t="n">
+        <v>0.3421120370903326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s"/>
+      <c r="D41" t="n">
+        <v>0.7050598778175511</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A41"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -4372,10 +4788,10 @@
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
       <c r="E4" t="n">
-        <v>26818.83585248675</v>
+        <v>22262.41841561454</v>
       </c>
       <c r="F4" t="n">
-        <v>673006.7430245535</v>
+        <v>661500.7734375</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4386,10 +4802,10 @@
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="n">
-        <v>30595.65143491828</v>
+        <v>25286.71080126651</v>
       </c>
       <c r="F5" t="n">
-        <v>754212.5537659391</v>
+        <v>740988.3092375267</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4400,10 +4816,10 @@
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
       <c r="E6" t="n">
-        <v>1334</v>
+        <v>1073.922973632812</v>
       </c>
       <c r="F6" t="n">
-        <v>58088.03125</v>
+        <v>51477.0390625</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4414,10 +4830,10 @@
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
       <c r="E7" t="n">
-        <v>3276</v>
+        <v>3401.470886230469</v>
       </c>
       <c r="F7" t="n">
-        <v>98065.052734375</v>
+        <v>134371.23828125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4428,10 +4844,10 @@
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
       <c r="E8" t="n">
-        <v>19953.8837890625</v>
+        <v>16998.4658203125</v>
       </c>
       <c r="F8" t="n">
-        <v>429477.453125</v>
+        <v>458175.984375</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4442,10 +4858,10 @@
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="n">
-        <v>32714.84375</v>
+        <v>25114.10498046875</v>
       </c>
       <c r="F9" t="n">
-        <v>883439.765625</v>
+        <v>867694</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4456,10 +4872,10 @@
       <c r="C10" t="s"/>
       <c r="D10" t="s"/>
       <c r="E10" t="n">
-        <v>123844.984375</v>
+        <v>98297.34375</v>
       </c>
       <c r="F10" t="n">
-        <v>2452644.25</v>
+        <v>2409430</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4498,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F18" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4512,10 +4928,10 @@
       <c r="C19" t="s"/>
       <c r="D19" t="s"/>
       <c r="E19" t="n">
-        <v>26819.01390075684</v>
+        <v>21458.25446926818</v>
       </c>
       <c r="F19" t="n">
-        <v>673006.7430245535</v>
+        <v>660920.2998246173</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4526,10 +4942,10 @@
       <c r="C20" t="s"/>
       <c r="D20" t="s"/>
       <c r="E20" t="n">
-        <v>30595.90231391939</v>
+        <v>24312.05426421196</v>
       </c>
       <c r="F20" t="n">
-        <v>754212.5537659391</v>
+        <v>741757.0630844873</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4540,10 +4956,10 @@
       <c r="C21" t="s"/>
       <c r="D21" t="s"/>
       <c r="E21" t="n">
-        <v>1334</v>
+        <v>1039.89697265625</v>
       </c>
       <c r="F21" t="n">
-        <v>58088.03125</v>
+        <v>51477.0390625</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4554,10 +4970,10 @@
       <c r="C22" t="s"/>
       <c r="D22" t="s"/>
       <c r="E22" t="n">
-        <v>3276</v>
+        <v>3487.368896484375</v>
       </c>
       <c r="F22" t="n">
-        <v>98065.052734375</v>
+        <v>133770.265625</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4568,10 +4984,10 @@
       <c r="C23" t="s"/>
       <c r="D23" t="s"/>
       <c r="E23" t="n">
-        <v>19953.8837890625</v>
+        <v>16902.26953125</v>
       </c>
       <c r="F23" t="n">
-        <v>429477.453125</v>
+        <v>459627.34375</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4582,10 +4998,10 @@
       <c r="C24" t="s"/>
       <c r="D24" t="s"/>
       <c r="E24" t="n">
-        <v>32714.84375</v>
+        <v>24272.455078125</v>
       </c>
       <c r="F24" t="n">
-        <v>883439.765625</v>
+        <v>863191</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4596,10 +5012,10 @@
       <c r="C25" t="s"/>
       <c r="D25" t="s"/>
       <c r="E25" t="n">
-        <v>123846.109375</v>
+        <v>98413.34375</v>
       </c>
       <c r="F25" t="n">
-        <v>2452644.25</v>
+        <v>2409430</v>
       </c>
     </row>
   </sheetData>

--- a/DataValidation/data validation for 105_FMILEAGE.xlsx
+++ b/DataValidation/data validation for 105_FMILEAGE.xlsx
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Latest_DW_load" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="absolute revisions" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="percentage revisions" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PonP change for 2019202008" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PonP change for 2019202009" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YonY change for 20192020" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_Data" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
@@ -21,15 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
-    <t>financial_period_key</t>
-  </si>
-  <si>
-    <t>toc_name</t>
+    <t>train_operating_company_key_toc_name</t>
   </si>
   <si>
     <t>provisional</t>
+  </si>
+  <si>
+    <t>financial_period_key</t>
   </si>
   <si>
     <t>trains_planned</t>
@@ -110,13 +110,10 @@
     <t>a</t>
   </si>
   <si>
-    <t>No data shows as having significant Period on Period change for 2019202008</t>
-  </si>
-  <si>
     <t>No data shows as being outside 95% confidence interval for Year on Year change</t>
   </si>
   <si>
-    <t>Latest Load is source item id 9197</t>
+    <t>Latest Load is source item id 9304</t>
   </si>
   <si>
     <t>count</t>
@@ -143,7 +140,7 @@
     <t>max</t>
   </si>
   <si>
-    <t>Previous Load is source item id: 9111</t>
+    <t>Previous Load is source item id: 9197</t>
   </si>
 </sst>
 </file>
@@ -492,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,13 +563,13 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="n">
         <v>2019202001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s"/>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
@@ -598,18 +595,18 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="n">
-        <v>24272.455078125</v>
+        <v>1998.159057617188</v>
       </c>
       <c r="H3" t="n">
-        <v>840809.9375</v>
+        <v>59987.203125</v>
       </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
@@ -627,18 +624,18 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
       <c r="G4" t="n">
-        <v>1460.93505859375</v>
+        <v>1721.984008789062</v>
       </c>
       <c r="H4" t="n">
-        <v>94161.609375</v>
+        <v>55559.9765625</v>
       </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
@@ -656,18 +653,18 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="n">
-        <v>5115.0849609375</v>
+        <v>1628.041015625</v>
       </c>
       <c r="H5" t="n">
-        <v>162021.828125</v>
+        <v>58410.75390625</v>
       </c>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
@@ -685,18 +682,18 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="n">
-        <v>14684.859375</v>
+        <v>1674.829956054688</v>
       </c>
       <c r="H6" t="n">
-        <v>630008.375</v>
+        <v>55063.25390625</v>
       </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
@@ -714,18 +711,18 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="n">
-        <v>16902.26953125</v>
+        <v>1114.5009765625</v>
       </c>
       <c r="H7" t="n">
-        <v>459627.34375</v>
+        <v>55899.56640625</v>
       </c>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -743,18 +740,18 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="n">
-        <v>64120.078125</v>
+        <v>1073.922973632812</v>
       </c>
       <c r="H8" t="n">
-        <v>2251425.25</v>
+        <v>51477.0390625</v>
       </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
@@ -771,21 +768,19 @@
       <c r="U8" t="s"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="1" t="n">
-        <v>2019202002</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s"/>
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="n">
-        <v>1996.659057617188</v>
+        <v>1578.28955078125</v>
       </c>
       <c r="H9" t="n">
-        <v>59987.203125</v>
+        <v>51771.88671875</v>
       </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
@@ -802,19 +797,21 @@
       <c r="U9" t="s"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s"/>
+      <c r="B10" s="1" t="s"/>
+      <c r="C10" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
       <c r="G10" t="n">
-        <v>23819.40625</v>
+        <v>24299.642578125</v>
       </c>
       <c r="H10" t="n">
-        <v>900849.9375</v>
+        <v>840809.9375</v>
       </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
@@ -832,18 +829,18 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D11" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="s"/>
       <c r="G11" t="n">
-        <v>2180.302001953125</v>
+        <v>23819.220703125</v>
       </c>
       <c r="H11" t="n">
-        <v>96634.0390625</v>
+        <v>900849.9375</v>
       </c>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
@@ -861,18 +858,18 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D12" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="n">
-        <v>5585.76806640625</v>
+        <v>28098.46875</v>
       </c>
       <c r="H12" t="n">
-        <v>142190.765625</v>
+        <v>908492.3125</v>
       </c>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
@@ -890,18 +887,18 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D13" t="s"/>
       <c r="E13" t="s"/>
       <c r="F13" t="s"/>
       <c r="G13" t="n">
-        <v>17135.0234375</v>
+        <v>27287.68359375</v>
       </c>
       <c r="H13" t="n">
-        <v>655153</v>
+        <v>940037.875</v>
       </c>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
@@ -919,18 +916,18 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D14" t="s"/>
       <c r="E14" t="s"/>
       <c r="F14" t="s"/>
       <c r="G14" t="n">
-        <v>17287.5234375</v>
+        <v>34271.46484375</v>
       </c>
       <c r="H14" t="n">
-        <v>456724.625</v>
+        <v>863191</v>
       </c>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
@@ -948,18 +945,18 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D15" t="s"/>
       <c r="E15" t="s"/>
       <c r="F15" t="s"/>
       <c r="G15" t="n">
-        <v>68463.1796875</v>
+        <v>22980.30859375</v>
       </c>
       <c r="H15" t="n">
-        <v>2323295.5</v>
+        <v>904859.75</v>
       </c>
       <c r="I15" t="s"/>
       <c r="J15" t="s"/>
@@ -976,21 +973,19 @@
       <c r="U15" t="s"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="1" t="n">
-        <v>2019202003</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s"/>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D16" t="s"/>
       <c r="E16" t="s"/>
       <c r="F16" t="s"/>
       <c r="G16" t="n">
-        <v>1722.369018554688</v>
+        <v>27870.07421875</v>
       </c>
       <c r="H16" t="n">
-        <v>55559.9765625</v>
+        <v>924610.25</v>
       </c>
       <c r="I16" t="s"/>
       <c r="J16" t="s"/>
@@ -1008,18 +1003,18 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D17" t="s"/>
       <c r="E17" t="s"/>
       <c r="F17" t="s"/>
       <c r="G17" t="n">
-        <v>28144.59765625</v>
+        <v>31559.28515625</v>
       </c>
       <c r="H17" t="n">
-        <v>908492.3125</v>
+        <v>881203</v>
       </c>
       <c r="I17" t="s"/>
       <c r="J17" t="s"/>
@@ -1036,19 +1031,21 @@
       <c r="U17" t="s"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s"/>
+      <c r="B18" s="1" t="s"/>
+      <c r="C18" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s"/>
       <c r="F18" t="s"/>
       <c r="G18" t="n">
-        <v>2098.39306640625</v>
+        <v>1460.93505859375</v>
       </c>
       <c r="H18" t="n">
-        <v>96165.4296875</v>
+        <v>94161.609375</v>
       </c>
       <c r="I18" t="s"/>
       <c r="J18" t="s"/>
@@ -1066,18 +1063,18 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
       <c r="F19" t="s"/>
       <c r="G19" t="n">
-        <v>6064.2109375</v>
+        <v>2180.302001953125</v>
       </c>
       <c r="H19" t="n">
-        <v>139014.609375</v>
+        <v>96634.0390625</v>
       </c>
       <c r="I19" t="s"/>
       <c r="J19" t="s"/>
@@ -1095,18 +1092,18 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s"/>
       <c r="F20" t="s"/>
       <c r="G20" t="n">
-        <v>17369.44921875</v>
+        <v>2098.39306640625</v>
       </c>
       <c r="H20" t="n">
-        <v>621661.875</v>
+        <v>96165.4296875</v>
       </c>
       <c r="I20" t="s"/>
       <c r="J20" t="s"/>
@@ -1124,18 +1121,18 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s"/>
       <c r="F21" t="s"/>
       <c r="G21" t="n">
-        <v>14922.181640625</v>
+        <v>3474.98388671875</v>
       </c>
       <c r="H21" t="n">
-        <v>479572.0625</v>
+        <v>132760.125</v>
       </c>
       <c r="I21" t="s"/>
       <c r="J21" t="s"/>
@@ -1153,18 +1150,18 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1" t="s"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s"/>
       <c r="F22" t="s"/>
       <c r="G22" t="n">
-        <v>70627.203125</v>
+        <v>7090.1591796875</v>
       </c>
       <c r="H22" t="n">
-        <v>2308368.5</v>
+        <v>135978.84375</v>
       </c>
       <c r="I22" t="s"/>
       <c r="J22" t="s"/>
@@ -1181,21 +1178,19 @@
       <c r="U22" t="s"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="1" t="n">
-        <v>2019202004</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s"/>
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D23" t="s"/>
       <c r="E23" t="s"/>
       <c r="F23" t="s"/>
       <c r="G23" t="n">
-        <v>1628.041015625</v>
+        <v>3180.931884765625</v>
       </c>
       <c r="H23" t="n">
-        <v>58410.75390625</v>
+        <v>144902.59375</v>
       </c>
       <c r="I23" t="s"/>
       <c r="J23" t="s"/>
@@ -1213,18 +1208,18 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s"/>
       <c r="F24" t="s"/>
       <c r="G24" t="n">
-        <v>27226.650390625</v>
+        <v>2241.339111328125</v>
       </c>
       <c r="H24" t="n">
-        <v>940037.875</v>
+        <v>139688.171875</v>
       </c>
       <c r="I24" t="s"/>
       <c r="J24" t="s"/>
@@ -1242,18 +1237,18 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s"/>
       <c r="F25" t="s"/>
       <c r="G25" t="n">
-        <v>3487.368896484375</v>
+        <v>3083.8369140625</v>
       </c>
       <c r="H25" t="n">
-        <v>132760.125</v>
+        <v>137807.3125</v>
       </c>
       <c r="I25" t="s"/>
       <c r="J25" t="s"/>
@@ -1270,19 +1265,21 @@
       <c r="U25" t="s"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s"/>
+      <c r="B26" s="1" t="s"/>
+      <c r="C26" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D26" t="s"/>
       <c r="E26" t="s"/>
       <c r="F26" t="s"/>
       <c r="G26" t="n">
-        <v>7391.89892578125</v>
+        <v>5137.1650390625</v>
       </c>
       <c r="H26" t="n">
-        <v>152723.859375</v>
+        <v>162021.828125</v>
       </c>
       <c r="I26" t="s"/>
       <c r="J26" t="s"/>
@@ -1300,18 +1297,18 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D27" t="s"/>
       <c r="E27" t="s"/>
       <c r="F27" t="s"/>
       <c r="G27" t="n">
-        <v>18602.90234375</v>
+        <v>5585.76806640625</v>
       </c>
       <c r="H27" t="n">
-        <v>633689.9375</v>
+        <v>142190.765625</v>
       </c>
       <c r="I27" t="s"/>
       <c r="J27" t="s"/>
@@ -1329,18 +1326,18 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D28" t="s"/>
       <c r="E28" t="s"/>
       <c r="F28" t="s"/>
       <c r="G28" t="n">
-        <v>16722.365234375</v>
+        <v>6064.166015625</v>
       </c>
       <c r="H28" t="n">
-        <v>484801.875</v>
+        <v>139014.609375</v>
       </c>
       <c r="I28" t="s"/>
       <c r="J28" t="s"/>
@@ -1358,18 +1355,18 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="n">
-        <v>75484.2265625</v>
+        <v>7393.01708984375</v>
       </c>
       <c r="H29" t="n">
-        <v>2409430</v>
+        <v>152723.859375</v>
       </c>
       <c r="I29" t="s"/>
       <c r="J29" t="s"/>
@@ -1386,21 +1383,19 @@
       <c r="U29" t="s"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n">
         <v>2019202005</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s"/>
       <c r="D30" t="s"/>
       <c r="E30" t="s"/>
       <c r="F30" t="s"/>
       <c r="G30" t="n">
-        <v>1674.829956054688</v>
+        <v>7562.0751953125</v>
       </c>
       <c r="H30" t="n">
-        <v>55063.25390625</v>
+        <v>130492.015625</v>
       </c>
       <c r="I30" t="s"/>
       <c r="J30" t="s"/>
@@ -1418,18 +1413,18 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1" t="s"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D31" t="s"/>
       <c r="E31" t="s"/>
       <c r="F31" t="s"/>
       <c r="G31" t="n">
-        <v>34284.3515625</v>
+        <v>6569.115234375</v>
       </c>
       <c r="H31" t="n">
-        <v>863191</v>
+        <v>133770.265625</v>
       </c>
       <c r="I31" t="s"/>
       <c r="J31" t="s"/>
@@ -1447,18 +1442,18 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1" t="s"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D32" t="s"/>
       <c r="E32" t="s"/>
       <c r="F32" t="s"/>
       <c r="G32" t="n">
-        <v>7108.7431640625</v>
+        <v>7468.9111328125</v>
       </c>
       <c r="H32" t="n">
-        <v>135978.84375</v>
+        <v>134571.5625</v>
       </c>
       <c r="I32" t="s"/>
       <c r="J32" t="s"/>
@@ -1476,18 +1471,18 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="1" t="s"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D33" t="s"/>
       <c r="E33" t="s"/>
       <c r="F33" t="s"/>
       <c r="G33" t="n">
-        <v>7573.36376953125</v>
+        <v>10536.6396484375</v>
       </c>
       <c r="H33" t="n">
-        <v>130492.015625</v>
+        <v>165150.140625</v>
       </c>
       <c r="I33" t="s"/>
       <c r="J33" t="s"/>
@@ -1504,19 +1499,21 @@
       <c r="U33" t="s"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="1" t="s"/>
+      <c r="B34" s="1" t="s"/>
+      <c r="C34" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s"/>
       <c r="F34" t="s"/>
       <c r="G34" t="n">
-        <v>24580.046875</v>
+        <v>14684.859375</v>
       </c>
       <c r="H34" t="n">
-        <v>616340.5</v>
+        <v>630008.375</v>
       </c>
       <c r="I34" t="s"/>
       <c r="J34" t="s"/>
@@ -1534,18 +1531,18 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1" t="s"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D35" t="s"/>
       <c r="E35" t="s"/>
       <c r="F35" t="s"/>
       <c r="G35" t="n">
-        <v>22663.013671875</v>
+        <v>17140.5234375</v>
       </c>
       <c r="H35" t="n">
-        <v>453371.5</v>
+        <v>655153</v>
       </c>
       <c r="I35" t="s"/>
       <c r="J35" t="s"/>
@@ -1563,18 +1560,18 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1" t="s"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D36" t="s"/>
       <c r="E36" t="s"/>
       <c r="F36" t="s"/>
       <c r="G36" t="n">
-        <v>98413.34375</v>
+        <v>17379.837890625</v>
       </c>
       <c r="H36" t="n">
-        <v>2265295.5</v>
+        <v>621661.875</v>
       </c>
       <c r="I36" t="s"/>
       <c r="J36" t="s"/>
@@ -1591,21 +1588,19 @@
       <c r="U36" t="s"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="1" t="n">
-        <v>2019202006</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="1" t="s"/>
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D37" t="s"/>
       <c r="E37" t="s"/>
       <c r="F37" t="s"/>
       <c r="G37" t="n">
-        <v>1117.740966796875</v>
+        <v>18626.560546875</v>
       </c>
       <c r="H37" t="n">
-        <v>55899.56640625</v>
+        <v>633689.9375</v>
       </c>
       <c r="I37" t="s"/>
       <c r="J37" t="s"/>
@@ -1623,18 +1618,18 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="1" t="s"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D38" t="s"/>
       <c r="E38" t="s"/>
       <c r="F38" t="s"/>
       <c r="G38" t="n">
-        <v>22961.87890625</v>
+        <v>24515.478515625</v>
       </c>
       <c r="H38" t="n">
-        <v>904859.75</v>
+        <v>616340.5</v>
       </c>
       <c r="I38" t="s"/>
       <c r="J38" t="s"/>
@@ -1652,18 +1647,18 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="1" t="s"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D39" t="s"/>
       <c r="E39" t="s"/>
       <c r="F39" t="s"/>
       <c r="G39" t="n">
-        <v>3174.431884765625</v>
+        <v>17786.1171875</v>
       </c>
       <c r="H39" t="n">
-        <v>144902.59375</v>
+        <v>613752.1875</v>
       </c>
       <c r="I39" t="s"/>
       <c r="J39" t="s"/>
@@ -1681,18 +1676,18 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1" t="s"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s"/>
       <c r="F40" t="s"/>
       <c r="G40" t="n">
-        <v>6561.40478515625</v>
+        <v>22493.244140625</v>
       </c>
       <c r="H40" t="n">
-        <v>133770.265625</v>
+        <v>643245.1875</v>
       </c>
       <c r="I40" t="s"/>
       <c r="J40" t="s"/>
@@ -1710,18 +1705,18 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1" t="s"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D41" t="s"/>
       <c r="E41" t="s"/>
       <c r="F41" t="s"/>
       <c r="G41" t="n">
-        <v>17776.931640625</v>
+        <v>26909.984375</v>
       </c>
       <c r="H41" t="n">
-        <v>613752.1875</v>
+        <v>637096.25</v>
       </c>
       <c r="I41" t="s"/>
       <c r="J41" t="s"/>
@@ -1738,19 +1733,21 @@
       <c r="U41" t="s"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="1" t="s"/>
+      <c r="B42" s="1" t="s"/>
+      <c r="C42" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D42" t="s"/>
       <c r="E42" t="s"/>
       <c r="F42" t="s"/>
       <c r="G42" t="n">
-        <v>17114.26171875</v>
+        <v>16902.26953125</v>
       </c>
       <c r="H42" t="n">
-        <v>463333.375</v>
+        <v>459627.34375</v>
       </c>
       <c r="I42" t="s"/>
       <c r="J42" t="s"/>
@@ -1768,18 +1765,18 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="1" t="s"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D43" t="s"/>
       <c r="E43" t="s"/>
       <c r="F43" t="s"/>
       <c r="G43" t="n">
-        <v>69080.6484375</v>
+        <v>17290.0234375</v>
       </c>
       <c r="H43" t="n">
-        <v>2323086</v>
+        <v>456724.625</v>
       </c>
       <c r="I43" t="s"/>
       <c r="J43" t="s"/>
@@ -1796,21 +1793,19 @@
       <c r="U43" t="s"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="1" t="n">
-        <v>2019202007</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="1" t="s"/>
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D44" t="s"/>
       <c r="E44" t="s"/>
       <c r="F44" t="s"/>
       <c r="G44" t="n">
-        <v>1039.89697265625</v>
+        <v>14917.8935546875</v>
       </c>
       <c r="H44" t="n">
-        <v>51477.0390625</v>
+        <v>479572.0625</v>
       </c>
       <c r="I44" t="s"/>
       <c r="J44" t="s"/>
@@ -1828,18 +1823,18 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="s"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D45" t="s"/>
       <c r="E45" t="s"/>
       <c r="F45" t="s"/>
       <c r="G45" t="n">
-        <v>27668.080078125</v>
+        <v>16824.890625</v>
       </c>
       <c r="H45" t="n">
-        <v>924610.25</v>
+        <v>484801.875</v>
       </c>
       <c r="I45" t="s"/>
       <c r="J45" t="s"/>
@@ -1857,18 +1852,18 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="1" t="s"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D46" t="s"/>
       <c r="E46" t="s"/>
       <c r="F46" t="s"/>
       <c r="G46" t="n">
-        <v>2099.591064453125</v>
+        <v>22654.337890625</v>
       </c>
       <c r="H46" t="n">
-        <v>139688.171875</v>
+        <v>453371.5</v>
       </c>
       <c r="I46" t="s"/>
       <c r="J46" t="s"/>
@@ -1886,18 +1881,18 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1" t="s"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D47" t="s"/>
       <c r="E47" t="s"/>
       <c r="F47" t="s"/>
       <c r="G47" t="n">
-        <v>7425.51416015625</v>
+        <v>17094.662109375</v>
       </c>
       <c r="H47" t="n">
-        <v>134571.5625</v>
+        <v>463333.375</v>
       </c>
       <c r="I47" t="s"/>
       <c r="J47" t="s"/>
@@ -1915,18 +1910,18 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D48" t="s"/>
       <c r="E48" t="s"/>
       <c r="F48" t="s"/>
       <c r="G48" t="n">
-        <v>22409.703125</v>
+        <v>20122.6875</v>
       </c>
       <c r="H48" t="n">
-        <v>643245.1875</v>
+        <v>442925.90625</v>
       </c>
       <c r="I48" t="s"/>
       <c r="J48" t="s"/>
@@ -1944,18 +1939,18 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="1" t="s"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s"/>
       <c r="F49" t="s"/>
       <c r="G49" t="n">
-        <v>20054.080078125</v>
+        <v>22739.529296875</v>
       </c>
       <c r="H49" t="n">
-        <v>442925.90625</v>
+        <v>450251.78125</v>
       </c>
       <c r="I49" t="s"/>
       <c r="J49" t="s"/>
@@ -1972,19 +1967,21 @@
       <c r="U49" t="s"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="1" t="s"/>
+      <c r="B50" s="1" t="s"/>
+      <c r="C50" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D50" t="s"/>
       <c r="E50" t="s"/>
       <c r="F50" t="s"/>
       <c r="G50" t="n">
-        <v>80931.734375</v>
+        <v>64169.34765625</v>
       </c>
       <c r="H50" t="n">
-        <v>2341969.25</v>
+        <v>2251425.25</v>
       </c>
       <c r="I50" t="s"/>
       <c r="J50" t="s"/>
@@ -2000,15 +1997,225 @@
       <c r="T50" t="s"/>
       <c r="U50" t="s"/>
     </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n">
+        <v>2019202002</v>
+      </c>
+      <c r="D51" t="s"/>
+      <c r="E51" t="s"/>
+      <c r="F51" t="s"/>
+      <c r="G51" t="n">
+        <v>68472.4921875</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2323295.5</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s"/>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="s"/>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="D52" t="s"/>
+      <c r="E52" t="s"/>
+      <c r="F52" t="s"/>
+      <c r="G52" t="n">
+        <v>70586.7421875</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2308368.5</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s"/>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="s"/>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="D53" t="s"/>
+      <c r="E53" t="s"/>
+      <c r="F53" t="s"/>
+      <c r="G53" t="n">
+        <v>75660.1796875</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2409430</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s"/>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="D54" t="s"/>
+      <c r="E54" t="s"/>
+      <c r="F54" t="s"/>
+      <c r="G54" t="n">
+        <v>98297.34375</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2265295.5</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n">
+        <v>2019202006</v>
+      </c>
+      <c r="D55" t="s"/>
+      <c r="E55" t="s"/>
+      <c r="F55" t="s"/>
+      <c r="G55" t="n">
+        <v>69099.6328125</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2323086</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s"/>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="s"/>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n">
+        <v>2019202007</v>
+      </c>
+      <c r="D56" t="s"/>
+      <c r="E56" t="s"/>
+      <c r="F56" t="s"/>
+      <c r="G56" t="n">
+        <v>81502.3515625</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2341969.25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s"/>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="s"/>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D57" t="s"/>
+      <c r="E57" t="s"/>
+      <c r="F57" t="s"/>
+      <c r="G57" t="n">
+        <v>97495.3515625</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2335668.25</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s"/>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="s"/>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A50"/>
+  <mergeCells count="14">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B50:B57"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2020,7 +2227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2094,18 +2301,18 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="n">
         <v>2019202001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s"/>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
       <c r="G2" t="n">
-        <v>1225.475952148438</v>
+        <v>1224.97900390625</v>
       </c>
       <c r="H2" t="n">
         <v>53692.3671875</v>
@@ -2126,18 +2333,18 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="n">
-        <v>24299.642578125</v>
+        <v>1995.265014648438</v>
       </c>
       <c r="H3" t="n">
-        <v>840809.9375</v>
+        <v>59987.203125</v>
       </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
@@ -2155,18 +2362,18 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
       <c r="G4" t="n">
-        <v>1460.93505859375</v>
+        <v>1756.238037109375</v>
       </c>
       <c r="H4" t="n">
-        <v>94161.609375</v>
+        <v>55559.9765625</v>
       </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
@@ -2184,18 +2391,18 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="n">
-        <v>5137.1650390625</v>
+        <v>1607.052978515625</v>
       </c>
       <c r="H5" t="n">
-        <v>162021.828125</v>
+        <v>58410.75390625</v>
       </c>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
@@ -2213,18 +2420,18 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="n">
-        <v>14684.859375</v>
+        <v>1671.326049804688</v>
       </c>
       <c r="H6" t="n">
-        <v>630008.375</v>
+        <v>55063.25390625</v>
       </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
@@ -2242,18 +2449,18 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="n">
-        <v>16902.26953125</v>
+        <v>1114.682983398438</v>
       </c>
       <c r="H7" t="n">
-        <v>459627.34375</v>
+        <v>55899.56640625</v>
       </c>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -2271,18 +2478,18 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="n">
-        <v>64169.34765625</v>
+        <v>1084.801025390625</v>
       </c>
       <c r="H8" t="n">
-        <v>2251425.25</v>
+        <v>51477.0390625</v>
       </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
@@ -2299,21 +2506,19 @@
       <c r="U8" t="s"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="1" t="n">
-        <v>2019202002</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s"/>
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="n">
-        <v>1998.159057617188</v>
+        <v>1557.779052734375</v>
       </c>
       <c r="H9" t="n">
-        <v>59987.203125</v>
+        <v>51771.88671875</v>
       </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
@@ -2331,18 +2536,18 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n">
+        <v>2019202009</v>
+      </c>
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
       <c r="G10" t="n">
-        <v>23819.220703125</v>
+        <v>3163.7880859375</v>
       </c>
       <c r="H10" t="n">
-        <v>900849.9375</v>
+        <v>53698.609375</v>
       </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
@@ -2359,19 +2564,21 @@
       <c r="U10" t="s"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s"/>
+      <c r="C11" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D11" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="s"/>
       <c r="G11" t="n">
-        <v>2180.302001953125</v>
+        <v>24369.60546875</v>
       </c>
       <c r="H11" t="n">
-        <v>96634.0390625</v>
+        <v>840809.9375</v>
       </c>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
@@ -2389,18 +2596,18 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D12" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="n">
-        <v>5585.76806640625</v>
+        <v>23804.33984375</v>
       </c>
       <c r="H12" t="n">
-        <v>142190.765625</v>
+        <v>900849.9375</v>
       </c>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
@@ -2418,18 +2625,18 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D13" t="s"/>
       <c r="E13" t="s"/>
       <c r="F13" t="s"/>
       <c r="G13" t="n">
-        <v>17140.5234375</v>
+        <v>28081.0625</v>
       </c>
       <c r="H13" t="n">
-        <v>655153</v>
+        <v>908492.3125</v>
       </c>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
@@ -2447,18 +2654,18 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D14" t="s"/>
       <c r="E14" t="s"/>
       <c r="F14" t="s"/>
       <c r="G14" t="n">
-        <v>17290.0234375</v>
+        <v>27264.787109375</v>
       </c>
       <c r="H14" t="n">
-        <v>456724.625</v>
+        <v>940037.875</v>
       </c>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
@@ -2476,18 +2683,18 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D15" t="s"/>
       <c r="E15" t="s"/>
       <c r="F15" t="s"/>
       <c r="G15" t="n">
-        <v>68472.4921875</v>
+        <v>34194.12890625</v>
       </c>
       <c r="H15" t="n">
-        <v>2323295.5</v>
+        <v>863191</v>
       </c>
       <c r="I15" t="s"/>
       <c r="J15" t="s"/>
@@ -2504,21 +2711,19 @@
       <c r="U15" t="s"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="1" t="n">
-        <v>2019202003</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s"/>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D16" t="s"/>
       <c r="E16" t="s"/>
       <c r="F16" t="s"/>
       <c r="G16" t="n">
-        <v>1721.984008789062</v>
+        <v>22955.908203125</v>
       </c>
       <c r="H16" t="n">
-        <v>55559.9765625</v>
+        <v>904859.75</v>
       </c>
       <c r="I16" t="s"/>
       <c r="J16" t="s"/>
@@ -2536,18 +2741,18 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D17" t="s"/>
       <c r="E17" t="s"/>
       <c r="F17" t="s"/>
       <c r="G17" t="n">
-        <v>28098.46875</v>
+        <v>27855.25</v>
       </c>
       <c r="H17" t="n">
-        <v>908492.3125</v>
+        <v>924610.25</v>
       </c>
       <c r="I17" t="s"/>
       <c r="J17" t="s"/>
@@ -2565,18 +2770,18 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s"/>
       <c r="F18" t="s"/>
       <c r="G18" t="n">
-        <v>2098.39306640625</v>
+        <v>32038.171875</v>
       </c>
       <c r="H18" t="n">
-        <v>96165.4296875</v>
+        <v>881203</v>
       </c>
       <c r="I18" t="s"/>
       <c r="J18" t="s"/>
@@ -2594,18 +2799,18 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n">
+        <v>2019202009</v>
+      </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
       <c r="F19" t="s"/>
       <c r="G19" t="n">
-        <v>6064.166015625</v>
+        <v>36232.60546875</v>
       </c>
       <c r="H19" t="n">
-        <v>139014.609375</v>
+        <v>840057.125</v>
       </c>
       <c r="I19" t="s"/>
       <c r="J19" t="s"/>
@@ -2622,19 +2827,21 @@
       <c r="U19" t="s"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s"/>
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s"/>
+      <c r="C20" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s"/>
       <c r="F20" t="s"/>
       <c r="G20" t="n">
-        <v>17379.837890625</v>
+        <v>1453.494995117188</v>
       </c>
       <c r="H20" t="n">
-        <v>621661.875</v>
+        <v>94161.609375</v>
       </c>
       <c r="I20" t="s"/>
       <c r="J20" t="s"/>
@@ -2652,18 +2859,18 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s"/>
       <c r="F21" t="s"/>
       <c r="G21" t="n">
-        <v>14917.8935546875</v>
+        <v>2180.14892578125</v>
       </c>
       <c r="H21" t="n">
-        <v>479572.0625</v>
+        <v>96634.0390625</v>
       </c>
       <c r="I21" t="s"/>
       <c r="J21" t="s"/>
@@ -2681,18 +2888,18 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1" t="s"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s"/>
       <c r="F22" t="s"/>
       <c r="G22" t="n">
-        <v>70586.7421875</v>
+        <v>2093.8330078125</v>
       </c>
       <c r="H22" t="n">
-        <v>2308368.5</v>
+        <v>96165.4296875</v>
       </c>
       <c r="I22" t="s"/>
       <c r="J22" t="s"/>
@@ -2709,21 +2916,19 @@
       <c r="U22" t="s"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n">
         <v>2019202004</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s"/>
       <c r="D23" t="s"/>
       <c r="E23" t="s"/>
       <c r="F23" t="s"/>
       <c r="G23" t="n">
-        <v>1628.041015625</v>
+        <v>3465.928955078125</v>
       </c>
       <c r="H23" t="n">
-        <v>58410.75390625</v>
+        <v>132760.125</v>
       </c>
       <c r="I23" t="s"/>
       <c r="J23" t="s"/>
@@ -2741,18 +2946,18 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s"/>
       <c r="F24" t="s"/>
       <c r="G24" t="n">
-        <v>27287.68359375</v>
+        <v>7075.8779296875</v>
       </c>
       <c r="H24" t="n">
-        <v>940037.875</v>
+        <v>135978.84375</v>
       </c>
       <c r="I24" t="s"/>
       <c r="J24" t="s"/>
@@ -2770,18 +2975,18 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s"/>
       <c r="F25" t="s"/>
       <c r="G25" t="n">
-        <v>3474.98388671875</v>
+        <v>3179.10888671875</v>
       </c>
       <c r="H25" t="n">
-        <v>132760.125</v>
+        <v>144902.59375</v>
       </c>
       <c r="I25" t="s"/>
       <c r="J25" t="s"/>
@@ -2799,18 +3004,18 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D26" t="s"/>
       <c r="E26" t="s"/>
       <c r="F26" t="s"/>
       <c r="G26" t="n">
-        <v>7393.01708984375</v>
+        <v>2242.325927734375</v>
       </c>
       <c r="H26" t="n">
-        <v>152723.859375</v>
+        <v>139688.171875</v>
       </c>
       <c r="I26" t="s"/>
       <c r="J26" t="s"/>
@@ -2828,18 +3033,18 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D27" t="s"/>
       <c r="E27" t="s"/>
       <c r="F27" t="s"/>
       <c r="G27" t="n">
-        <v>18626.560546875</v>
+        <v>3115.48388671875</v>
       </c>
       <c r="H27" t="n">
-        <v>633689.9375</v>
+        <v>137807.3125</v>
       </c>
       <c r="I27" t="s"/>
       <c r="J27" t="s"/>
@@ -2857,18 +3062,18 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n">
+        <v>2019202009</v>
+      </c>
       <c r="D28" t="s"/>
       <c r="E28" t="s"/>
       <c r="F28" t="s"/>
       <c r="G28" t="n">
-        <v>16824.890625</v>
+        <v>4409.93896484375</v>
       </c>
       <c r="H28" t="n">
-        <v>484801.875</v>
+        <v>138044.828125</v>
       </c>
       <c r="I28" t="s"/>
       <c r="J28" t="s"/>
@@ -2885,19 +3090,21 @@
       <c r="U28" t="s"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s"/>
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s"/>
+      <c r="C29" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="n">
-        <v>75660.1796875</v>
+        <v>5128.89794921875</v>
       </c>
       <c r="H29" t="n">
-        <v>2409430</v>
+        <v>162021.828125</v>
       </c>
       <c r="I29" t="s"/>
       <c r="J29" t="s"/>
@@ -2914,21 +3121,19 @@
       <c r="U29" t="s"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="1" t="n">
-        <v>2019202005</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s"/>
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D30" t="s"/>
       <c r="E30" t="s"/>
       <c r="F30" t="s"/>
       <c r="G30" t="n">
-        <v>1674.829956054688</v>
+        <v>5580.2978515625</v>
       </c>
       <c r="H30" t="n">
-        <v>55063.25390625</v>
+        <v>142190.765625</v>
       </c>
       <c r="I30" t="s"/>
       <c r="J30" t="s"/>
@@ -2946,18 +3151,18 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1" t="s"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D31" t="s"/>
       <c r="E31" t="s"/>
       <c r="F31" t="s"/>
       <c r="G31" t="n">
-        <v>34271.46484375</v>
+        <v>6055.0341796875</v>
       </c>
       <c r="H31" t="n">
-        <v>863191</v>
+        <v>139014.609375</v>
       </c>
       <c r="I31" t="s"/>
       <c r="J31" t="s"/>
@@ -2975,18 +3180,18 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1" t="s"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D32" t="s"/>
       <c r="E32" t="s"/>
       <c r="F32" t="s"/>
       <c r="G32" t="n">
-        <v>7090.1591796875</v>
+        <v>7387.02001953125</v>
       </c>
       <c r="H32" t="n">
-        <v>135978.84375</v>
+        <v>152723.859375</v>
       </c>
       <c r="I32" t="s"/>
       <c r="J32" t="s"/>
@@ -3004,15 +3209,15 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="1" t="s"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D33" t="s"/>
       <c r="E33" t="s"/>
       <c r="F33" t="s"/>
       <c r="G33" t="n">
-        <v>7562.0751953125</v>
+        <v>7542.89501953125</v>
       </c>
       <c r="H33" t="n">
         <v>130492.015625</v>
@@ -3033,18 +3238,18 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s"/>
       <c r="F34" t="s"/>
       <c r="G34" t="n">
-        <v>24515.478515625</v>
+        <v>6503.8310546875</v>
       </c>
       <c r="H34" t="n">
-        <v>616340.5</v>
+        <v>133770.265625</v>
       </c>
       <c r="I34" t="s"/>
       <c r="J34" t="s"/>
@@ -3062,18 +3267,18 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1" t="s"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D35" t="s"/>
       <c r="E35" t="s"/>
       <c r="F35" t="s"/>
       <c r="G35" t="n">
-        <v>22654.337890625</v>
+        <v>7486.85986328125</v>
       </c>
       <c r="H35" t="n">
-        <v>453371.5</v>
+        <v>134571.5625</v>
       </c>
       <c r="I35" t="s"/>
       <c r="J35" t="s"/>
@@ -3091,18 +3296,18 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1" t="s"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D36" t="s"/>
       <c r="E36" t="s"/>
       <c r="F36" t="s"/>
       <c r="G36" t="n">
-        <v>98297.34375</v>
+        <v>10834.2392578125</v>
       </c>
       <c r="H36" t="n">
-        <v>2265295.5</v>
+        <v>165150.140625</v>
       </c>
       <c r="I36" t="s"/>
       <c r="J36" t="s"/>
@@ -3119,21 +3324,19 @@
       <c r="U36" t="s"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="1" t="n">
-        <v>2019202006</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="1" t="s"/>
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n">
+        <v>2019202009</v>
+      </c>
       <c r="D37" t="s"/>
       <c r="E37" t="s"/>
       <c r="F37" t="s"/>
       <c r="G37" t="n">
-        <v>1114.5009765625</v>
+        <v>15427.521484375</v>
       </c>
       <c r="H37" t="n">
-        <v>55899.56640625</v>
+        <v>248417.75</v>
       </c>
       <c r="I37" t="s"/>
       <c r="J37" t="s"/>
@@ -3150,19 +3353,21 @@
       <c r="U37" t="s"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="1" t="s"/>
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s"/>
+      <c r="C38" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D38" t="s"/>
       <c r="E38" t="s"/>
       <c r="F38" t="s"/>
       <c r="G38" t="n">
-        <v>22980.30859375</v>
+        <v>14673.74609375</v>
       </c>
       <c r="H38" t="n">
-        <v>904859.75</v>
+        <v>630008.375</v>
       </c>
       <c r="I38" t="s"/>
       <c r="J38" t="s"/>
@@ -3180,18 +3385,18 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="1" t="s"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D39" t="s"/>
       <c r="E39" t="s"/>
       <c r="F39" t="s"/>
       <c r="G39" t="n">
-        <v>3180.931884765625</v>
+        <v>17092.81640625</v>
       </c>
       <c r="H39" t="n">
-        <v>144902.59375</v>
+        <v>655153</v>
       </c>
       <c r="I39" t="s"/>
       <c r="J39" t="s"/>
@@ -3209,18 +3414,18 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1" t="s"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s"/>
       <c r="F40" t="s"/>
       <c r="G40" t="n">
-        <v>6569.115234375</v>
+        <v>17298.888671875</v>
       </c>
       <c r="H40" t="n">
-        <v>133770.265625</v>
+        <v>621661.875</v>
       </c>
       <c r="I40" t="s"/>
       <c r="J40" t="s"/>
@@ -3238,18 +3443,18 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1" t="s"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D41" t="s"/>
       <c r="E41" t="s"/>
       <c r="F41" t="s"/>
       <c r="G41" t="n">
-        <v>17786.1171875</v>
+        <v>18727.291015625</v>
       </c>
       <c r="H41" t="n">
-        <v>613752.1875</v>
+        <v>633689.9375</v>
       </c>
       <c r="I41" t="s"/>
       <c r="J41" t="s"/>
@@ -3267,18 +3472,18 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="1" t="s"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D42" t="s"/>
       <c r="E42" t="s"/>
       <c r="F42" t="s"/>
       <c r="G42" t="n">
-        <v>17094.662109375</v>
+        <v>24315.171875</v>
       </c>
       <c r="H42" t="n">
-        <v>463333.375</v>
+        <v>616340.5</v>
       </c>
       <c r="I42" t="s"/>
       <c r="J42" t="s"/>
@@ -3296,18 +3501,18 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="1" t="s"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D43" t="s"/>
       <c r="E43" t="s"/>
       <c r="F43" t="s"/>
       <c r="G43" t="n">
-        <v>69099.6328125</v>
+        <v>17721.76953125</v>
       </c>
       <c r="H43" t="n">
-        <v>2323086</v>
+        <v>613752.1875</v>
       </c>
       <c r="I43" t="s"/>
       <c r="J43" t="s"/>
@@ -3324,21 +3529,19 @@
       <c r="U43" t="s"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n">
         <v>2019202007</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="1" t="s"/>
       <c r="D44" t="s"/>
       <c r="E44" t="s"/>
       <c r="F44" t="s"/>
       <c r="G44" t="n">
-        <v>1073.922973632812</v>
+        <v>22684.2734375</v>
       </c>
       <c r="H44" t="n">
-        <v>51477.0390625</v>
+        <v>643245.1875</v>
       </c>
       <c r="I44" t="s"/>
       <c r="J44" t="s"/>
@@ -3356,18 +3559,18 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="s"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D45" t="s"/>
       <c r="E45" t="s"/>
       <c r="F45" t="s"/>
       <c r="G45" t="n">
-        <v>27870.07421875</v>
+        <v>26685.16015625</v>
       </c>
       <c r="H45" t="n">
-        <v>924610.25</v>
+        <v>637096.25</v>
       </c>
       <c r="I45" t="s"/>
       <c r="J45" t="s"/>
@@ -3385,18 +3588,18 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="1" t="s"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n">
+        <v>2019202009</v>
+      </c>
       <c r="D46" t="s"/>
       <c r="E46" t="s"/>
       <c r="F46" t="s"/>
       <c r="G46" t="n">
-        <v>2241.339111328125</v>
+        <v>29800.783203125</v>
       </c>
       <c r="H46" t="n">
-        <v>139688.171875</v>
+        <v>637895.125</v>
       </c>
       <c r="I46" t="s"/>
       <c r="J46" t="s"/>
@@ -3413,19 +3616,21 @@
       <c r="U46" t="s"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1" t="s"/>
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1" t="s"/>
+      <c r="C47" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D47" t="s"/>
       <c r="E47" t="s"/>
       <c r="F47" t="s"/>
       <c r="G47" t="n">
-        <v>7468.9111328125</v>
+        <v>16888.8359375</v>
       </c>
       <c r="H47" t="n">
-        <v>134571.5625</v>
+        <v>459627.34375</v>
       </c>
       <c r="I47" t="s"/>
       <c r="J47" t="s"/>
@@ -3443,18 +3648,18 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D48" t="s"/>
       <c r="E48" t="s"/>
       <c r="F48" t="s"/>
       <c r="G48" t="n">
-        <v>22493.244140625</v>
+        <v>17282.908203125</v>
       </c>
       <c r="H48" t="n">
-        <v>643245.1875</v>
+        <v>456724.625</v>
       </c>
       <c r="I48" t="s"/>
       <c r="J48" t="s"/>
@@ -3472,18 +3677,18 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="1" t="s"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s"/>
       <c r="F49" t="s"/>
       <c r="G49" t="n">
-        <v>20122.6875</v>
+        <v>14901.2216796875</v>
       </c>
       <c r="H49" t="n">
-        <v>442925.90625</v>
+        <v>479572.0625</v>
       </c>
       <c r="I49" t="s"/>
       <c r="J49" t="s"/>
@@ -3501,18 +3706,18 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="1" t="s"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D50" t="s"/>
       <c r="E50" t="s"/>
       <c r="F50" t="s"/>
       <c r="G50" t="n">
-        <v>81502.3515625</v>
+        <v>16806.16796875</v>
       </c>
       <c r="H50" t="n">
-        <v>2341969.25</v>
+        <v>484801.875</v>
       </c>
       <c r="I50" t="s"/>
       <c r="J50" t="s"/>
@@ -3529,21 +3734,19 @@
       <c r="U50" t="s"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="1" t="n">
-        <v>2019202008</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="1" t="s"/>
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D51" t="s"/>
       <c r="E51" t="s"/>
       <c r="F51" t="s"/>
       <c r="G51" t="n">
-        <v>1578.28955078125</v>
+        <v>22697.892578125</v>
       </c>
       <c r="H51" t="n">
-        <v>51771.88671875</v>
+        <v>453371.5</v>
       </c>
       <c r="I51" t="s"/>
       <c r="J51" t="s"/>
@@ -3561,18 +3764,18 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="1" t="s"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D52" t="s"/>
       <c r="E52" t="s"/>
       <c r="F52" t="s"/>
       <c r="G52" t="n">
-        <v>31559.28515625</v>
+        <v>17093.43359375</v>
       </c>
       <c r="H52" t="n">
-        <v>881203</v>
+        <v>463333.375</v>
       </c>
       <c r="I52" t="s"/>
       <c r="J52" t="s"/>
@@ -3590,18 +3793,18 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="1" t="s"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D53" t="s"/>
       <c r="E53" t="s"/>
       <c r="F53" t="s"/>
       <c r="G53" t="n">
-        <v>3083.8369140625</v>
+        <v>20222.357421875</v>
       </c>
       <c r="H53" t="n">
-        <v>137807.3125</v>
+        <v>442925.90625</v>
       </c>
       <c r="I53" t="s"/>
       <c r="J53" t="s"/>
@@ -3619,18 +3822,18 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="1" t="s"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D54" t="s"/>
       <c r="E54" t="s"/>
       <c r="F54" t="s"/>
       <c r="G54" t="n">
-        <v>10536.6396484375</v>
+        <v>23301.64453125</v>
       </c>
       <c r="H54" t="n">
-        <v>165150.140625</v>
+        <v>450251.78125</v>
       </c>
       <c r="I54" t="s"/>
       <c r="J54" t="s"/>
@@ -3648,18 +3851,18 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="1" t="s"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n">
+        <v>2019202009</v>
+      </c>
       <c r="D55" t="s"/>
       <c r="E55" t="s"/>
       <c r="F55" t="s"/>
       <c r="G55" t="n">
-        <v>26909.984375</v>
+        <v>27335.36328125</v>
       </c>
       <c r="H55" t="n">
-        <v>637096.25</v>
+        <v>502916.03125</v>
       </c>
       <c r="I55" t="s"/>
       <c r="J55" t="s"/>
@@ -3676,19 +3879,21 @@
       <c r="U55" t="s"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="1" t="s"/>
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="1" t="s"/>
+      <c r="C56" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D56" t="s"/>
       <c r="E56" t="s"/>
       <c r="F56" t="s"/>
       <c r="G56" t="n">
-        <v>22739.529296875</v>
+        <v>64198.55859375</v>
       </c>
       <c r="H56" t="n">
-        <v>450251.78125</v>
+        <v>2251425.25</v>
       </c>
       <c r="I56" t="s"/>
       <c r="J56" t="s"/>
@@ -3706,18 +3911,18 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="1" t="s"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D57" t="s"/>
       <c r="E57" t="s"/>
       <c r="F57" t="s"/>
       <c r="G57" t="n">
-        <v>97495.3515625</v>
+        <v>68394.28125</v>
       </c>
       <c r="H57" t="n">
-        <v>2335668.25</v>
+        <v>2323295.5</v>
       </c>
       <c r="I57" t="s"/>
       <c r="J57" t="s"/>
@@ -3733,16 +3938,225 @@
       <c r="T57" t="s"/>
       <c r="U57" t="s"/>
     </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="D58" t="s"/>
+      <c r="E58" t="s"/>
+      <c r="F58" t="s"/>
+      <c r="G58" t="n">
+        <v>70492.28125</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2308368.5</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s"/>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="s"/>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="D59" t="s"/>
+      <c r="E59" t="s"/>
+      <c r="F59" t="s"/>
+      <c r="G59" t="n">
+        <v>75683.25</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2409430</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s"/>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="s"/>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="D60" t="s"/>
+      <c r="E60" t="s"/>
+      <c r="F60" t="s"/>
+      <c r="G60" t="n">
+        <v>98030.296875</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2265295.5</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s"/>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="s"/>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n">
+        <v>2019202006</v>
+      </c>
+      <c r="D61" t="s"/>
+      <c r="E61" t="s"/>
+      <c r="F61" t="s"/>
+      <c r="G61" t="n">
+        <v>68942.734375</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2323086</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s"/>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="s"/>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n">
+        <v>2019202007</v>
+      </c>
+      <c r="D62" t="s"/>
+      <c r="E62" t="s"/>
+      <c r="F62" t="s"/>
+      <c r="G62" t="n">
+        <v>81768.875</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2341969.25</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s"/>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="s"/>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D63" t="s"/>
+      <c r="E63" t="s"/>
+      <c r="F63" t="s"/>
+      <c r="G63" t="n">
+        <v>98404</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2335668.25</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s"/>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="s"/>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n">
+        <v>2019202009</v>
+      </c>
+      <c r="D64" t="s"/>
+      <c r="E64" t="s"/>
+      <c r="F64" t="s"/>
+      <c r="G64" t="n">
+        <v>118003.296875</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2435859.75</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s"/>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="s"/>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A51:A57"/>
+  <mergeCells count="14">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="B56:B64"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -3754,7 +4168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3777,428 +4191,595 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="n">
         <v>2019202001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s"/>
       <c r="D2" t="n">
-        <v>27.1875</v>
+        <v>-0.4969482421875</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D3" t="n">
-        <v>22.080078125</v>
+        <v>-2.89404296875</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D4" t="n">
-        <v>49.26953125</v>
+        <v>34.2540283203125</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="n">
-        <v>2019202002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s"/>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>-20.988037109375</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D6" t="n">
-        <v>-0.185546875</v>
+        <v>-3.50390625</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D7" t="n">
-        <v>5.5</v>
+        <v>0.1820068359375</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D8" t="n">
-        <v>2.5</v>
+        <v>10.8780517578125</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D9" t="n">
-        <v>9.3125</v>
+        <v>-20.510498046875</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="n">
-        <v>2019202003</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s"/>
+      <c r="C10" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D10" t="n">
-        <v>-0.385009765625</v>
+        <v>69.962890625</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D11" t="n">
-        <v>-46.12890625</v>
+        <v>-14.880859375</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D12" t="n">
-        <v>-0.044921875</v>
+        <v>-17.40625</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D13" t="n">
-        <v>10.388671875</v>
+        <v>-22.896484375</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D14" t="n">
-        <v>-4.2880859375</v>
+        <v>-77.3359375</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D15" t="n">
-        <v>-40.4609375</v>
+        <v>-24.400390625</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="n">
-        <v>2019202004</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s"/>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D16" t="n">
-        <v>61.033203125</v>
+        <v>-14.82421875</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D17" t="n">
+        <v>478.88671875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s"/>
-      <c r="D17" t="n">
-        <v>-12.385009765625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s"/>
+      <c r="B18" s="1" t="s"/>
+      <c r="C18" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D18" t="n">
-        <v>1.1181640625</v>
+        <v>-7.4400634765625</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D19" t="n">
-        <v>23.658203125</v>
+        <v>-0.153076171875</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D20" t="n">
-        <v>102.525390625</v>
+        <v>-4.56005859375</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D21" t="n">
-        <v>175.953125</v>
+        <v>-9.054931640625</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n">
         <v>2019202005</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s"/>
       <c r="D22" t="n">
-        <v>-12.88671875</v>
+        <v>-14.28125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D23" t="n">
-        <v>-18.583984375</v>
+        <v>-1.822998046875</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D24" t="n">
-        <v>-11.28857421875</v>
+        <v>0.98681640625</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D25" t="n">
-        <v>-64.568359375</v>
+        <v>31.64697265625</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s"/>
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s"/>
+      <c r="C26" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D26" t="n">
-        <v>-8.67578125</v>
+        <v>-8.26708984375</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D27" t="n">
-        <v>-116</v>
+        <v>-5.47021484375</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="n">
-        <v>2019202006</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s"/>
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D28" t="n">
-        <v>-3.239990234375</v>
+        <v>-9.1318359375</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D29" t="n">
-        <v>18.4296875</v>
+        <v>-5.9970703125</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="1" t="s"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D30" t="n">
-        <v>6.5</v>
+        <v>-19.18017578125</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D31" t="n">
-        <v>7.71044921875</v>
+        <v>-65.2841796875</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1" t="s"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D32" t="n">
-        <v>9.185546875</v>
+        <v>17.94873046875</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="1" t="s"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D33" t="n">
-        <v>-19.599609375</v>
+        <v>297.599609375</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="1" t="s"/>
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s"/>
+      <c r="C34" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D34" t="n">
-        <v>18.984375</v>
+        <v>-11.11328125</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="n">
-        <v>2019202007</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="1" t="s"/>
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D35" t="n">
-        <v>34.0260009765625</v>
+        <v>-47.70703125</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="1" t="s"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D36" t="n">
-        <v>201.994140625</v>
+        <v>-80.94921875</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="1" t="s"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D37" t="n">
-        <v>141.748046875</v>
+        <v>100.73046875</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D38" t="n">
-        <v>43.39697265625</v>
+        <v>-200.306640625</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1" t="s"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D39" t="n">
-        <v>83.541015625</v>
+        <v>-64.34765625</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="1" t="s"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D40" t="n">
-        <v>68.607421875</v>
+        <v>191.029296875</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-224.82421875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1" t="s"/>
+      <c r="C42" s="1" t="n">
+        <v>2019202001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-13.43359375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n">
+        <v>2019202002</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-7.115234375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-16.671875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-18.72265625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="D46" t="n">
+        <v>43.5546875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n">
+        <v>2019202006</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1.228515625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n">
+        <v>2019202007</v>
+      </c>
+      <c r="D48" t="n">
+        <v>99.669921875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D49" t="n">
+        <v>562.115234375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1" t="s"/>
-      <c r="D41" t="n">
-        <v>570.6171875</v>
+      <c r="B50" s="1" t="s"/>
+      <c r="C50" s="1" t="n">
+        <v>2019202001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>29.2109375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n">
+        <v>2019202002</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-78.2109375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-94.4609375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="D53" t="n">
+        <v>23.0703125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-267.046875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n">
+        <v>2019202006</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-156.8984375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n">
+        <v>2019202007</v>
+      </c>
+      <c r="D56" t="n">
+        <v>266.5234375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D57" t="n">
+        <v>908.6484375</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A41"/>
+  <mergeCells count="14">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B50:B57"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -4210,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,428 +4814,595 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="n">
         <v>2019202001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s"/>
       <c r="D2" t="n">
-        <v>0.112009683043979</v>
+        <v>-0.04055144789387972</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.4316659115854282</v>
+        <v>-0.1448354653108125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D4" t="n">
-        <v>0.07683947476475411</v>
+        <v>1.989218723604797</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="n">
-        <v>2019202002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s"/>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D5" t="n">
-        <v>0.07512549497509603</v>
+        <v>-1.289158989727157</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D6" t="n">
-        <v>-0.0007789735522899527</v>
+        <v>-0.209209671545043</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D7" t="n">
-        <v>0.0320980010331544</v>
+        <v>0.01633079196564466</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D8" t="n">
-        <v>0.01446129637387513</v>
+        <v>1.012926627411161</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D9" t="n">
-        <v>0.01360220200479569</v>
+        <v>-1.299539621023427</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="n">
-        <v>2019202003</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s"/>
+      <c r="C10" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D10" t="n">
-        <v>-0.02235350041003861</v>
+        <v>0.2879173650396896</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D11" t="n">
-        <v>-0.1638996826794441</v>
+        <v>-0.06247416555088085</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D12" t="n">
-        <v>-0.0007407703238390196</v>
+        <v>-0.06194732586628942</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.05981002474036783</v>
+        <v>-0.08390776115655429</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D14" t="n">
-        <v>-0.02873632047090132</v>
+        <v>-0.2256569360329037</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D15" t="n">
-        <v>-0.05728803592631292</v>
+        <v>-0.1061795603199002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="n">
-        <v>2019202004</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s"/>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D16" t="n">
-        <v>0.2241671386283186</v>
+        <v>-0.05319045307754075</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.51741941041767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s"/>
-      <c r="D17" t="n">
-        <v>-0.3551390785789929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s"/>
+      <c r="B18" s="1" t="s"/>
+      <c r="C18" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D18" t="n">
-        <v>0.01512688517155044</v>
+        <v>-0.5092672280535229</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D19" t="n">
-        <v>0.1271747961035146</v>
+        <v>-0.007020870124316432</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D20" t="n">
-        <v>0.6131034048595333</v>
+        <v>-0.2173119358214259</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D21" t="n">
-        <v>0.2330991957032414</v>
+        <v>-0.2605747806553172</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n">
         <v>2019202005</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s"/>
       <c r="D22" t="n">
-        <v>-0.03758775698734641</v>
+        <v>-0.2014235454813788</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D23" t="n">
-        <v>-0.261424332629562</v>
+        <v>-0.05731018811203877</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D24" t="n">
-        <v>-0.1490562788514872</v>
+        <v>0.04402798314911184</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D25" t="n">
-        <v>-0.2626860709556723</v>
+        <v>1.026220696429753</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s"/>
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s"/>
+      <c r="C26" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D26" t="n">
-        <v>-0.03828167504821621</v>
+        <v>-0.160927082951158</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D27" t="n">
-        <v>-0.1178701948128858</v>
+        <v>-0.09793129214671109</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="n">
-        <v>2019202006</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s"/>
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D28" t="n">
-        <v>-0.2898695073922076</v>
+        <v>-0.1505868393769367</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D29" t="n">
-        <v>0.08026210561969133</v>
+        <v>-0.08111803665026759</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="1" t="s"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D30" t="n">
-        <v>0.2047610481483022</v>
+        <v>-0.2536364064871929</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D31" t="n">
-        <v>0.1175121711160575</v>
+        <v>-0.993804756931034</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1" t="s"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D32" t="n">
-        <v>0.05167116047185889</v>
+        <v>0.2403125455583137</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="1" t="s"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n">
+        <v>2019202008</v>
+      </c>
       <c r="D33" t="n">
-        <v>-0.1145220851304799</v>
+        <v>2.824426186190506</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="1" t="s"/>
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s"/>
+      <c r="C34" s="1" t="n">
+        <v>2019202001</v>
+      </c>
       <c r="D34" t="n">
-        <v>0.0274814661260395</v>
+        <v>-0.07567849964514897</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="n">
-        <v>2019202007</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="1" t="s"/>
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n">
+        <v>2019202002</v>
+      </c>
       <c r="D35" t="n">
-        <v>3.272055008454207</v>
+        <v>-0.2783289053216815</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="1" t="s"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n">
+        <v>2019202003</v>
+      </c>
       <c r="D36" t="n">
-        <v>0.7300620066684752</v>
+        <v>-0.4657650966564278</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="1" t="s"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n">
+        <v>2019202004</v>
+      </c>
       <c r="D37" t="n">
-        <v>6.751221667630822</v>
+        <v>0.54078942001399</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n">
+        <v>2019202005</v>
+      </c>
       <c r="D38" t="n">
-        <v>0.5844305420506642</v>
+        <v>-0.8170619247645281</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1" t="s"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n">
+        <v>2019202006</v>
+      </c>
       <c r="D39" t="n">
-        <v>0.3727894794456363</v>
+        <v>-0.3617858556291489</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="1" t="s"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n">
+        <v>2019202007</v>
+      </c>
       <c r="D40" t="n">
-        <v>0.3421120370903326</v>
+        <v>0.8492741006175377</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.8354676673794983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1" t="s"/>
+      <c r="C42" s="1" t="n">
+        <v>2019202001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.0794780471649864</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n">
+        <v>2019202002</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.04115225407715703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.111757567775119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.1112795124039625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1922576051892655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n">
+        <v>2019202006</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.007186545233475317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n">
+        <v>2019202007</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.4953111848255856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.471973922750675</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1" t="s"/>
-      <c r="D41" t="n">
-        <v>0.7050598778175511</v>
+      <c r="B50" s="1" t="s"/>
+      <c r="C50" s="1" t="n">
+        <v>2019202001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.04552163699166871</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n">
+        <v>2019202002</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.1142224198380759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n">
+        <v>2019202003</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.1338224921176881</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n">
+        <v>2019202004</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0304920138906457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n">
+        <v>2019202005</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.2716725242130462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n">
+        <v>2019202006</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.2270611740090424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n">
+        <v>2019202007</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3270131872153612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n">
+        <v>2019202008</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9319915492765882</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A41"/>
+  <mergeCells count="14">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B50:B57"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -4666,7 +5414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4674,17 +5422,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="n">
+        <v>2019202009</v>
+      </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="n">
+        <v>0.504193390692125</v>
       </c>
     </row>
   </sheetData>
@@ -4716,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4740,7 +5505,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4762,7 +5527,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -4774,49 +5539,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F3" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
       <c r="E4" t="n">
-        <v>22262.41841561454</v>
+        <v>23533.04459635417</v>
       </c>
       <c r="F4" t="n">
-        <v>661500.7734375</v>
+        <v>665094.1671626985</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="n">
-        <v>25286.71080126651</v>
+        <v>27044.16191417831</v>
       </c>
       <c r="F5" t="n">
-        <v>740988.3092375267</v>
+        <v>742898.5764620925</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
       <c r="E6" t="n">
-        <v>1073.922973632812</v>
+        <v>1084.801025390625</v>
       </c>
       <c r="F6" t="n">
         <v>51477.0390625</v>
@@ -4824,63 +5589,63 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
       <c r="E7" t="n">
-        <v>3401.470886230469</v>
+        <v>3937.933959960938</v>
       </c>
       <c r="F7" t="n">
-        <v>134371.23828125</v>
+        <v>135275.203125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
       <c r="E8" t="n">
-        <v>16998.4658203125</v>
+        <v>17092.81640625</v>
       </c>
       <c r="F8" t="n">
-        <v>458175.984375</v>
+        <v>459627.34375</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="n">
-        <v>25114.10498046875</v>
+        <v>27300.0751953125</v>
       </c>
       <c r="F9" t="n">
-        <v>867694</v>
+        <v>852000.46875</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
       <c r="D10" t="s"/>
       <c r="E10" t="n">
-        <v>98297.34375</v>
+        <v>118003.296875</v>
       </c>
       <c r="F10" t="n">
-        <v>2409430</v>
+        <v>2435859.75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4902,7 +5667,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -4914,49 +5679,49 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F18" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
       <c r="D19" t="s"/>
       <c r="E19" t="n">
-        <v>21458.25446926818</v>
+        <v>22262.41841561454</v>
       </c>
       <c r="F19" t="n">
-        <v>660920.2998246173</v>
+        <v>661500.7734375</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s"/>
       <c r="C20" t="s"/>
       <c r="D20" t="s"/>
       <c r="E20" t="n">
-        <v>24312.05426421196</v>
+        <v>25286.71080126651</v>
       </c>
       <c r="F20" t="n">
-        <v>741757.0630844873</v>
+        <v>740988.3092375267</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
       <c r="D21" t="s"/>
       <c r="E21" t="n">
-        <v>1039.89697265625</v>
+        <v>1073.922973632812</v>
       </c>
       <c r="F21" t="n">
         <v>51477.0390625</v>
@@ -4964,55 +5729,55 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
       <c r="D22" t="s"/>
       <c r="E22" t="n">
-        <v>3487.368896484375</v>
+        <v>3401.470886230469</v>
       </c>
       <c r="F22" t="n">
-        <v>133770.265625</v>
+        <v>134371.23828125</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
       <c r="D23" t="s"/>
       <c r="E23" t="n">
-        <v>16902.26953125</v>
+        <v>16998.4658203125</v>
       </c>
       <c r="F23" t="n">
-        <v>459627.34375</v>
+        <v>458175.984375</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
       <c r="D24" t="s"/>
       <c r="E24" t="n">
-        <v>24272.455078125</v>
+        <v>25114.10498046875</v>
       </c>
       <c r="F24" t="n">
-        <v>863191</v>
+        <v>867694</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
       <c r="D25" t="s"/>
       <c r="E25" t="n">
-        <v>98413.34375</v>
+        <v>98297.34375</v>
       </c>
       <c r="F25" t="n">
         <v>2409430</v>
